--- a/pokedex Nova.xlsx
+++ b/pokedex Nova.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="1200">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
@@ -603,25 +603,7 @@
 Tem um kit completo para ser chata: Cura com Morning Sun, Hypnosis e Taunt para ganhar tempo. Tudo isso lhe dando acesso a Swords Dance e te fazendo ficar buff. Psycho Cut e Play Rough terminam o set.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Rapidash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">-galar</t>
-    </r>
+    <t xml:space="preserve">Rapidash-galar</t>
   </si>
   <si>
     <t xml:space="preserve">Psychic/Fairy</t>
@@ -3563,25 +3545,7 @@
     <t xml:space="preserve">Musharna libera uma fumaça de sonho pela testa, onde armazena as visões que consome. Ao espalhar essa fumaça, ele pode influenciar o clima do sono ao redor e revelar fragmentos de sonhos antigos.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Yamask</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">-galar</t>
-    </r>
+    <t xml:space="preserve">Yamask-galar</t>
   </si>
   <si>
     <t xml:space="preserve">Ground/Ghost</t>
@@ -3798,6 +3762,36 @@
 Por que funciona: Spiritomb não precisa ganhar rápido. Ele ganha por sufocar recurso: PP (Pressure), HP (burn), e turnos (Taunt/Sucker).</t>
   </si>
   <si>
+    <t xml:space="preserve">Corsola-Galar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galarian Corsola consome energia espiritual da força vital que absorve. Essa dieta eventualmente faz com que a casca de Corsola se quebre, seu corpo se torne incorpóreo e sua energia espiritual se derrame, completando assim sua evolução para Cursola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDL de Alta Viabilidade: Hex, , Harden, Strengh Sap, Curse, Mirror Coat, Endure. Habilidade Cursed Body. Explicação: A definição de Tanque, se o oponente usa golpes físicos Harden aumenta sua defesa, Strengh Sap diminui ataque de oponentes enquanto cura Cursola, Ice Beam permite tentar diminuir a Presence do oponente ao passo que ameaça Mirror Coat contra golpes especiais e abusa de Curse. Parceiros: Cursola é bastante passiva e costuma jogar sozinha, pokemons que impessam combos demoradas são fundamentais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Baixo Deserto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sua parte traseira tem uma pequena mancha vermelha redonda que geralmente é obscurecida por chamas produzidas pela queima de gás em seu estômago. Essas chamas não podem ser apagadas pela chuva, embora se apaguem quando Chimchar vai dormir e queimem fracamente quando se sente doente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este Pokémon ágil pratica um tipo único de arte marcial que envolve todos os seus membros, pois se envolve em chamas e usa socos e chutes de fogo. Esta forma de batalha é comparável à dança. Infernape também é conhecido por possuir velocidade incomparável. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooper é um Pokémon estúpido e alheio ao que está ao seu redor. Wooper vive em água fria a maior parte do tempo. Ao dormir, enterra-se parcialmente na lama do fundo. Ocasionalmente, sai da água quando o ar esfria à noite para procurar comida ao longo da costa. Ao caminhar em terra, ele cobre seu corpo com uma película viscosa e tóxica que impede a desidratação de sua pele e protege contra o frio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diancie</t>
   </si>
   <si>
@@ -3827,7 +3821,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3908,12 +3902,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -4048,7 +4036,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4149,7 +4137,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4169,8 +4157,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4578,10 +4574,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG999"/>
+  <dimension ref="A1:AG1005"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A374" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C374" activeCellId="0" sqref="C374"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B396" activeCellId="0" sqref="B396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26188,38 +26184,38 @@
       <c r="AG389" s="5"/>
     </row>
     <row r="390" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A390" s="20"/>
+      <c r="A390" s="9"/>
       <c r="B390" s="10" t="str">
         <f aca="false">"#"&amp;TEXT(ROW(B390)-1,"000")</f>
         <v>#389</v>
       </c>
-      <c r="C390" s="21" t="s">
+      <c r="C390" s="31" t="s">
         <v>1183</v>
       </c>
-      <c r="D390" s="21" t="s">
-        <v>929</v>
+      <c r="D390" s="31" t="s">
+        <v>1184</v>
       </c>
       <c r="E390" s="31" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F390" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G390" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F390" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="G390" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="H390" s="32"/>
+      <c r="I390" s="31" t="s">
         <v>1185</v>
       </c>
-      <c r="H390" s="5"/>
-      <c r="I390" s="16" t="s">
+      <c r="J390" s="31" t="s">
         <v>1186</v>
       </c>
-      <c r="J390" s="32" t="s">
-        <v>1187</v>
-      </c>
-      <c r="K390" s="32" t="n">
-        <v>5</v>
+      <c r="K390" s="17" t="n">
+        <v>1</v>
       </c>
       <c r="L390" s="14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M390" s="8"/>
       <c r="N390" s="5"/>
@@ -26244,38 +26240,38 @@
       <c r="AG390" s="5"/>
     </row>
     <row r="391" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A391" s="20"/>
+      <c r="A391" s="9"/>
       <c r="B391" s="10" t="str">
         <f aca="false">"#"&amp;TEXT(ROW(B391)-1,"000")</f>
         <v>#390</v>
       </c>
-      <c r="C391" s="21" t="s">
+      <c r="C391" s="31" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D391" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="E391" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F391" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G391" s="31" t="s">
         <v>1188</v>
       </c>
-      <c r="D391" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E391" s="31" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F391" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G391" s="11" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H391" s="5"/>
-      <c r="I391" s="16" t="s">
+      <c r="H391" s="32"/>
+      <c r="I391" s="31" t="s">
         <v>1189</v>
       </c>
-      <c r="J391" s="32" t="s">
-        <v>1187</v>
-      </c>
-      <c r="K391" s="32" t="n">
-        <v>5</v>
+      <c r="J391" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="K391" s="17" t="n">
+        <v>1</v>
       </c>
       <c r="L391" s="14" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M391" s="8"/>
       <c r="N391" s="5"/>
@@ -26299,12 +26295,342 @@
       <c r="AF391" s="5"/>
       <c r="AG391" s="5"/>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A392" s="9"/>
+      <c r="B392" s="10" t="str">
+        <f aca="false">"#"&amp;TEXT(ROW(B392)-1,"000")</f>
+        <v>#391</v>
+      </c>
+      <c r="C392" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="D392" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="E392" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F392" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G392" s="31" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H392" s="32"/>
+      <c r="I392" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="J392" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="K392" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L392" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" s="8"/>
+      <c r="N392" s="5"/>
+      <c r="O392" s="5"/>
+      <c r="P392" s="5"/>
+      <c r="Q392" s="5"/>
+      <c r="R392" s="5"/>
+      <c r="S392" s="5"/>
+      <c r="T392" s="5"/>
+      <c r="U392" s="5"/>
+      <c r="V392" s="5"/>
+      <c r="W392" s="5"/>
+      <c r="X392" s="5"/>
+      <c r="Y392" s="5"/>
+      <c r="Z392" s="5"/>
+      <c r="AA392" s="5"/>
+      <c r="AB392" s="5"/>
+      <c r="AC392" s="5"/>
+      <c r="AD392" s="5"/>
+      <c r="AE392" s="5"/>
+      <c r="AF392" s="5"/>
+      <c r="AG392" s="5"/>
+    </row>
+    <row r="393" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A393" s="9"/>
+      <c r="B393" s="10" t="str">
+        <f aca="false">"#"&amp;TEXT(ROW(B393)-1,"000")</f>
+        <v>#392</v>
+      </c>
+      <c r="C393" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D393" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="E393" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F393" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="G393" s="31" t="s">
+        <v>214</v>
+      </c>
+      <c r="H393" s="32"/>
+      <c r="I393" s="31" t="s">
+        <v>1190</v>
+      </c>
+      <c r="J393" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="K393" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="L393" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" s="8"/>
+      <c r="N393" s="5"/>
+      <c r="O393" s="5"/>
+      <c r="P393" s="5"/>
+      <c r="Q393" s="5"/>
+      <c r="R393" s="5"/>
+      <c r="S393" s="5"/>
+      <c r="T393" s="5"/>
+      <c r="U393" s="5"/>
+      <c r="V393" s="5"/>
+      <c r="W393" s="5"/>
+      <c r="X393" s="5"/>
+      <c r="Y393" s="5"/>
+      <c r="Z393" s="5"/>
+      <c r="AA393" s="5"/>
+      <c r="AB393" s="5"/>
+      <c r="AC393" s="5"/>
+      <c r="AD393" s="5"/>
+      <c r="AE393" s="5"/>
+      <c r="AF393" s="5"/>
+      <c r="AG393" s="5"/>
+    </row>
+    <row r="394" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A394" s="9"/>
+      <c r="B394" s="10" t="str">
+        <f aca="false">"#"&amp;TEXT(ROW(B394)-1,"000")</f>
+        <v>#393</v>
+      </c>
+      <c r="C394" s="31" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D394" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="E394" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F394" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G394" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H394" s="32"/>
+      <c r="I394" s="31" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J394" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="K394" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L394" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" s="8"/>
+      <c r="N394" s="5"/>
+      <c r="O394" s="5"/>
+      <c r="P394" s="5"/>
+      <c r="Q394" s="5"/>
+      <c r="R394" s="5"/>
+      <c r="S394" s="5"/>
+      <c r="T394" s="5"/>
+      <c r="U394" s="5"/>
+      <c r="V394" s="5"/>
+      <c r="W394" s="5"/>
+      <c r="X394" s="5"/>
+      <c r="Y394" s="5"/>
+      <c r="Z394" s="5"/>
+      <c r="AA394" s="5"/>
+      <c r="AB394" s="5"/>
+      <c r="AC394" s="5"/>
+      <c r="AD394" s="5"/>
+      <c r="AE394" s="5"/>
+      <c r="AF394" s="5"/>
+      <c r="AG394" s="5"/>
+    </row>
+    <row r="395" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A395" s="9"/>
+      <c r="B395" s="10" t="str">
+        <f aca="false">"#"&amp;TEXT(ROW(B395)-1,"000")</f>
+        <v>#394</v>
+      </c>
+      <c r="C395" s="31" t="s">
+        <v>873</v>
+      </c>
+      <c r="D395" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="E395" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F395" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="G395" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H395" s="32"/>
+      <c r="I395" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="J395" s="31" t="s">
+        <v>875</v>
+      </c>
+      <c r="K395" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L395" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" s="8"/>
+      <c r="N395" s="5"/>
+      <c r="O395" s="5"/>
+      <c r="P395" s="5"/>
+      <c r="Q395" s="5"/>
+      <c r="R395" s="5"/>
+      <c r="S395" s="5"/>
+      <c r="T395" s="5"/>
+      <c r="U395" s="5"/>
+      <c r="V395" s="5"/>
+      <c r="W395" s="5"/>
+      <c r="X395" s="5"/>
+      <c r="Y395" s="5"/>
+      <c r="Z395" s="5"/>
+      <c r="AA395" s="5"/>
+      <c r="AB395" s="5"/>
+      <c r="AC395" s="5"/>
+      <c r="AD395" s="5"/>
+      <c r="AE395" s="5"/>
+      <c r="AF395" s="5"/>
+      <c r="AG395" s="5"/>
+    </row>
+    <row r="396" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A396" s="20"/>
+      <c r="B396" s="10" t="str">
+        <f aca="false">"#"&amp;TEXT(ROW(B396)-1,"000")</f>
+        <v>#395</v>
+      </c>
+      <c r="C396" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D396" s="21" t="s">
+        <v>929</v>
+      </c>
+      <c r="E396" s="33" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F396" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G396" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H396" s="5"/>
+      <c r="I396" s="16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J396" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K396" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="L396" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M396" s="8"/>
+      <c r="N396" s="5"/>
+      <c r="O396" s="5"/>
+      <c r="P396" s="5"/>
+      <c r="Q396" s="5"/>
+      <c r="R396" s="5"/>
+      <c r="S396" s="5"/>
+      <c r="T396" s="5"/>
+      <c r="U396" s="5"/>
+      <c r="V396" s="5"/>
+      <c r="W396" s="5"/>
+      <c r="X396" s="5"/>
+      <c r="Y396" s="5"/>
+      <c r="Z396" s="5"/>
+      <c r="AA396" s="5"/>
+      <c r="AB396" s="5"/>
+      <c r="AC396" s="5"/>
+      <c r="AD396" s="5"/>
+      <c r="AE396" s="5"/>
+      <c r="AF396" s="5"/>
+      <c r="AG396" s="5"/>
+    </row>
+    <row r="397" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="20"/>
+      <c r="B397" s="10" t="str">
+        <f aca="false">"#"&amp;TEXT(ROW(B397)-1,"000")</f>
+        <v>#396</v>
+      </c>
+      <c r="C397" s="21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D397" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E397" s="33" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F397" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G397" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H397" s="5"/>
+      <c r="I397" s="16" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J397" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K397" s="34" t="n">
+        <v>5</v>
+      </c>
+      <c r="L397" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="M397" s="8"/>
+      <c r="N397" s="5"/>
+      <c r="O397" s="5"/>
+      <c r="P397" s="5"/>
+      <c r="Q397" s="5"/>
+      <c r="R397" s="5"/>
+      <c r="S397" s="5"/>
+      <c r="T397" s="5"/>
+      <c r="U397" s="5"/>
+      <c r="V397" s="5"/>
+      <c r="W397" s="5"/>
+      <c r="X397" s="5"/>
+      <c r="Y397" s="5"/>
+      <c r="Z397" s="5"/>
+      <c r="AA397" s="5"/>
+      <c r="AB397" s="5"/>
+      <c r="AC397" s="5"/>
+      <c r="AD397" s="5"/>
+      <c r="AE397" s="5"/>
+      <c r="AF397" s="5"/>
+      <c r="AG397" s="5"/>
+    </row>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -26907,8 +27233,14 @@
     <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E1:E275 D276:D277 E278:E391">
+  <conditionalFormatting sqref="E1:E275 D276:D277 E396:E397 E278:E389 E392:E393">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Raro"</formula>
     </cfRule>
@@ -26922,7 +27254,7 @@
       <formula>NOT(ISERROR(SEARCH("",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F20 F23:F116 F120 F122:F161 F163:F207 F210:F219 F222:F271 F274:F284 F286:F287 F290:F314 F317:F338 F341:F347 F350:F391">
+  <conditionalFormatting sqref="F2:F20 F23:F116 F120 F122:F161 F163:F207 F210:F219 F222:F271 F274:F284 F286:F287 F290:F314 F317:F338 F341:F347 F396:F397 F350:F389 F392:F393">
     <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH("",F2)))</formula>
     </cfRule>
@@ -26966,7 +27298,7 @@
       <formula>NOT(ISERROR(SEARCH("",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F20 F23:F53 F56:F84 F87:F116 F120 F122:F125 F128:F161 F163:F207 F210:F215 F217:F219 F222:F271 F274:F281 F284 F286:F287 F290:F306 F308:F310 F320 F334 F391">
+  <conditionalFormatting sqref="F2:F20 F23:F53 F56:F84 F87:F116 F120 F122:F125 F128:F161 F163:F207 F210:F215 F217:F219 F222:F271 F274:F281 F284 F286:F287 F290:F306 F308:F310 F320 F334 F397">
     <cfRule type="containsText" priority="20" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>NOT(ISERROR(SEARCH("",F2)))</formula>
     </cfRule>
@@ -27031,7 +27363,7 @@
       <formula>NOT(ISERROR(SEARCH("",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J999">
+  <conditionalFormatting sqref="J396:J1005 J1:J389 J392:J393">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>LEN(TRIM(J1))&gt;0</formula>
     </cfRule>

--- a/pokedex Nova.xlsx
+++ b/pokedex Nova.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2685" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1200">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
@@ -663,6 +663,9 @@
     <t xml:space="preserve">Ghost/Poison</t>
   </si>
   <si>
+    <t xml:space="preserve">Baixo Deserto</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gastly é formado por gases venenosos e uma presença fantasmagórica que se esconde em sombras e becos. Ele pode envolver a vítima com sua névoa para enfraquecê-la e assustá-la antes de atacar.</t>
   </si>
   <si>
@@ -670,9 +673,6 @@
   </si>
   <si>
     <t xml:space="preserve">Haunter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baixo Deserto</t>
   </si>
   <si>
     <t xml:space="preserve">Ele é conhecido por sua natureza travessa e sua capacidade de se fundir com as sombras. Haunter também é capaz de induzir medo em seus oponentes e possui uma língua longa que é usada para drenar a energia vital de suas presas.</t>
@@ -1311,6 +1311,15 @@
     <t xml:space="preserve">Metagross combina quatro cérebros em um só, processando informações como um supercomputador para prever movimentos do oponente. Ele usa magnetismo e força bruta para esmagar inimigos com ataques precisos.</t>
   </si>
   <si>
+    <t xml:space="preserve">Chimchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sua parte traseira tem uma pequena mancha vermelha redonda que geralmente é obscurecida por chamas produzidas pela queima de gás em seu estômago. Essas chamas não podem ser apagadas pela chuva, embora se apaguem quando Chimchar vai dormir e queimem fracamente quando se sente doente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COR de Alta Viabilidade: Power-Up Punch, Taunt, Mach Pinch, Thunder Punch, Encore, Stealth Rock, Slack Off, Dig, Double Kick. Habilidade: Iron First. Bate forte com a habilidade, aumenta o ataque com Power-up e controla com taunt e encore.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Monferno</t>
   </si>
   <si>
@@ -1318,9 +1327,6 @@
   </si>
   <si>
     <t xml:space="preserve">A chama na cauda de Monferno tem vários propósitos. Principalmente, pode ser controlado para manter os oponentes a uma distância ideal ou esticado para fazer Monferno parecer maior. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COR de Alta Viabilidade: Power-Up Punch, Taunt, Mach Pinch, Thunder Punch, Encore, Stealth Rock, Slack Off, Dig, Double Kick. Habilidade: Iron First. Bate forte com a habilidade, aumenta o ataque com Power-up e controla com taunt e encore.</t>
   </si>
   <si>
     <t xml:space="preserve">Infernape</t>
@@ -3575,6 +3581,9 @@
     <t xml:space="preserve">Elgyem</t>
   </si>
   <si>
+    <t xml:space="preserve">Locais Abandonados </t>
+  </si>
+  <si>
     <t xml:space="preserve">Elgyem é envolto em mistério e parece ter vindo do espaço, comunicando-se por ondas psíquicas. Ele emite sinais estranhos e pode interferir na mente de quem se aproxima demais.</t>
   </si>
   <si>
@@ -3692,6 +3701,9 @@
     <t xml:space="preserve">Onix</t>
   </si>
   <si>
+    <t xml:space="preserve">Chifre de Ga’Al</t>
+  </si>
+  <si>
     <t xml:space="preserve">Onix cava túneis em alta velocidade e vive em cavernas profundas, onde seu corpo rochoso fica ainda mais resistente. Ele usa a força e o tamanho para esmagar obstáculos e intimidar oponentes.</t>
   </si>
   <si>
@@ -3772,18 +3784,6 @@
   </si>
   <si>
     <t xml:space="preserve">CDL de Alta Viabilidade: Hex, , Harden, Strengh Sap, Curse, Mirror Coat, Endure. Habilidade Cursed Body. Explicação: A definição de Tanque, se o oponente usa golpes físicos Harden aumenta sua defesa, Strengh Sap diminui ataque de oponentes enquanto cura Cursola, Ice Beam permite tentar diminuir a Presence do oponente ao passo que ameaça Mirror Coat contra golpes especiais e abusa de Curse. Parceiros: Cursola é bastante passiva e costuma jogar sozinha, pokemons que impessam combos demoradas são fundamentais.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chimchar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Baixo Deserto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sua parte traseira tem uma pequena mancha vermelha redonda que geralmente é obscurecida por chamas produzidas pela queima de gás em seu estômago. Essas chamas não podem ser apagadas pela chuva, embora se apaguem quando Chimchar vai dormir e queimem fracamente quando se sente doente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este Pokémon ágil pratica um tipo único de arte marcial que envolve todos os seus membros, pois se envolve em chamas e usa socos e chutes de fogo. Esta forma de batalha é comparável à dança. Infernape também é conhecido por possuir velocidade incomparável. </t>
   </si>
   <si>
     <t xml:space="preserve">Wooper</t>
@@ -4137,6 +4137,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4157,16 +4161,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4574,10 +4574,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AG1005"/>
+  <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A391" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B396" activeCellId="0" sqref="B396"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A297" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G388" activeCellId="0" sqref="G388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7576,8 +7576,12 @@
       <c r="E54" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="11"/>
+      <c r="F54" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H54" s="5"/>
       <c r="I54" s="16" t="s">
         <v>189</v>
@@ -7628,8 +7632,12 @@
       <c r="E55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="11"/>
+      <c r="F55" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="H55" s="5"/>
       <c r="I55" s="16" t="s">
         <v>193</v>
@@ -7960,14 +7968,18 @@
       <c r="E61" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="11"/>
+      <c r="F61" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="H61" s="5"/>
       <c r="I61" s="16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J61" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K61" s="17" t="n">
         <v>1</v>
@@ -8004,7 +8016,7 @@
         <v>#061</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D62" s="21" t="s">
         <v>210</v>
@@ -8016,14 +8028,14 @@
         <v>70</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H62" s="5"/>
       <c r="I62" s="16" t="s">
         <v>215</v>
       </c>
       <c r="J62" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K62" s="17" t="n">
         <v>3</v>
@@ -8068,14 +8080,18 @@
       <c r="E63" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="11"/>
+      <c r="F63" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="H63" s="5"/>
       <c r="I63" s="16" t="s">
         <v>217</v>
       </c>
       <c r="J63" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K63" s="17" t="n">
         <v>5</v>
@@ -8796,7 +8812,7 @@
         <v>44</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H76" s="5"/>
       <c r="I76" s="16" t="s">
@@ -9296,8 +9312,12 @@
       <c r="E85" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="11"/>
+      <c r="F85" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>286</v>
+      </c>
       <c r="H85" s="5"/>
       <c r="I85" s="16" t="s">
         <v>290</v>
@@ -9348,8 +9368,12 @@
       <c r="E86" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="11"/>
+      <c r="F86" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>286</v>
+      </c>
       <c r="H86" s="5"/>
       <c r="I86" s="16" t="s">
         <v>294</v>
@@ -11525,8 +11549,8 @@
       <c r="D125" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="E125" s="21" t="s">
-        <v>78</v>
+      <c r="E125" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F125" s="19" t="s">
         <v>70</v>
@@ -11584,8 +11608,12 @@
       <c r="E126" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F126" s="12"/>
-      <c r="G126" s="11"/>
+      <c r="F126" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="H126" s="5"/>
       <c r="I126" s="16" t="s">
         <v>419</v>
@@ -11634,10 +11662,14 @@
         <v>414</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F127" s="12"/>
-      <c r="G127" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="F127" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="H127" s="5"/>
       <c r="I127" s="16" t="s">
         <v>421</v>
@@ -11679,30 +11711,30 @@
         <f aca="false">"#"&amp;TEXT(ROW(B128)-1,"000")</f>
         <v>#127</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="D128" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="H128" s="5"/>
+      <c r="I128" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="E128" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G128" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="H128" s="5"/>
-      <c r="I128" s="16" t="s">
+      <c r="J128" s="25" t="s">
         <v>424</v>
       </c>
-      <c r="J128" s="17" t="s">
-        <v>425</v>
-      </c>
       <c r="K128" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L128" s="14" t="n">
         <v>1</v>
@@ -11736,10 +11768,10 @@
         <v>#128</v>
       </c>
       <c r="C129" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D129" s="21" t="s">
         <v>426</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>423</v>
       </c>
       <c r="E129" s="21" t="s">
         <v>12</v>
@@ -11748,17 +11780,17 @@
         <v>154</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H129" s="5"/>
       <c r="I129" s="16" t="s">
         <v>427</v>
       </c>
       <c r="J129" s="17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K129" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L129" s="14" t="n">
         <v>1</v>
@@ -11795,26 +11827,26 @@
         <v>428</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F130" s="18" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="H130" s="5"/>
       <c r="I130" s="16" t="s">
         <v>429</v>
       </c>
       <c r="J130" s="17" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="K130" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L130" s="14" t="n">
         <v>1</v>
@@ -11848,13 +11880,13 @@
         <v>#130</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D131" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F131" s="18" t="s">
         <v>44</v>
@@ -11864,13 +11896,13 @@
       </c>
       <c r="H131" s="5"/>
       <c r="I131" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="J131" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="J131" s="17" t="s">
-        <v>430</v>
-      </c>
       <c r="K131" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L131" s="14" t="n">
         <v>1</v>
@@ -11923,10 +11955,10 @@
         <v>434</v>
       </c>
       <c r="J132" s="17" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K132" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L132" s="14" t="n">
         <v>1</v>
@@ -11963,26 +11995,26 @@
         <v>435</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E133" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F133" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="F133" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="H133" s="5"/>
       <c r="I133" s="16" t="s">
         <v>436</v>
       </c>
       <c r="J133" s="17" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="K133" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L133" s="14" t="n">
         <v>1</v>
@@ -12016,10 +12048,10 @@
         <v>#133</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>439</v>
+        <v>53</v>
       </c>
       <c r="E134" s="21" t="s">
         <v>33</v>
@@ -12032,13 +12064,13 @@
       </c>
       <c r="H134" s="5"/>
       <c r="I134" s="16" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="J134" s="17" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="K134" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L134" s="14" t="n">
         <v>1</v>
@@ -12072,29 +12104,29 @@
         <v>#134</v>
       </c>
       <c r="C135" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="D135" s="21" t="s">
         <v>441</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="E135" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F135" s="18" t="s">
-        <v>44</v>
+      <c r="F135" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G135" s="11" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="H135" s="5"/>
       <c r="I135" s="16" t="s">
         <v>442</v>
       </c>
       <c r="J135" s="17" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K135" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L135" s="14" t="n">
         <v>1</v>
@@ -12128,7 +12160,7 @@
         <v>#135</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D136" s="21" t="s">
         <v>69</v>
@@ -12144,13 +12176,13 @@
       </c>
       <c r="H136" s="5"/>
       <c r="I136" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="J136" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="J136" s="17" t="s">
-        <v>443</v>
-      </c>
       <c r="K136" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L136" s="14" t="n">
         <v>1</v>
@@ -12190,7 +12222,7 @@
         <v>69</v>
       </c>
       <c r="E137" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F137" s="18" t="s">
         <v>44</v>
@@ -12203,10 +12235,10 @@
         <v>447</v>
       </c>
       <c r="J137" s="17" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K137" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L137" s="14" t="n">
         <v>1</v>
@@ -12243,26 +12275,26 @@
         <v>448</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E138" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F138" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G138" s="11" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="H138" s="5"/>
       <c r="I138" s="16" t="s">
         <v>449</v>
       </c>
       <c r="J138" s="17" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K138" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L138" s="14" t="n">
         <v>1</v>
@@ -12296,13 +12328,13 @@
         <v>#138</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D139" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E139" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F139" s="12" t="s">
         <v>13</v>
@@ -12312,13 +12344,13 @@
       </c>
       <c r="H139" s="5"/>
       <c r="I139" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="J139" s="17" t="s">
         <v>452</v>
       </c>
-      <c r="J139" s="17" t="s">
-        <v>450</v>
-      </c>
       <c r="K139" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L139" s="14" t="n">
         <v>1</v>
@@ -12355,26 +12387,26 @@
         <v>453</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E140" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F140" s="15" t="s">
-        <v>23</v>
+      <c r="F140" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G140" s="11" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H140" s="5"/>
       <c r="I140" s="16" t="s">
         <v>454</v>
       </c>
       <c r="J140" s="17" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K140" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L140" s="14" t="n">
         <v>1</v>
@@ -12408,7 +12440,7 @@
         <v>#140</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D141" s="21" t="s">
         <v>22</v>
@@ -12424,13 +12456,13 @@
       </c>
       <c r="H141" s="5"/>
       <c r="I141" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="J141" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="J141" s="17" t="s">
-        <v>455</v>
-      </c>
       <c r="K141" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L141" s="14" t="n">
         <v>1</v>
@@ -12470,23 +12502,23 @@
         <v>22</v>
       </c>
       <c r="E142" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F142" s="24" t="s">
-        <v>278</v>
+        <v>12</v>
+      </c>
+      <c r="F142" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G142" s="11" t="s">
-        <v>459</v>
+        <v>98</v>
       </c>
       <c r="H142" s="5"/>
       <c r="I142" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J142" s="17" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K142" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L142" s="14" t="n">
         <v>1</v>
@@ -12520,29 +12552,29 @@
         <v>#142</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>463</v>
+        <v>22</v>
       </c>
       <c r="E143" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F143" s="24" t="s">
         <v>278</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H143" s="5"/>
       <c r="I143" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J143" s="17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K143" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L143" s="14" t="n">
         <v>1</v>
@@ -12576,29 +12608,29 @@
         <v>#143</v>
       </c>
       <c r="C144" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D144" s="21" t="s">
         <v>465</v>
       </c>
-      <c r="D144" s="21" t="s">
-        <v>138</v>
-      </c>
       <c r="E144" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F144" s="12" t="s">
-        <v>360</v>
+        <v>12</v>
+      </c>
+      <c r="F144" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="G144" s="11" t="s">
-        <v>214</v>
+        <v>461</v>
       </c>
       <c r="H144" s="5"/>
       <c r="I144" s="16" t="s">
         <v>466</v>
       </c>
       <c r="J144" s="17" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K144" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L144" s="14" t="n">
         <v>1</v>
@@ -12632,29 +12664,29 @@
         <v>#144</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D145" s="21" t="s">
         <v>138</v>
       </c>
       <c r="E145" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>360</v>
       </c>
       <c r="G145" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H145" s="5"/>
       <c r="I145" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="J145" s="17" t="s">
         <v>469</v>
       </c>
-      <c r="J145" s="17" t="s">
-        <v>467</v>
-      </c>
       <c r="K145" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L145" s="14" t="n">
         <v>1</v>
@@ -12691,26 +12723,26 @@
         <v>470</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E146" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>109</v>
+        <v>360</v>
       </c>
       <c r="G146" s="11" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="H146" s="5"/>
       <c r="I146" s="16" t="s">
         <v>471</v>
       </c>
       <c r="J146" s="17" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="K146" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L146" s="14" t="n">
         <v>1</v>
@@ -12744,13 +12776,13 @@
         <v>#146</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>474</v>
+        <v>130</v>
       </c>
       <c r="E147" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F147" s="12" t="s">
         <v>109</v>
@@ -12760,13 +12792,13 @@
       </c>
       <c r="H147" s="5"/>
       <c r="I147" s="16" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J147" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="K147" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L147" s="14" t="n">
         <v>1</v>
@@ -12800,29 +12832,29 @@
         <v>#147</v>
       </c>
       <c r="C148" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="D148" s="21" t="s">
         <v>476</v>
       </c>
-      <c r="D148" s="21" t="s">
-        <v>477</v>
-      </c>
       <c r="E148" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="G148" s="11" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="H148" s="5"/>
       <c r="I148" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J148" s="17" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K148" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L148" s="14" t="n">
         <v>1</v>
@@ -12856,13 +12888,13 @@
         <v>#148</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>13</v>
@@ -12872,13 +12904,13 @@
       </c>
       <c r="H149" s="5"/>
       <c r="I149" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="J149" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="J149" s="17" t="s">
-        <v>479</v>
-      </c>
       <c r="K149" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L149" s="14" t="n">
         <v>1</v>
@@ -12915,26 +12947,26 @@
         <v>482</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>69</v>
+        <v>479</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F150" s="18" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>229</v>
+        <v>84</v>
       </c>
       <c r="H150" s="5"/>
       <c r="I150" s="16" t="s">
         <v>483</v>
       </c>
       <c r="J150" s="17" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K150" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L150" s="14" t="n">
         <v>1</v>
@@ -12968,7 +13000,7 @@
         <v>#150</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D151" s="21" t="s">
         <v>69</v>
@@ -12984,13 +13016,13 @@
       </c>
       <c r="H151" s="5"/>
       <c r="I151" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="J151" s="17" t="s">
         <v>486</v>
       </c>
-      <c r="J151" s="17" t="s">
-        <v>484</v>
-      </c>
       <c r="K151" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L151" s="14" t="n">
         <v>1</v>
@@ -13027,26 +13059,26 @@
         <v>487</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>488</v>
+        <v>69</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F152" s="23" t="s">
-        <v>139</v>
+        <v>228</v>
+      </c>
+      <c r="F152" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="H152" s="5"/>
       <c r="I152" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J152" s="17" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K152" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L152" s="14" t="n">
         <v>1</v>
@@ -13080,10 +13112,10 @@
         <v>#152</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E153" s="21" t="s">
         <v>33</v>
@@ -13096,13 +13128,13 @@
       </c>
       <c r="H153" s="5"/>
       <c r="I153" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="J153" s="17" t="s">
         <v>492</v>
       </c>
-      <c r="J153" s="17" t="s">
-        <v>490</v>
-      </c>
       <c r="K153" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L153" s="14" t="n">
         <v>1</v>
@@ -13139,10 +13171,10 @@
         <v>493</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F154" s="23" t="s">
         <v>139</v>
@@ -13155,10 +13187,10 @@
         <v>494</v>
       </c>
       <c r="J154" s="17" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="K154" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L154" s="14" t="n">
         <v>1</v>
@@ -13195,7 +13227,7 @@
         <v>495</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="E155" s="21" t="s">
         <v>12</v>
@@ -13208,13 +13240,13 @@
       </c>
       <c r="H155" s="5"/>
       <c r="I155" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J155" s="17" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="K155" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L155" s="14" t="n">
         <v>1</v>
@@ -13248,10 +13280,10 @@
         <v>#155</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E156" s="21" t="s">
         <v>12</v>
@@ -13264,13 +13296,13 @@
       </c>
       <c r="H156" s="5"/>
       <c r="I156" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="J156" s="17" t="s">
         <v>500</v>
       </c>
-      <c r="J156" s="17" t="s">
-        <v>498</v>
-      </c>
       <c r="K156" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L156" s="14" t="n">
         <v>1</v>
@@ -13307,10 +13339,10 @@
         <v>501</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>138</v>
+        <v>498</v>
       </c>
       <c r="E157" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F157" s="23" t="s">
         <v>139</v>
@@ -13323,10 +13355,10 @@
         <v>502</v>
       </c>
       <c r="J157" s="17" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K157" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L157" s="14" t="n">
         <v>1</v>
@@ -13360,13 +13392,13 @@
         <v>#157</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>505</v>
+        <v>138</v>
       </c>
       <c r="E158" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F158" s="23" t="s">
         <v>139</v>
@@ -13376,13 +13408,13 @@
       </c>
       <c r="H158" s="5"/>
       <c r="I158" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="J158" s="17" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K158" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L158" s="14" t="n">
         <v>1</v>
@@ -13416,13 +13448,13 @@
         <v>#158</v>
       </c>
       <c r="C159" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="D159" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="D159" s="21" t="s">
-        <v>146</v>
-      </c>
       <c r="E159" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F159" s="23" t="s">
         <v>139</v>
@@ -13435,10 +13467,10 @@
         <v>508</v>
       </c>
       <c r="J159" s="17" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K159" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L159" s="14" t="n">
         <v>1</v>
@@ -13472,7 +13504,7 @@
         <v>#159</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D160" s="21" t="s">
         <v>146</v>
@@ -13488,13 +13520,13 @@
       </c>
       <c r="H160" s="5"/>
       <c r="I160" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="J160" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="J160" s="17" t="s">
-        <v>509</v>
-      </c>
       <c r="K160" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L160" s="14" t="n">
         <v>1</v>
@@ -13534,7 +13566,7 @@
         <v>146</v>
       </c>
       <c r="E161" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F161" s="23" t="s">
         <v>139</v>
@@ -13547,10 +13579,10 @@
         <v>513</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="K161" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L161" s="14" t="n">
         <v>1</v>
@@ -13592,21 +13624,21 @@
       <c r="E162" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F162" s="12" t="s">
-        <v>83</v>
+      <c r="F162" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="H162" s="5"/>
       <c r="I162" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="J162" s="22" t="s">
-        <v>516</v>
+      <c r="J162" s="17" t="s">
+        <v>511</v>
       </c>
       <c r="K162" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L162" s="14" t="n">
         <v>1</v>
@@ -13640,32 +13672,32 @@
         <v>#162</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>496</v>
+        <v>146</v>
       </c>
       <c r="E163" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="G163" s="11" t="s">
-        <v>518</v>
+        <v>211</v>
       </c>
       <c r="H163" s="5"/>
       <c r="I163" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="J163" s="17" t="s">
-        <v>520</v>
+        <v>517</v>
+      </c>
+      <c r="J163" s="22" t="s">
+        <v>518</v>
       </c>
       <c r="K163" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L163" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M163" s="8"/>
       <c r="N163" s="5"/>
@@ -13696,32 +13728,32 @@
         <v>#163</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>90</v>
+        <v>498</v>
       </c>
       <c r="E164" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F164" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="G164" s="11" t="s">
-        <v>124</v>
+        <v>520</v>
       </c>
       <c r="H164" s="5"/>
       <c r="I164" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="J164" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="J164" s="17" t="s">
-        <v>523</v>
-      </c>
       <c r="K164" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L164" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M164" s="8"/>
       <c r="N164" s="5"/>
@@ -13752,13 +13784,13 @@
         <v>#164</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D165" s="21" t="s">
         <v>90</v>
       </c>
       <c r="E165" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F165" s="15" t="s">
         <v>23</v>
@@ -13768,13 +13800,13 @@
       </c>
       <c r="H165" s="5"/>
       <c r="I165" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="J165" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="J165" s="17" t="s">
-        <v>523</v>
-      </c>
       <c r="K165" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L165" s="14" t="n">
         <v>1</v>
@@ -13811,26 +13843,26 @@
         <v>526</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c r="E166" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F166" s="18" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="F166" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G166" s="11" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="H166" s="5"/>
       <c r="I166" s="16" t="s">
         <v>527</v>
       </c>
       <c r="J166" s="17" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K166" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L166" s="14" t="n">
         <v>1</v>
@@ -13864,32 +13896,32 @@
         <v>#166</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>530</v>
+        <v>305</v>
       </c>
       <c r="E167" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="F167" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G167" s="11" t="s">
-        <v>531</v>
+        <v>79</v>
       </c>
       <c r="H167" s="5"/>
       <c r="I167" s="16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J167" s="17" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="K167" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L167" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M167" s="8"/>
       <c r="N167" s="5"/>
@@ -13920,32 +13952,32 @@
         <v>#167</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E168" s="21" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
       <c r="F168" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G168" s="11" t="s">
-        <v>124</v>
+        <v>533</v>
       </c>
       <c r="H168" s="5"/>
       <c r="I168" s="16" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="J168" s="17" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="K168" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L168" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M168" s="8"/>
       <c r="N168" s="5"/>
@@ -13976,13 +14008,13 @@
         <v>#168</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E169" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F169" s="12" t="s">
         <v>13</v>
@@ -13992,13 +14024,13 @@
       </c>
       <c r="H169" s="5"/>
       <c r="I169" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="J169" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="J169" s="17" t="s">
-        <v>537</v>
-      </c>
       <c r="K169" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L169" s="14" t="n">
         <v>1</v>
@@ -14035,26 +14067,26 @@
         <v>540</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E170" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>360</v>
+        <v>13</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>542</v>
+        <v>124</v>
       </c>
       <c r="H170" s="5"/>
       <c r="I170" s="16" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="J170" s="17" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="K170" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L170" s="14" t="n">
         <v>1</v>
@@ -14088,10 +14120,10 @@
         <v>#170</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E171" s="21" t="s">
         <v>12</v>
@@ -14100,17 +14132,17 @@
         <v>360</v>
       </c>
       <c r="G171" s="11" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H171" s="5"/>
       <c r="I171" s="16" t="s">
+        <v>545</v>
+      </c>
+      <c r="J171" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="J171" s="17" t="s">
-        <v>544</v>
-      </c>
       <c r="K171" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L171" s="14" t="n">
         <v>1</v>
@@ -14147,29 +14179,29 @@
         <v>547</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>285</v>
+        <v>543</v>
       </c>
       <c r="E172" s="21" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="G172" s="11" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H172" s="5"/>
       <c r="I172" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J172" s="17" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="K172" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L172" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M172" s="8"/>
       <c r="N172" s="5"/>
@@ -14200,32 +14232,32 @@
         <v>#172</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>552</v>
+        <v>285</v>
       </c>
       <c r="E173" s="21" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="G173" s="11" t="s">
-        <v>415</v>
+        <v>550</v>
       </c>
       <c r="H173" s="5"/>
       <c r="I173" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="J173" s="17" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="K173" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L173" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M173" s="8"/>
       <c r="N173" s="5"/>
@@ -14256,10 +14288,10 @@
         <v>#173</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E174" s="21" t="s">
         <v>12</v>
@@ -14272,13 +14304,13 @@
       </c>
       <c r="H174" s="5"/>
       <c r="I174" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="J174" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="J174" s="17" t="s">
-        <v>554</v>
-      </c>
       <c r="K174" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L174" s="14" t="n">
         <v>1</v>
@@ -14315,26 +14347,26 @@
         <v>557</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E175" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>13</v>
+        <v>360</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>124</v>
+        <v>415</v>
       </c>
       <c r="H175" s="5"/>
       <c r="I175" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J175" s="17" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K175" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L175" s="14" t="n">
         <v>1</v>
@@ -14368,13 +14400,13 @@
         <v>#175</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E176" s="21" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F176" s="12" t="s">
         <v>13</v>
@@ -14384,13 +14416,13 @@
       </c>
       <c r="H176" s="5"/>
       <c r="I176" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="J176" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="J176" s="17" t="s">
-        <v>560</v>
-      </c>
       <c r="K176" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L176" s="14" t="n">
         <v>1</v>
@@ -14427,26 +14459,26 @@
         <v>563</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E177" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F177" s="18" t="s">
-        <v>44</v>
+        <v>78</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="H177" s="5"/>
       <c r="I177" s="16" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J177" s="17" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K177" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L177" s="14" t="n">
         <v>1</v>
@@ -14480,10 +14512,10 @@
         <v>#177</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E178" s="21" t="s">
         <v>228</v>
@@ -14496,13 +14528,13 @@
       </c>
       <c r="H178" s="5"/>
       <c r="I178" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="J178" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="J178" s="17" t="s">
-        <v>566</v>
-      </c>
       <c r="K178" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L178" s="14" t="n">
         <v>1</v>
@@ -14539,23 +14571,23 @@
         <v>569</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E179" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F179" s="12" t="s">
-        <v>382</v>
+        <v>228</v>
+      </c>
+      <c r="F179" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>383</v>
+        <v>229</v>
       </c>
       <c r="H179" s="5"/>
       <c r="I179" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J179" s="17" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="K179" s="17" t="n">
         <v>3</v>
@@ -14592,29 +14624,29 @@
         <v>#179</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>320</v>
+        <v>572</v>
       </c>
       <c r="E180" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F180" s="18" t="s">
-        <v>44</v>
+        <v>78</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>382</v>
       </c>
       <c r="G180" s="11" t="s">
-        <v>214</v>
+        <v>383</v>
       </c>
       <c r="H180" s="5"/>
       <c r="I180" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="J180" s="17" t="s">
         <v>574</v>
       </c>
-      <c r="J180" s="17" t="s">
-        <v>575</v>
-      </c>
       <c r="K180" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L180" s="14" t="n">
         <v>1</v>
@@ -14648,7 +14680,7 @@
         <v>#180</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D181" s="21" t="s">
         <v>320</v>
@@ -14660,17 +14692,17 @@
         <v>44</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H181" s="5"/>
       <c r="I181" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="J181" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="J181" s="17" t="s">
-        <v>575</v>
-      </c>
       <c r="K181" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L181" s="14" t="n">
         <v>1</v>
@@ -14716,17 +14748,17 @@
         <v>44</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="H182" s="5"/>
       <c r="I182" s="16" t="s">
         <v>579</v>
       </c>
       <c r="J182" s="17" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="K182" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L182" s="14" t="n">
         <v>1</v>
@@ -14763,26 +14795,26 @@
         <v>580</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="E183" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F183" s="12" t="s">
-        <v>54</v>
+      <c r="F183" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>131</v>
+        <v>262</v>
       </c>
       <c r="H183" s="5"/>
       <c r="I183" s="16" t="s">
         <v>581</v>
       </c>
       <c r="J183" s="17" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="K183" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L183" s="14" t="n">
         <v>1</v>
@@ -14816,7 +14848,7 @@
         <v>#183</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D184" s="21" t="s">
         <v>405</v>
@@ -14832,13 +14864,13 @@
       </c>
       <c r="H184" s="5"/>
       <c r="I184" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="J184" s="17" t="s">
         <v>584</v>
       </c>
-      <c r="J184" s="17" t="s">
-        <v>582</v>
-      </c>
       <c r="K184" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L184" s="14" t="n">
         <v>1</v>
@@ -14875,26 +14907,26 @@
         <v>585</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>586</v>
+        <v>405</v>
       </c>
       <c r="E185" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F185" s="18" t="s">
-        <v>44</v>
+      <c r="F185" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="H185" s="5"/>
       <c r="I185" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J185" s="17" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K185" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L185" s="14" t="n">
         <v>1</v>
@@ -14928,10 +14960,10 @@
         <v>#185</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E186" s="21" t="s">
         <v>12</v>
@@ -14944,13 +14976,13 @@
       </c>
       <c r="H186" s="5"/>
       <c r="I186" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="J186" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="J186" s="17" t="s">
-        <v>588</v>
-      </c>
       <c r="K186" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L186" s="14" t="n">
         <v>1</v>
@@ -14987,26 +15019,26 @@
         <v>591</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>69</v>
+        <v>588</v>
       </c>
       <c r="E187" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F187" s="18" t="s">
         <v>44</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H187" s="5"/>
       <c r="I187" s="16" t="s">
         <v>592</v>
       </c>
       <c r="J187" s="17" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="K187" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L187" s="14" t="n">
         <v>1</v>
@@ -15040,13 +15072,13 @@
         <v>#187</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D188" s="21" t="s">
         <v>69</v>
       </c>
       <c r="E188" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F188" s="18" t="s">
         <v>44</v>
@@ -15056,13 +15088,13 @@
       </c>
       <c r="H188" s="5"/>
       <c r="I188" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="J188" s="17" t="s">
         <v>595</v>
       </c>
-      <c r="J188" s="17" t="s">
-        <v>593</v>
-      </c>
       <c r="K188" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L188" s="14" t="n">
         <v>1</v>
@@ -15115,10 +15147,10 @@
         <v>597</v>
       </c>
       <c r="J189" s="17" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="K189" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L189" s="14" t="n">
         <v>1</v>
@@ -15155,29 +15187,29 @@
         <v>598</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="E190" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F190" s="15" t="s">
-        <v>23</v>
+      <c r="F190" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>399</v>
+        <v>84</v>
       </c>
       <c r="H190" s="5"/>
       <c r="I190" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="J190" s="22" t="s">
-        <v>389</v>
+      <c r="J190" s="17" t="s">
+        <v>595</v>
       </c>
       <c r="K190" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L190" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M190" s="8"/>
       <c r="N190" s="5"/>
@@ -15211,7 +15243,7 @@
         <v>600</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>601</v>
+        <v>188</v>
       </c>
       <c r="E191" s="21" t="s">
         <v>12</v>
@@ -15220,17 +15252,17 @@
         <v>23</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>124</v>
+        <v>399</v>
       </c>
       <c r="H191" s="5"/>
       <c r="I191" s="16" t="s">
-        <v>602</v>
-      </c>
-      <c r="J191" s="17" t="s">
-        <v>603</v>
+        <v>601</v>
+      </c>
+      <c r="J191" s="22" t="s">
+        <v>389</v>
       </c>
       <c r="K191" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L191" s="14" t="n">
         <v>3</v>
@@ -15264,10 +15296,10 @@
         <v>#191</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E192" s="21" t="s">
         <v>12</v>
@@ -15276,14 +15308,14 @@
         <v>23</v>
       </c>
       <c r="G192" s="11" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="H192" s="5"/>
       <c r="I192" s="16" t="s">
+        <v>604</v>
+      </c>
+      <c r="J192" s="17" t="s">
         <v>605</v>
-      </c>
-      <c r="J192" s="17" t="s">
-        <v>606</v>
       </c>
       <c r="K192" s="17" t="n">
         <v>3</v>
@@ -15320,32 +15352,32 @@
         <v>#192</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>22</v>
+        <v>603</v>
       </c>
       <c r="E193" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F193" s="24" t="s">
-        <v>278</v>
+        <v>12</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>608</v>
+        <v>84</v>
       </c>
       <c r="H193" s="5"/>
       <c r="I193" s="16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J193" s="17" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K193" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L193" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M193" s="8"/>
       <c r="N193" s="5"/>
@@ -15376,29 +15408,29 @@
         <v>#193</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D194" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E194" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F194" s="24" t="s">
         <v>278</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H194" s="5"/>
       <c r="I194" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="J194" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="J194" s="17" t="s">
-        <v>610</v>
-      </c>
       <c r="K194" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L194" s="14" t="n">
         <v>1</v>
@@ -15435,26 +15467,26 @@
         <v>613</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>614</v>
+        <v>22</v>
       </c>
       <c r="E195" s="21" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F195" s="24" t="s">
         <v>278</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H195" s="5"/>
       <c r="I195" s="16" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J195" s="17" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K195" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L195" s="14" t="n">
         <v>1</v>
@@ -15488,29 +15520,29 @@
         <v>#195</v>
       </c>
       <c r="C196" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="D196" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="D196" s="21" t="s">
-        <v>474</v>
-      </c>
       <c r="E196" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F196" s="19" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="F196" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>98</v>
+        <v>610</v>
       </c>
       <c r="H196" s="5"/>
       <c r="I196" s="16" t="s">
         <v>617</v>
       </c>
       <c r="J196" s="17" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="K196" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L196" s="14" t="n">
         <v>1</v>
@@ -15544,10 +15576,10 @@
         <v>#196</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E197" s="21" t="s">
         <v>12</v>
@@ -15556,17 +15588,17 @@
         <v>70</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>620</v>
+        <v>98</v>
       </c>
       <c r="H197" s="5"/>
       <c r="I197" s="16" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="J197" s="17" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K197" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L197" s="14" t="n">
         <v>1</v>
@@ -15600,29 +15632,29 @@
         <v>#197</v>
       </c>
       <c r="C198" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="D198" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="E198" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F198" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G198" s="11" t="s">
         <v>622</v>
-      </c>
-      <c r="D198" s="21" t="s">
-        <v>623</v>
-      </c>
-      <c r="E198" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F198" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G198" s="11" t="s">
-        <v>131</v>
       </c>
       <c r="H198" s="5"/>
       <c r="I198" s="16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J198" s="17" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="K198" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L198" s="14" t="n">
         <v>1</v>
@@ -15656,32 +15688,32 @@
         <v>#198</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>267</v>
+        <v>625</v>
       </c>
       <c r="E199" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F199" s="23" t="s">
-        <v>139</v>
+        <v>78</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H199" s="5"/>
       <c r="I199" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="J199" s="17" t="s">
         <v>627</v>
       </c>
-      <c r="J199" s="17" t="s">
-        <v>628</v>
-      </c>
       <c r="K199" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L199" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M199" s="8"/>
       <c r="N199" s="5"/>
@@ -15712,32 +15744,32 @@
         <v>#199</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>630</v>
+        <v>267</v>
       </c>
       <c r="E200" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F200" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F200" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="H200" s="5"/>
       <c r="I200" s="16" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="J200" s="17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="K200" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L200" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M200" s="8"/>
       <c r="N200" s="5"/>
@@ -15768,26 +15800,26 @@
         <v>#200</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E201" s="21" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="H201" s="5"/>
       <c r="I201" s="16" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="J201" s="17" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="K201" s="17" t="n">
         <v>1</v>
@@ -15824,10 +15856,10 @@
         <v>#201</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E202" s="21" t="s">
         <v>12</v>
@@ -15840,13 +15872,13 @@
       </c>
       <c r="H202" s="5"/>
       <c r="I202" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="J202" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="J202" s="17" t="s">
-        <v>639</v>
-      </c>
       <c r="K202" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L202" s="14" t="n">
         <v>1</v>
@@ -15880,29 +15912,29 @@
         <v>#202</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>138</v>
+        <v>636</v>
       </c>
       <c r="E203" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="H203" s="5"/>
       <c r="I203" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="J203" s="17" t="s">
         <v>641</v>
       </c>
-      <c r="J203" s="17" t="s">
-        <v>642</v>
-      </c>
       <c r="K203" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L203" s="14" t="n">
         <v>1</v>
@@ -15936,7 +15968,7 @@
         <v>#203</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D204" s="21" t="s">
         <v>138</v>
@@ -15948,17 +15980,17 @@
         <v>360</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H204" s="5"/>
       <c r="I204" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="J204" s="17" t="s">
         <v>644</v>
       </c>
-      <c r="J204" s="17" t="s">
-        <v>642</v>
-      </c>
       <c r="K204" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L204" s="14" t="n">
         <v>1</v>
@@ -15995,26 +16027,26 @@
         <v>645</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>646</v>
+        <v>138</v>
       </c>
       <c r="E205" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="G205" s="25" t="s">
-        <v>383</v>
+        <v>360</v>
+      </c>
+      <c r="G205" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="H205" s="5"/>
       <c r="I205" s="16" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J205" s="17" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="K205" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L205" s="14" t="n">
         <v>1</v>
@@ -16048,10 +16080,10 @@
         <v>#205</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E206" s="21" t="s">
         <v>12</v>
@@ -16059,18 +16091,18 @@
       <c r="F206" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="G206" s="25" t="s">
+      <c r="G206" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="H206" s="26"/>
+      <c r="H206" s="5"/>
       <c r="I206" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="J206" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="J206" s="17" t="s">
-        <v>648</v>
-      </c>
       <c r="K206" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L206" s="14" t="n">
         <v>1</v>
@@ -16107,29 +16139,29 @@
         <v>651</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>53</v>
+        <v>648</v>
       </c>
       <c r="E207" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F207" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G207" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="H207" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="G207" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="H207" s="27"/>
       <c r="I207" s="16" t="s">
         <v>652</v>
       </c>
       <c r="J207" s="17" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="K207" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L207" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M207" s="8"/>
       <c r="N207" s="5"/>
@@ -16160,32 +16192,32 @@
         <v>#207</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>387</v>
+        <v>53</v>
       </c>
       <c r="E208" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F208" s="12" t="s">
-        <v>83</v>
+        <v>228</v>
+      </c>
+      <c r="F208" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="H208" s="5"/>
       <c r="I208" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="J208" s="17" t="s">
         <v>655</v>
       </c>
-      <c r="J208" s="17" t="s">
-        <v>656</v>
-      </c>
       <c r="K208" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L208" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M208" s="8"/>
       <c r="N208" s="5"/>
@@ -16216,7 +16248,7 @@
         <v>#208</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D209" s="21" t="s">
         <v>387</v>
@@ -16228,17 +16260,17 @@
         <v>83</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H209" s="5"/>
       <c r="I209" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="J209" s="17" t="s">
         <v>658</v>
       </c>
-      <c r="J209" s="17" t="s">
-        <v>656</v>
-      </c>
       <c r="K209" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L209" s="14" t="n">
         <v>1</v>
@@ -16275,26 +16307,26 @@
         <v>659</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>660</v>
+        <v>387</v>
       </c>
       <c r="E210" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="H210" s="5"/>
       <c r="I210" s="16" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J210" s="17" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="K210" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L210" s="14" t="n">
         <v>1</v>
@@ -16328,10 +16360,10 @@
         <v>#210</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E211" s="21" t="s">
         <v>12</v>
@@ -16344,13 +16376,13 @@
       </c>
       <c r="H211" s="5"/>
       <c r="I211" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="J211" s="17" t="s">
         <v>664</v>
       </c>
-      <c r="J211" s="17" t="s">
-        <v>662</v>
-      </c>
       <c r="K211" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L211" s="14" t="n">
         <v>1</v>
@@ -16387,26 +16419,26 @@
         <v>665</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E212" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F212" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="H212" s="5"/>
       <c r="I212" s="16" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J212" s="17" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="K212" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L212" s="14" t="n">
         <v>1</v>
@@ -16440,10 +16472,10 @@
         <v>#212</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="E213" s="21" t="s">
         <v>78</v>
@@ -16456,13 +16488,13 @@
       </c>
       <c r="H213" s="5"/>
       <c r="I213" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="J213" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="J213" s="17" t="s">
-        <v>668</v>
-      </c>
       <c r="K213" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L213" s="14" t="n">
         <v>1</v>
@@ -16499,26 +16531,26 @@
         <v>671</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E214" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F214" s="12" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="F214" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G214" s="11" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="H214" s="5"/>
       <c r="I214" s="16" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J214" s="17" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="K214" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L214" s="14" t="n">
         <v>1</v>
@@ -16552,13 +16584,13 @@
         <v>#214</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="E215" s="21" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F215" s="12" t="s">
         <v>13</v>
@@ -16568,13 +16600,13 @@
       </c>
       <c r="H215" s="5"/>
       <c r="I215" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="J215" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="J215" s="17" t="s">
-        <v>674</v>
-      </c>
       <c r="K215" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L215" s="14" t="n">
         <v>1</v>
@@ -16607,26 +16639,30 @@
         <f aca="false">"#"&amp;TEXT(ROW(B216)-1,"000")</f>
         <v>#215</v>
       </c>
-      <c r="C216" s="11" t="s">
+      <c r="C216" s="21" t="s">
         <v>677</v>
       </c>
-      <c r="D216" s="11" t="s">
-        <v>678</v>
-      </c>
-      <c r="E216" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F216" s="12"/>
-      <c r="G216" s="11"/>
+      <c r="D216" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="E216" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G216" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="H216" s="5"/>
       <c r="I216" s="16" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J216" s="17" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="K216" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L216" s="14" t="n">
         <v>1</v>
@@ -16659,30 +16695,30 @@
         <f aca="false">"#"&amp;TEXT(ROW(B217)-1,"000")</f>
         <v>#216</v>
       </c>
-      <c r="C217" s="21" t="s">
-        <v>681</v>
-      </c>
-      <c r="D217" s="21" t="s">
-        <v>678</v>
-      </c>
-      <c r="E217" s="21" t="s">
-        <v>78</v>
+      <c r="C217" s="11" t="s">
+        <v>679</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="E217" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="F217" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G217" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H217" s="5"/>
       <c r="I217" s="16" t="s">
+        <v>681</v>
+      </c>
+      <c r="J217" s="17" t="s">
         <v>682</v>
       </c>
-      <c r="J217" s="17" t="s">
-        <v>683</v>
-      </c>
       <c r="K217" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L217" s="14" t="n">
         <v>1</v>
@@ -16716,32 +16752,32 @@
         <v>#217</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E218" s="21" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="G218" s="11" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="H218" s="5"/>
       <c r="I218" s="16" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="J218" s="17" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K218" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L218" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M218" s="8"/>
       <c r="N218" s="5"/>
@@ -16772,32 +16808,32 @@
         <v>#218</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>488</v>
+        <v>687</v>
       </c>
       <c r="E219" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="G219" s="11" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H219" s="5"/>
       <c r="I219" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="J219" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="J219" s="17" t="s">
-        <v>690</v>
-      </c>
       <c r="K219" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L219" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M219" s="8"/>
       <c r="N219" s="5"/>
@@ -16828,29 +16864,29 @@
         <v>#219</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>692</v>
+        <v>490</v>
       </c>
       <c r="E220" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="G220" s="11" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H220" s="5"/>
       <c r="I220" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J220" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="K220" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L220" s="14" t="n">
         <v>1</v>
@@ -16884,10 +16920,10 @@
         <v>#220</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="E221" s="21" t="s">
         <v>12</v>
@@ -16900,13 +16936,13 @@
       </c>
       <c r="H221" s="5"/>
       <c r="I221" s="16" t="s">
+        <v>695</v>
+      </c>
+      <c r="J221" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="J221" s="17" t="s">
-        <v>694</v>
-      </c>
       <c r="K221" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L221" s="14" t="n">
         <v>1</v>
@@ -16943,26 +16979,26 @@
         <v>697</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>320</v>
+        <v>694</v>
       </c>
       <c r="E222" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>698</v>
+        <v>83</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>131</v>
+        <v>84</v>
       </c>
       <c r="H222" s="5"/>
       <c r="I222" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J222" s="17" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="K222" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L222" s="14" t="n">
         <v>1</v>
@@ -16996,29 +17032,29 @@
         <v>#222</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D223" s="21" t="s">
         <v>320</v>
       </c>
       <c r="E223" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G223" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H223" s="5"/>
       <c r="I223" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="J223" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="J223" s="17" t="s">
-        <v>700</v>
-      </c>
       <c r="K223" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L223" s="14" t="n">
         <v>1</v>
@@ -17055,29 +17091,29 @@
         <v>703</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>704</v>
+        <v>320</v>
       </c>
       <c r="E224" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>54</v>
+        <v>700</v>
       </c>
       <c r="G224" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H224" s="5"/>
       <c r="I224" s="16" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J224" s="17" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="K224" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L224" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M224" s="8"/>
       <c r="N224" s="5"/>
@@ -17108,10 +17144,10 @@
         <v>#224</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E225" s="21" t="s">
         <v>12</v>
@@ -17124,13 +17160,13 @@
       </c>
       <c r="H225" s="5"/>
       <c r="I225" s="16" t="s">
+        <v>707</v>
+      </c>
+      <c r="J225" s="17" t="s">
         <v>708</v>
       </c>
-      <c r="J225" s="17" t="s">
-        <v>706</v>
-      </c>
       <c r="K225" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L225" s="14" t="n">
         <v>3</v>
@@ -17167,29 +17203,29 @@
         <v>709</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>22</v>
+        <v>706</v>
       </c>
       <c r="E226" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F226" s="24" t="s">
-        <v>278</v>
+      <c r="F226" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="G226" s="11" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="H226" s="5"/>
       <c r="I226" s="16" t="s">
         <v>710</v>
       </c>
       <c r="J226" s="17" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="K226" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L226" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M226" s="8"/>
       <c r="N226" s="5"/>
@@ -17220,7 +17256,7 @@
         <v>#226</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D227" s="21" t="s">
         <v>22</v>
@@ -17236,13 +17272,13 @@
       </c>
       <c r="H227" s="5"/>
       <c r="I227" s="16" t="s">
+        <v>712</v>
+      </c>
+      <c r="J227" s="17" t="s">
         <v>713</v>
       </c>
-      <c r="J227" s="17" t="s">
-        <v>711</v>
-      </c>
       <c r="K227" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L227" s="14" t="n">
         <v>1</v>
@@ -17279,26 +17315,26 @@
         <v>714</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E228" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F228" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F228" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="G228" s="11" t="s">
-        <v>715</v>
+        <v>98</v>
       </c>
       <c r="H228" s="5"/>
       <c r="I228" s="16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J228" s="17" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="K228" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L228" s="14" t="n">
         <v>1</v>
@@ -17332,7 +17368,7 @@
         <v>#228</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D229" s="21" t="s">
         <v>43</v>
@@ -17344,17 +17380,17 @@
         <v>13</v>
       </c>
       <c r="G229" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H229" s="5"/>
       <c r="I229" s="16" t="s">
+        <v>718</v>
+      </c>
+      <c r="J229" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="J229" s="17" t="s">
-        <v>717</v>
-      </c>
       <c r="K229" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L229" s="14" t="n">
         <v>1</v>
@@ -17394,23 +17430,23 @@
         <v>43</v>
       </c>
       <c r="E230" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G230" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H230" s="5"/>
       <c r="I230" s="16" t="s">
         <v>721</v>
       </c>
       <c r="J230" s="17" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="K230" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L230" s="14" t="n">
         <v>1</v>
@@ -17447,26 +17483,26 @@
         <v>722</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>277</v>
+        <v>43</v>
       </c>
       <c r="E231" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F231" s="24" t="s">
-        <v>278</v>
+      <c r="F231" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G231" s="11" t="s">
-        <v>84</v>
+        <v>717</v>
       </c>
       <c r="H231" s="5"/>
       <c r="I231" s="16" t="s">
         <v>723</v>
       </c>
       <c r="J231" s="17" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="K231" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L231" s="14" t="n">
         <v>1</v>
@@ -17500,7 +17536,7 @@
         <v>#231</v>
       </c>
       <c r="C232" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D232" s="21" t="s">
         <v>277</v>
@@ -17516,13 +17552,13 @@
       </c>
       <c r="H232" s="5"/>
       <c r="I232" s="16" t="s">
+        <v>725</v>
+      </c>
+      <c r="J232" s="17" t="s">
         <v>726</v>
       </c>
-      <c r="J232" s="17" t="s">
-        <v>724</v>
-      </c>
       <c r="K232" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L232" s="14" t="n">
         <v>1</v>
@@ -17559,26 +17595,26 @@
         <v>727</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>43</v>
+        <v>277</v>
       </c>
       <c r="E233" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F233" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F233" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H233" s="5"/>
       <c r="I233" s="16" t="s">
         <v>728</v>
       </c>
       <c r="J233" s="17" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="K233" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L233" s="14" t="n">
         <v>1</v>
@@ -17612,10 +17648,10 @@
         <v>#233</v>
       </c>
       <c r="C234" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>731</v>
+        <v>43</v>
       </c>
       <c r="E234" s="21" t="s">
         <v>33</v>
@@ -17628,13 +17664,13 @@
       </c>
       <c r="H234" s="5"/>
       <c r="I234" s="16" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J234" s="17" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="K234" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L234" s="14" t="n">
         <v>1</v>
@@ -17668,29 +17704,29 @@
         <v>#234</v>
       </c>
       <c r="C235" s="21" t="s">
+        <v>732</v>
+      </c>
+      <c r="D235" s="21" t="s">
         <v>733</v>
-      </c>
-      <c r="D235" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="E235" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G235" s="11" t="s">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="H235" s="5"/>
       <c r="I235" s="16" t="s">
         <v>734</v>
       </c>
       <c r="J235" s="17" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="K235" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L235" s="14" t="n">
         <v>1</v>
@@ -17724,13 +17760,13 @@
         <v>#235</v>
       </c>
       <c r="C236" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D236" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E236" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F236" s="12" t="s">
         <v>54</v>
@@ -17740,13 +17776,13 @@
       </c>
       <c r="H236" s="5"/>
       <c r="I236" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="J236" s="17" t="s">
         <v>737</v>
       </c>
-      <c r="J236" s="17" t="s">
-        <v>735</v>
-      </c>
       <c r="K236" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L236" s="14" t="n">
         <v>1</v>
@@ -17783,32 +17819,32 @@
         <v>738</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>739</v>
+        <v>53</v>
       </c>
       <c r="E237" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G237" s="11" t="s">
-        <v>531</v>
+        <v>131</v>
       </c>
       <c r="H237" s="5"/>
       <c r="I237" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="J237" s="17" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="K237" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L237" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M237" s="8"/>
-      <c r="N237" s="27"/>
+      <c r="N237" s="5"/>
       <c r="O237" s="5"/>
       <c r="P237" s="5"/>
       <c r="Q237" s="5"/>
@@ -17836,35 +17872,35 @@
         <v>#237</v>
       </c>
       <c r="C238" s="21" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>146</v>
+        <v>741</v>
       </c>
       <c r="E238" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F238" s="24" t="s">
-        <v>278</v>
+        <v>12</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G238" s="11" t="s">
-        <v>84</v>
+        <v>533</v>
       </c>
       <c r="H238" s="5"/>
       <c r="I238" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="J238" s="17" t="s">
         <v>743</v>
       </c>
-      <c r="J238" s="17" t="s">
-        <v>744</v>
-      </c>
       <c r="K238" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L238" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M238" s="8"/>
-      <c r="N238" s="5"/>
+      <c r="N238" s="28"/>
       <c r="O238" s="5"/>
       <c r="P238" s="5"/>
       <c r="Q238" s="5"/>
@@ -17892,13 +17928,13 @@
         <v>#238</v>
       </c>
       <c r="C239" s="21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>746</v>
+        <v>146</v>
       </c>
       <c r="E239" s="21" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F239" s="24" t="s">
         <v>278</v>
@@ -17908,13 +17944,13 @@
       </c>
       <c r="H239" s="5"/>
       <c r="I239" s="16" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="J239" s="17" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K239" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L239" s="14" t="n">
         <v>1</v>
@@ -17948,29 +17984,29 @@
         <v>#239</v>
       </c>
       <c r="C240" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="D240" s="21" t="s">
         <v>748</v>
       </c>
-      <c r="D240" s="21" t="s">
-        <v>32</v>
-      </c>
       <c r="E240" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F240" s="12" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="F240" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="G240" s="11" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H240" s="5"/>
       <c r="I240" s="16" t="s">
         <v>749</v>
       </c>
       <c r="J240" s="17" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="K240" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L240" s="14" t="n">
         <v>1</v>
@@ -18004,7 +18040,7 @@
         <v>#240</v>
       </c>
       <c r="C241" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D241" s="21" t="s">
         <v>32</v>
@@ -18020,13 +18056,13 @@
       </c>
       <c r="H241" s="5"/>
       <c r="I241" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="J241" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="J241" s="17" t="s">
-        <v>750</v>
-      </c>
       <c r="K241" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L241" s="14" t="n">
         <v>1</v>
@@ -18063,7 +18099,7 @@
         <v>753</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E242" s="21" t="s">
         <v>33</v>
@@ -18079,10 +18115,10 @@
         <v>754</v>
       </c>
       <c r="J242" s="17" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="K242" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L242" s="14" t="n">
         <v>1</v>
@@ -18135,10 +18171,10 @@
         <v>756</v>
       </c>
       <c r="J243" s="17" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="K243" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L243" s="14" t="n">
         <v>1</v>
@@ -18172,26 +18208,26 @@
         <v>#243</v>
       </c>
       <c r="C244" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="E244" s="21" t="s">
         <v>33</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G244" s="11" t="s">
         <v>62</v>
       </c>
       <c r="H244" s="5"/>
       <c r="I244" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="J244" s="17" t="s">
         <v>759</v>
-      </c>
-      <c r="J244" s="17" t="s">
-        <v>760</v>
       </c>
       <c r="K244" s="17" t="n">
         <v>1</v>
@@ -18228,13 +18264,13 @@
         <v>#244</v>
       </c>
       <c r="C245" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D245" s="21" t="s">
         <v>251</v>
       </c>
       <c r="E245" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F245" s="12" t="s">
         <v>109</v>
@@ -18244,13 +18280,13 @@
       </c>
       <c r="H245" s="5"/>
       <c r="I245" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="J245" s="17" t="s">
         <v>762</v>
       </c>
-      <c r="J245" s="17" t="s">
-        <v>760</v>
-      </c>
       <c r="K245" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L245" s="14" t="n">
         <v>1</v>
@@ -18287,10 +18323,10 @@
         <v>763</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>764</v>
+        <v>251</v>
       </c>
       <c r="E246" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F246" s="12" t="s">
         <v>109</v>
@@ -18300,13 +18336,13 @@
       </c>
       <c r="H246" s="5"/>
       <c r="I246" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J246" s="17" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="K246" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L246" s="14" t="n">
         <v>1</v>
@@ -18340,13 +18376,13 @@
         <v>#246</v>
       </c>
       <c r="C247" s="21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E247" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F247" s="12" t="s">
         <v>109</v>
@@ -18356,13 +18392,13 @@
       </c>
       <c r="H247" s="5"/>
       <c r="I247" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="J247" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="J247" s="17" t="s">
-        <v>766</v>
-      </c>
       <c r="K247" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L247" s="14" t="n">
         <v>1</v>
@@ -18399,26 +18435,26 @@
         <v>769</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E248" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="G248" s="11" t="s">
-        <v>771</v>
+        <v>62</v>
       </c>
       <c r="H248" s="5"/>
       <c r="I248" s="16" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="J248" s="17" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="K248" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L248" s="14" t="n">
         <v>1</v>
@@ -18452,29 +18488,29 @@
         <v>#248</v>
       </c>
       <c r="C249" s="21" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E249" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F249" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G249" s="11" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="H249" s="5"/>
       <c r="I249" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="J249" s="17" t="s">
         <v>775</v>
       </c>
-      <c r="J249" s="17" t="s">
-        <v>773</v>
-      </c>
       <c r="K249" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L249" s="14" t="n">
         <v>1</v>
@@ -18511,7 +18547,7 @@
         <v>776</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="E250" s="21" t="s">
         <v>12</v>
@@ -18520,17 +18556,17 @@
         <v>13</v>
       </c>
       <c r="G250" s="11" t="s">
-        <v>98</v>
+        <v>773</v>
       </c>
       <c r="H250" s="5"/>
       <c r="I250" s="16" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J250" s="17" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="K250" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L250" s="14" t="n">
         <v>1</v>
@@ -18564,10 +18600,10 @@
         <v>#250</v>
       </c>
       <c r="C251" s="21" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E251" s="21" t="s">
         <v>12</v>
@@ -18580,13 +18616,13 @@
       </c>
       <c r="H251" s="5"/>
       <c r="I251" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="J251" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="J251" s="17" t="s">
-        <v>779</v>
-      </c>
       <c r="K251" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L251" s="14" t="n">
         <v>1</v>
@@ -18623,26 +18659,26 @@
         <v>782</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>320</v>
+        <v>779</v>
       </c>
       <c r="E252" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F252" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G252" s="11" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="H252" s="5"/>
       <c r="I252" s="16" t="s">
         <v>783</v>
       </c>
       <c r="J252" s="17" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="K252" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L252" s="14" t="n">
         <v>1</v>
@@ -18676,13 +18712,13 @@
         <v>#252</v>
       </c>
       <c r="C253" s="21" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D253" s="21" t="s">
         <v>320</v>
       </c>
       <c r="E253" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F253" s="12" t="s">
         <v>13</v>
@@ -18692,13 +18728,13 @@
       </c>
       <c r="H253" s="5"/>
       <c r="I253" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="J253" s="17" t="s">
         <v>786</v>
       </c>
-      <c r="J253" s="17" t="s">
-        <v>784</v>
-      </c>
       <c r="K253" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L253" s="14" t="n">
         <v>1</v>
@@ -18751,10 +18787,10 @@
         <v>788</v>
       </c>
       <c r="J254" s="17" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="K254" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L254" s="14" t="n">
         <v>1</v>
@@ -18791,26 +18827,26 @@
         <v>789</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>790</v>
+        <v>320</v>
       </c>
       <c r="E255" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F255" s="24" t="s">
-        <v>278</v>
+      <c r="F255" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G255" s="11" t="s">
-        <v>608</v>
+        <v>62</v>
       </c>
       <c r="H255" s="5"/>
       <c r="I255" s="16" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="J255" s="17" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="K255" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L255" s="14" t="n">
         <v>1</v>
@@ -18844,10 +18880,10 @@
         <v>#255</v>
       </c>
       <c r="C256" s="21" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E256" s="21" t="s">
         <v>12</v>
@@ -18856,17 +18892,17 @@
         <v>278</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="H256" s="5"/>
       <c r="I256" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="J256" s="17" t="s">
         <v>794</v>
       </c>
-      <c r="J256" s="17" t="s">
-        <v>792</v>
-      </c>
       <c r="K256" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L256" s="14" t="n">
         <v>1</v>
@@ -18903,29 +18939,29 @@
         <v>795</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E257" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F257" s="12" t="s">
-        <v>154</v>
+      <c r="F257" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="G257" s="11" t="s">
-        <v>140</v>
+        <v>610</v>
       </c>
       <c r="H257" s="5"/>
       <c r="I257" s="16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="J257" s="17" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="K257" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L257" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M257" s="8"/>
       <c r="N257" s="5"/>
@@ -18956,32 +18992,32 @@
         <v>#257</v>
       </c>
       <c r="C258" s="21" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>22</v>
+        <v>798</v>
       </c>
       <c r="E258" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F258" s="24" t="s">
-        <v>278</v>
+        <v>12</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G258" s="11" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="H258" s="5"/>
       <c r="I258" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="J258" s="17" t="s">
         <v>800</v>
       </c>
-      <c r="J258" s="17" t="s">
-        <v>801</v>
-      </c>
       <c r="K258" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L258" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M258" s="8"/>
       <c r="N258" s="5"/>
@@ -19012,29 +19048,29 @@
         <v>#258</v>
       </c>
       <c r="C259" s="21" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>803</v>
+        <v>22</v>
       </c>
       <c r="E259" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F259" s="24" t="s">
         <v>278</v>
       </c>
       <c r="G259" s="11" t="s">
-        <v>620</v>
+        <v>98</v>
       </c>
       <c r="H259" s="5"/>
       <c r="I259" s="16" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="J259" s="17" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="K259" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L259" s="14" t="n">
         <v>1</v>
@@ -19068,29 +19104,29 @@
         <v>#259</v>
       </c>
       <c r="C260" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="D260" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="D260" s="21" t="s">
-        <v>806</v>
-      </c>
       <c r="E260" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F260" s="15" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="F260" s="24" t="s">
+        <v>278</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>84</v>
+        <v>622</v>
       </c>
       <c r="H260" s="5"/>
       <c r="I260" s="16" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J260" s="17" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="K260" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L260" s="14" t="n">
         <v>1</v>
@@ -19124,13 +19160,13 @@
         <v>#260</v>
       </c>
       <c r="C261" s="21" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F261" s="15" t="s">
         <v>23</v>
@@ -19140,13 +19176,13 @@
       </c>
       <c r="H261" s="5"/>
       <c r="I261" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="J261" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="J261" s="17" t="s">
-        <v>808</v>
-      </c>
       <c r="K261" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L261" s="14" t="n">
         <v>1</v>
@@ -19183,26 +19219,26 @@
         <v>811</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>53</v>
+        <v>808</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F262" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="F262" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>715</v>
+        <v>84</v>
       </c>
       <c r="H262" s="5"/>
       <c r="I262" s="16" t="s">
         <v>812</v>
       </c>
       <c r="J262" s="17" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="K262" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L262" s="14" t="n">
         <v>1</v>
@@ -19236,29 +19272,29 @@
         <v>#262</v>
       </c>
       <c r="C263" s="21" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D263" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E263" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F263" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G263" s="11" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H263" s="5"/>
       <c r="I263" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="J263" s="17" t="s">
         <v>815</v>
       </c>
-      <c r="J263" s="17" t="s">
-        <v>813</v>
-      </c>
       <c r="K263" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L263" s="14" t="n">
         <v>1</v>
@@ -19295,26 +19331,26 @@
         <v>816</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>817</v>
+        <v>53</v>
       </c>
       <c r="E264" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>214</v>
+        <v>717</v>
       </c>
       <c r="H264" s="5"/>
       <c r="I264" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J264" s="17" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="K264" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L264" s="14" t="n">
         <v>1</v>
@@ -19348,10 +19384,10 @@
         <v>#264</v>
       </c>
       <c r="C265" s="21" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E265" s="21" t="s">
         <v>33</v>
@@ -19360,17 +19396,17 @@
         <v>154</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H265" s="5"/>
       <c r="I265" s="16" t="s">
+        <v>820</v>
+      </c>
+      <c r="J265" s="17" t="s">
         <v>821</v>
       </c>
-      <c r="J265" s="17" t="s">
-        <v>819</v>
-      </c>
       <c r="K265" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L265" s="14" t="n">
         <v>1</v>
@@ -19407,26 +19443,26 @@
         <v>822</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E266" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F266" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G266" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H266" s="5"/>
       <c r="I266" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J266" s="17" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="K266" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L266" s="14" t="n">
         <v>1</v>
@@ -19460,36 +19496,34 @@
         <v>#266</v>
       </c>
       <c r="C267" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="D267" s="21" t="s">
         <v>825</v>
       </c>
-      <c r="D267" s="21" t="s">
-        <v>32</v>
-      </c>
       <c r="E267" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F267" s="18" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="F267" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="H267" s="5"/>
       <c r="I267" s="16" t="s">
         <v>826</v>
       </c>
       <c r="J267" s="17" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="K267" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L267" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="M267" s="8" t="s">
-        <v>828</v>
-      </c>
+      <c r="M267" s="8"/>
       <c r="N267" s="5"/>
       <c r="O267" s="5"/>
       <c r="P267" s="5"/>
@@ -19518,13 +19552,13 @@
         <v>#267</v>
       </c>
       <c r="C268" s="21" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>830</v>
+        <v>32</v>
       </c>
       <c r="E268" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F268" s="18" t="s">
         <v>44</v>
@@ -19534,18 +19568,20 @@
       </c>
       <c r="H268" s="5"/>
       <c r="I268" s="16" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="J268" s="17" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K268" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L268" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="M268" s="8"/>
+      <c r="M268" s="8" t="s">
+        <v>830</v>
+      </c>
       <c r="N268" s="5"/>
       <c r="O268" s="5"/>
       <c r="P268" s="5"/>
@@ -19574,10 +19610,10 @@
         <v>#268</v>
       </c>
       <c r="C269" s="21" t="s">
+        <v>831</v>
+      </c>
+      <c r="D269" s="21" t="s">
         <v>832</v>
-      </c>
-      <c r="D269" s="21" t="s">
-        <v>830</v>
       </c>
       <c r="E269" s="21" t="s">
         <v>12</v>
@@ -19593,10 +19629,10 @@
         <v>833</v>
       </c>
       <c r="J269" s="17" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="K269" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L269" s="14" t="n">
         <v>1</v>
@@ -19633,26 +19669,26 @@
         <v>834</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>90</v>
+        <v>832</v>
       </c>
       <c r="E270" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F270" s="12" t="s">
-        <v>54</v>
+        <v>12</v>
+      </c>
+      <c r="F270" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G270" s="11" t="s">
-        <v>835</v>
+        <v>84</v>
       </c>
       <c r="H270" s="5"/>
       <c r="I270" s="16" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J270" s="17" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="K270" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L270" s="14" t="n">
         <v>1</v>
@@ -19686,29 +19722,29 @@
         <v>#270</v>
       </c>
       <c r="C271" s="21" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>839</v>
+        <v>90</v>
       </c>
       <c r="E271" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F271" s="12" t="s">
         <v>54</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="H271" s="5"/>
       <c r="I271" s="16" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J271" s="17" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="K271" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L271" s="14" t="n">
         <v>1</v>
@@ -19742,29 +19778,29 @@
         <v>#271</v>
       </c>
       <c r="C272" s="21" t="s">
+        <v>840</v>
+      </c>
+      <c r="D272" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="D272" s="21" t="s">
-        <v>387</v>
-      </c>
       <c r="E272" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="G272" s="11" t="s">
-        <v>131</v>
+        <v>837</v>
       </c>
       <c r="H272" s="5"/>
       <c r="I272" s="16" t="s">
         <v>842</v>
       </c>
       <c r="J272" s="17" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="K272" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L272" s="14" t="n">
         <v>1</v>
@@ -19798,13 +19834,13 @@
         <v>#272</v>
       </c>
       <c r="C273" s="21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D273" s="21" t="s">
         <v>387</v>
       </c>
       <c r="E273" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F273" s="12" t="s">
         <v>83</v>
@@ -19814,13 +19850,13 @@
       </c>
       <c r="H273" s="5"/>
       <c r="I273" s="16" t="s">
+        <v>844</v>
+      </c>
+      <c r="J273" s="17" t="s">
         <v>845</v>
       </c>
-      <c r="J273" s="17" t="s">
-        <v>843</v>
-      </c>
       <c r="K273" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L273" s="14" t="n">
         <v>1</v>
@@ -19857,26 +19893,26 @@
         <v>846</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>53</v>
+        <v>387</v>
       </c>
       <c r="E274" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>698</v>
+        <v>83</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="H274" s="5"/>
-      <c r="I274" s="28" t="s">
+      <c r="I274" s="16" t="s">
         <v>847</v>
       </c>
       <c r="J274" s="17" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="K274" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L274" s="14" t="n">
         <v>1</v>
@@ -19910,29 +19946,29 @@
         <v>#274</v>
       </c>
       <c r="C275" s="21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D275" s="21" t="s">
         <v>53</v>
       </c>
       <c r="E275" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G275" s="11" t="s">
         <v>84</v>
       </c>
       <c r="H275" s="5"/>
-      <c r="I275" s="16" t="s">
+      <c r="I275" s="29" t="s">
+        <v>849</v>
+      </c>
+      <c r="J275" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="J275" s="17" t="s">
-        <v>848</v>
-      </c>
       <c r="K275" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L275" s="14" t="n">
         <v>1</v>
@@ -19969,26 +20005,26 @@
         <v>851</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E276" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F276" s="15" t="s">
-        <v>23</v>
+      <c r="F276" s="12" t="s">
+        <v>700</v>
       </c>
       <c r="G276" s="11" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="H276" s="5"/>
       <c r="I276" s="16" t="s">
         <v>852</v>
       </c>
       <c r="J276" s="17" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="K276" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L276" s="14" t="n">
         <v>1</v>
@@ -20022,10 +20058,10 @@
         <v>#276</v>
       </c>
       <c r="C277" s="21" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>855</v>
+        <v>22</v>
       </c>
       <c r="E277" s="21" t="s">
         <v>12</v>
@@ -20038,13 +20074,13 @@
       </c>
       <c r="H277" s="5"/>
       <c r="I277" s="16" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J277" s="17" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="K277" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L277" s="14" t="n">
         <v>1</v>
@@ -20078,16 +20114,16 @@
         <v>#277</v>
       </c>
       <c r="C278" s="21" t="s">
+        <v>856</v>
+      </c>
+      <c r="D278" s="21" t="s">
         <v>857</v>
       </c>
-      <c r="D278" s="21" t="s">
-        <v>488</v>
-      </c>
       <c r="E278" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F278" s="23" t="s">
-        <v>139</v>
+        <v>12</v>
+      </c>
+      <c r="F278" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G278" s="11" t="s">
         <v>140</v>
@@ -20097,10 +20133,10 @@
         <v>858</v>
       </c>
       <c r="J278" s="17" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="K278" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L278" s="14" t="n">
         <v>1</v>
@@ -20134,10 +20170,10 @@
         <v>#278</v>
       </c>
       <c r="C279" s="21" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>861</v>
+        <v>490</v>
       </c>
       <c r="E279" s="21" t="s">
         <v>33</v>
@@ -20150,13 +20186,13 @@
       </c>
       <c r="H279" s="5"/>
       <c r="I279" s="16" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J279" s="17" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K279" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L279" s="14" t="n">
         <v>1</v>
@@ -20190,13 +20226,13 @@
         <v>#279</v>
       </c>
       <c r="C280" s="21" t="s">
+        <v>862</v>
+      </c>
+      <c r="D280" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="D280" s="21" t="s">
-        <v>861</v>
-      </c>
       <c r="E280" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F280" s="23" t="s">
         <v>139</v>
@@ -20209,10 +20245,10 @@
         <v>864</v>
       </c>
       <c r="J280" s="17" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="K280" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L280" s="14" t="n">
         <v>1</v>
@@ -20249,26 +20285,26 @@
         <v>865</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E281" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F281" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
+      </c>
+      <c r="F281" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="G281" s="11" t="s">
-        <v>415</v>
+        <v>140</v>
       </c>
       <c r="H281" s="5"/>
       <c r="I281" s="16" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J281" s="17" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="K281" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L281" s="14" t="n">
         <v>1</v>
@@ -20301,26 +20337,30 @@
         <f aca="false">"#"&amp;TEXT(ROW(B282)-1,"000")</f>
         <v>#281</v>
       </c>
-      <c r="C282" s="11" t="s">
-        <v>869</v>
-      </c>
-      <c r="D282" s="11" t="s">
-        <v>866</v>
-      </c>
-      <c r="E282" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F282" s="12"/>
-      <c r="G282" s="11"/>
+      <c r="C282" s="21" t="s">
+        <v>867</v>
+      </c>
+      <c r="D282" s="21" t="s">
+        <v>868</v>
+      </c>
+      <c r="E282" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F282" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G282" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="H282" s="5"/>
       <c r="I282" s="16" t="s">
+        <v>869</v>
+      </c>
+      <c r="J282" s="17" t="s">
         <v>870</v>
       </c>
-      <c r="J282" s="17" t="s">
-        <v>868</v>
-      </c>
       <c r="K282" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L282" s="14" t="n">
         <v>1</v>
@@ -20357,22 +20397,26 @@
         <v>871</v>
       </c>
       <c r="D283" s="11" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="E283" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F283" s="12"/>
-      <c r="G283" s="11"/>
+      <c r="F283" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G283" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="H283" s="5"/>
       <c r="I283" s="16" t="s">
         <v>872</v>
       </c>
       <c r="J283" s="17" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="K283" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L283" s="14" t="n">
         <v>1</v>
@@ -20405,30 +20449,30 @@
         <f aca="false">"#"&amp;TEXT(ROW(B284)-1,"000")</f>
         <v>#283</v>
       </c>
-      <c r="C284" s="21" t="s">
+      <c r="C284" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="D284" s="21" t="s">
-        <v>463</v>
-      </c>
-      <c r="E284" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F284" s="15" t="s">
-        <v>23</v>
+      <c r="D284" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F284" s="12" t="s">
+        <v>109</v>
       </c>
       <c r="G284" s="11" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="H284" s="5"/>
       <c r="I284" s="16" t="s">
         <v>874</v>
       </c>
       <c r="J284" s="17" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="K284" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L284" s="14" t="n">
         <v>1</v>
@@ -20462,32 +20506,32 @@
         <v>#284</v>
       </c>
       <c r="C285" s="21" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>387</v>
+        <v>465</v>
       </c>
       <c r="E285" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F285" s="12" t="s">
-        <v>83</v>
+      <c r="F285" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G285" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H285" s="5"/>
       <c r="I285" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="J285" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="J285" s="17" t="s">
-        <v>878</v>
-      </c>
       <c r="K285" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L285" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M285" s="8"/>
       <c r="N285" s="5"/>
@@ -20518,32 +20562,32 @@
         <v>#285</v>
       </c>
       <c r="C286" s="21" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>880</v>
+        <v>387</v>
       </c>
       <c r="E286" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="G286" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H286" s="5"/>
       <c r="I286" s="16" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J286" s="17" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K286" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L286" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M286" s="8"/>
       <c r="N286" s="5"/>
@@ -20574,10 +20618,10 @@
         <v>#286</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E287" s="21" t="s">
         <v>12</v>
@@ -20590,13 +20634,13 @@
       </c>
       <c r="H287" s="5"/>
       <c r="I287" s="16" t="s">
+        <v>883</v>
+      </c>
+      <c r="J287" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="J287" s="17" t="s">
-        <v>882</v>
-      </c>
       <c r="K287" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L287" s="14" t="n">
         <v>1</v>
@@ -20633,26 +20677,26 @@
         <v>885</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>387</v>
+        <v>882</v>
       </c>
       <c r="E288" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="G288" s="11" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="H288" s="5"/>
       <c r="I288" s="16" t="s">
         <v>886</v>
       </c>
       <c r="J288" s="17" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="K288" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L288" s="14" t="n">
         <v>1</v>
@@ -20686,29 +20730,29 @@
         <v>#288</v>
       </c>
       <c r="C289" s="21" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>889</v>
+        <v>387</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F289" s="12" t="s">
         <v>83</v>
       </c>
       <c r="G289" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H289" s="5"/>
       <c r="I289" s="16" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="J289" s="17" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="K289" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L289" s="14" t="n">
         <v>1</v>
@@ -20742,29 +20786,29 @@
         <v>#289</v>
       </c>
       <c r="C290" s="21" t="s">
+        <v>890</v>
+      </c>
+      <c r="D290" s="21" t="s">
         <v>891</v>
       </c>
-      <c r="D290" s="21" t="s">
-        <v>892</v>
-      </c>
       <c r="E290" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F290" s="15" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="F290" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G290" s="11" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="H290" s="5"/>
       <c r="I290" s="16" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J290" s="17" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="K290" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L290" s="14" t="n">
         <v>1</v>
@@ -20798,10 +20842,10 @@
         <v>#290</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E291" s="21" t="s">
         <v>33</v>
@@ -20814,13 +20858,13 @@
       </c>
       <c r="H291" s="5"/>
       <c r="I291" s="16" t="s">
+        <v>895</v>
+      </c>
+      <c r="J291" s="17" t="s">
         <v>896</v>
       </c>
-      <c r="J291" s="17" t="s">
-        <v>894</v>
-      </c>
       <c r="K291" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L291" s="14" t="n">
         <v>1</v>
@@ -20857,10 +20901,10 @@
         <v>897</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="E292" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F292" s="15" t="s">
         <v>23</v>
@@ -20873,10 +20917,10 @@
         <v>898</v>
       </c>
       <c r="J292" s="17" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="K292" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L292" s="14" t="n">
         <v>1</v>
@@ -20913,26 +20957,26 @@
         <v>899</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F293" s="12" t="s">
-        <v>154</v>
+        <v>12</v>
+      </c>
+      <c r="F293" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G293" s="11" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="H293" s="5"/>
       <c r="I293" s="16" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J293" s="17" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="K293" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L293" s="14" t="n">
         <v>1</v>
@@ -20966,13 +21010,13 @@
         <v>#293</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F294" s="12" t="s">
         <v>154</v>
@@ -20982,13 +21026,13 @@
       </c>
       <c r="H294" s="5"/>
       <c r="I294" s="16" t="s">
+        <v>903</v>
+      </c>
+      <c r="J294" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="J294" s="17" t="s">
-        <v>902</v>
-      </c>
       <c r="K294" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L294" s="14" t="n">
         <v>1</v>
@@ -21025,29 +21069,29 @@
         <v>905</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>488</v>
+        <v>902</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F295" s="18" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="F295" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G295" s="11" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="H295" s="5"/>
       <c r="I295" s="16" t="s">
         <v>906</v>
       </c>
       <c r="J295" s="17" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="K295" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L295" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M295" s="8"/>
       <c r="N295" s="5"/>
@@ -21078,29 +21122,29 @@
         <v>#295</v>
       </c>
       <c r="C296" s="21" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E296" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F296" s="18" t="s">
         <v>44</v>
       </c>
       <c r="G296" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H296" s="5"/>
       <c r="I296" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="J296" s="17" t="s">
         <v>909</v>
       </c>
-      <c r="J296" s="17" t="s">
-        <v>910</v>
-      </c>
       <c r="K296" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L296" s="14" t="n">
         <v>3</v>
@@ -21134,10 +21178,10 @@
         <v>#296</v>
       </c>
       <c r="C297" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>912</v>
+        <v>490</v>
       </c>
       <c r="E297" s="21" t="s">
         <v>12</v>
@@ -21146,20 +21190,20 @@
         <v>44</v>
       </c>
       <c r="G297" s="11" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="H297" s="5"/>
       <c r="I297" s="16" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J297" s="17" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="K297" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L297" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M297" s="8"/>
       <c r="N297" s="5"/>
@@ -21190,26 +21234,26 @@
         <v>#297</v>
       </c>
       <c r="C298" s="21" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>320</v>
+        <v>914</v>
       </c>
       <c r="E298" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F298" s="12" t="s">
-        <v>13</v>
+      <c r="F298" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G298" s="11" t="s">
         <v>124</v>
       </c>
       <c r="H298" s="5"/>
       <c r="I298" s="16" t="s">
+        <v>915</v>
+      </c>
+      <c r="J298" s="17" t="s">
         <v>916</v>
-      </c>
-      <c r="J298" s="17" t="s">
-        <v>917</v>
       </c>
       <c r="K298" s="17" t="n">
         <v>1</v>
@@ -21246,7 +21290,7 @@
         <v>#298</v>
       </c>
       <c r="C299" s="21" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D299" s="21" t="s">
         <v>320</v>
@@ -21262,13 +21306,13 @@
       </c>
       <c r="H299" s="5"/>
       <c r="I299" s="16" t="s">
+        <v>918</v>
+      </c>
+      <c r="J299" s="17" t="s">
         <v>919</v>
       </c>
-      <c r="J299" s="17" t="s">
-        <v>917</v>
-      </c>
       <c r="K299" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L299" s="14" t="n">
         <v>1</v>
@@ -21321,10 +21365,10 @@
         <v>921</v>
       </c>
       <c r="J300" s="17" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="K300" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L300" s="14" t="n">
         <v>1</v>
@@ -21361,26 +21405,26 @@
         <v>922</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>923</v>
+        <v>320</v>
       </c>
       <c r="E301" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F301" s="23" t="s">
-        <v>139</v>
+        <v>12</v>
+      </c>
+      <c r="F301" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="H301" s="5"/>
       <c r="I301" s="16" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="J301" s="17" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="K301" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L301" s="14" t="n">
         <v>1</v>
@@ -21414,13 +21458,13 @@
         <v>#301</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E302" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F302" s="23" t="s">
         <v>139</v>
@@ -21430,13 +21474,13 @@
       </c>
       <c r="H302" s="5"/>
       <c r="I302" s="16" t="s">
+        <v>926</v>
+      </c>
+      <c r="J302" s="17" t="s">
         <v>927</v>
       </c>
-      <c r="J302" s="17" t="s">
-        <v>925</v>
-      </c>
       <c r="K302" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L302" s="14" t="n">
         <v>1</v>
@@ -21473,7 +21517,7 @@
         <v>928</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E303" s="21" t="s">
         <v>12</v>
@@ -21486,16 +21530,16 @@
       </c>
       <c r="H303" s="5"/>
       <c r="I303" s="16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J303" s="17" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="K303" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L303" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M303" s="8"/>
       <c r="N303" s="5"/>
@@ -21526,26 +21570,26 @@
         <v>#303</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="E304" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F304" s="12" t="s">
-        <v>154</v>
+      <c r="F304" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="H304" s="5"/>
       <c r="I304" s="16" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J304" s="17" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="K304" s="17" t="n">
         <v>5</v>
@@ -21582,32 +21626,32 @@
         <v>#304</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E305" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F305" s="12" t="s">
-        <v>360</v>
+        <v>154</v>
       </c>
       <c r="G305" s="11" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="H305" s="5"/>
       <c r="I305" s="16" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J305" s="17" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="K305" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L305" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M305" s="8"/>
       <c r="N305" s="5"/>
@@ -21638,13 +21682,13 @@
         <v>#305</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E306" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F306" s="12" t="s">
         <v>360</v>
@@ -21654,13 +21698,13 @@
       </c>
       <c r="H306" s="5"/>
       <c r="I306" s="16" t="s">
+        <v>940</v>
+      </c>
+      <c r="J306" s="17" t="s">
         <v>941</v>
       </c>
-      <c r="J306" s="17" t="s">
-        <v>939</v>
-      </c>
       <c r="K306" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L306" s="14" t="n">
         <v>1</v>
@@ -21697,26 +21741,26 @@
         <v>942</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>305</v>
+        <v>939</v>
       </c>
       <c r="E307" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="H307" s="5"/>
       <c r="I307" s="16" t="s">
         <v>943</v>
       </c>
       <c r="J307" s="17" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="K307" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L307" s="14" t="n">
         <v>1</v>
@@ -21750,13 +21794,13 @@
         <v>#307</v>
       </c>
       <c r="C308" s="21" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D308" s="21" t="s">
         <v>305</v>
       </c>
       <c r="E308" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F308" s="12" t="s">
         <v>54</v>
@@ -21766,13 +21810,13 @@
       </c>
       <c r="H308" s="5"/>
       <c r="I308" s="16" t="s">
+        <v>945</v>
+      </c>
+      <c r="J308" s="17" t="s">
         <v>946</v>
       </c>
-      <c r="J308" s="17" t="s">
-        <v>944</v>
-      </c>
       <c r="K308" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L308" s="14" t="n">
         <v>1</v>
@@ -21809,26 +21853,26 @@
         <v>947</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="E309" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F309" s="12" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="H309" s="5"/>
       <c r="I309" s="16" t="s">
         <v>948</v>
       </c>
       <c r="J309" s="17" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="K309" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L309" s="14" t="n">
         <v>1</v>
@@ -21862,7 +21906,7 @@
         <v>#309</v>
       </c>
       <c r="C310" s="21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D310" s="21" t="s">
         <v>53</v>
@@ -21878,13 +21922,13 @@
       </c>
       <c r="H310" s="5"/>
       <c r="I310" s="16" t="s">
+        <v>950</v>
+      </c>
+      <c r="J310" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="J310" s="17" t="s">
-        <v>949</v>
-      </c>
       <c r="K310" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L310" s="14" t="n">
         <v>1</v>
@@ -21921,29 +21965,29 @@
         <v>952</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="E311" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F311" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G311" s="11" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="H311" s="5"/>
       <c r="I311" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="J311" s="22" t="s">
-        <v>954</v>
+      <c r="J311" s="17" t="s">
+        <v>951</v>
       </c>
       <c r="K311" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L311" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M311" s="8"/>
       <c r="N311" s="5"/>
@@ -21974,13 +22018,13 @@
         <v>#311</v>
       </c>
       <c r="C312" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="D312" s="21" t="s">
         <v>192</v>
       </c>
       <c r="E312" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F312" s="12" t="s">
         <v>13</v>
@@ -21990,13 +22034,13 @@
       </c>
       <c r="H312" s="5"/>
       <c r="I312" s="16" t="s">
+        <v>955</v>
+      </c>
+      <c r="J312" s="22" t="s">
         <v>956</v>
       </c>
-      <c r="J312" s="22" t="s">
-        <v>954</v>
-      </c>
       <c r="K312" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L312" s="14" t="n">
         <v>3</v>
@@ -22048,11 +22092,11 @@
       <c r="I313" s="16" t="s">
         <v>958</v>
       </c>
-      <c r="J313" s="17" t="s">
-        <v>959</v>
+      <c r="J313" s="22" t="s">
+        <v>956</v>
       </c>
       <c r="K313" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L313" s="14" t="n">
         <v>3</v>
@@ -22086,26 +22130,26 @@
         <v>#313</v>
       </c>
       <c r="C314" s="21" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>961</v>
+        <v>192</v>
       </c>
       <c r="E314" s="21" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F314" s="12" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G314" s="11" t="s">
         <v>124</v>
       </c>
       <c r="H314" s="5"/>
       <c r="I314" s="16" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J314" s="17" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="K314" s="17" t="n">
         <v>5</v>
@@ -22142,32 +22186,32 @@
         <v>#314</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E315" s="21" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F315" s="12" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="G315" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H315" s="5"/>
       <c r="I315" s="16" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J315" s="17" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="K315" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L315" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M315" s="8"/>
       <c r="N315" s="5"/>
@@ -22198,10 +22242,10 @@
         <v>#315</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E316" s="21" t="s">
         <v>12</v>
@@ -22214,13 +22258,13 @@
       </c>
       <c r="H316" s="5"/>
       <c r="I316" s="16" t="s">
+        <v>968</v>
+      </c>
+      <c r="J316" s="17" t="s">
         <v>969</v>
       </c>
-      <c r="J316" s="17" t="s">
-        <v>967</v>
-      </c>
       <c r="K316" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L316" s="14" t="n">
         <v>1</v>
@@ -22257,13 +22301,13 @@
         <v>970</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>69</v>
+        <v>967</v>
       </c>
       <c r="E317" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F317" s="15" t="s">
-        <v>23</v>
+      <c r="F317" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G317" s="11" t="s">
         <v>131</v>
@@ -22273,13 +22317,13 @@
         <v>971</v>
       </c>
       <c r="J317" s="17" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="K317" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L317" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M317" s="8"/>
       <c r="N317" s="5"/>
@@ -22310,32 +22354,32 @@
         <v>#317</v>
       </c>
       <c r="C318" s="21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="E318" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F318" s="12" t="s">
-        <v>154</v>
+        <v>12</v>
+      </c>
+      <c r="F318" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G318" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H318" s="5"/>
       <c r="I318" s="16" t="s">
+        <v>973</v>
+      </c>
+      <c r="J318" s="17" t="s">
         <v>974</v>
       </c>
-      <c r="J318" s="17" t="s">
-        <v>975</v>
-      </c>
       <c r="K318" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L318" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M318" s="8"/>
       <c r="N318" s="5"/>
@@ -22366,13 +22410,13 @@
         <v>#318</v>
       </c>
       <c r="C319" s="21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D319" s="21" t="s">
         <v>138</v>
       </c>
       <c r="E319" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F319" s="12" t="s">
         <v>154</v>
@@ -22382,13 +22426,13 @@
       </c>
       <c r="H319" s="5"/>
       <c r="I319" s="16" t="s">
+        <v>976</v>
+      </c>
+      <c r="J319" s="17" t="s">
         <v>977</v>
       </c>
-      <c r="J319" s="17" t="s">
-        <v>975</v>
-      </c>
       <c r="K319" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L319" s="14" t="n">
         <v>1</v>
@@ -22425,29 +22469,29 @@
         <v>978</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>979</v>
+        <v>138</v>
       </c>
       <c r="E320" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F320" s="12" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="G320" s="11" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="H320" s="5"/>
       <c r="I320" s="16" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J320" s="17" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="K320" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L320" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M320" s="8"/>
       <c r="N320" s="5"/>
@@ -22478,10 +22522,10 @@
         <v>#320</v>
       </c>
       <c r="C321" s="21" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>53</v>
+        <v>981</v>
       </c>
       <c r="E321" s="21" t="s">
         <v>12</v>
@@ -22490,14 +22534,14 @@
         <v>13</v>
       </c>
       <c r="G321" s="11" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="H321" s="5"/>
       <c r="I321" s="16" t="s">
+        <v>982</v>
+      </c>
+      <c r="J321" s="17" t="s">
         <v>983</v>
-      </c>
-      <c r="J321" s="17" t="s">
-        <v>984</v>
       </c>
       <c r="K321" s="17" t="n">
         <v>5</v>
@@ -22534,10 +22578,10 @@
         <v>#321</v>
       </c>
       <c r="C322" s="21" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E322" s="21" t="s">
         <v>12</v>
@@ -22550,10 +22594,10 @@
       </c>
       <c r="H322" s="5"/>
       <c r="I322" s="16" t="s">
+        <v>985</v>
+      </c>
+      <c r="J322" s="17" t="s">
         <v>986</v>
-      </c>
-      <c r="J322" s="17" t="s">
-        <v>987</v>
       </c>
       <c r="K322" s="17" t="n">
         <v>5</v>
@@ -22590,26 +22634,26 @@
         <v>#322</v>
       </c>
       <c r="C323" s="21" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>989</v>
+        <v>90</v>
       </c>
       <c r="E323" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F323" s="12" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="G323" s="11" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="H323" s="5"/>
       <c r="I323" s="16" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="J323" s="17" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="K323" s="17" t="n">
         <v>5</v>
@@ -22646,32 +22690,32 @@
         <v>#323</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>623</v>
+        <v>991</v>
       </c>
       <c r="E324" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F324" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G324" s="11" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="H324" s="5"/>
       <c r="I324" s="16" t="s">
+        <v>992</v>
+      </c>
+      <c r="J324" s="17" t="s">
         <v>993</v>
       </c>
-      <c r="J324" s="17" t="s">
-        <v>994</v>
-      </c>
       <c r="K324" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L324" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M324" s="8"/>
       <c r="N324" s="5"/>
@@ -22702,13 +22746,13 @@
         <v>#324</v>
       </c>
       <c r="C325" s="21" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E325" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F325" s="12" t="s">
         <v>154</v>
@@ -22718,13 +22762,13 @@
       </c>
       <c r="H325" s="5"/>
       <c r="I325" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="J325" s="17" t="s">
         <v>996</v>
       </c>
-      <c r="J325" s="17" t="s">
-        <v>994</v>
-      </c>
       <c r="K325" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L325" s="14" t="n">
         <v>1</v>
@@ -22761,26 +22805,26 @@
         <v>997</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>998</v>
+        <v>625</v>
       </c>
       <c r="E326" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F326" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G326" s="11" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="H326" s="5"/>
       <c r="I326" s="16" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J326" s="17" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="K326" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L326" s="14" t="n">
         <v>1</v>
@@ -22814,29 +22858,29 @@
         <v>#326</v>
       </c>
       <c r="C327" s="21" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="E327" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F327" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G327" s="11" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H327" s="5"/>
       <c r="I327" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J327" s="17" t="s">
         <v>1002</v>
       </c>
-      <c r="J327" s="17" t="s">
-        <v>1000</v>
-      </c>
       <c r="K327" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L327" s="14" t="n">
         <v>1</v>
@@ -22873,7 +22917,7 @@
         <v>1003</v>
       </c>
       <c r="D328" s="21" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E328" s="21" t="s">
         <v>12</v>
@@ -22882,20 +22926,20 @@
         <v>154</v>
       </c>
       <c r="G328" s="11" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="H328" s="5"/>
       <c r="I328" s="16" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="J328" s="17" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="K328" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L328" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M328" s="8"/>
       <c r="N328" s="5"/>
@@ -22926,10 +22970,10 @@
         <v>#328</v>
       </c>
       <c r="C329" s="21" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="E329" s="21" t="s">
         <v>12</v>
@@ -22942,10 +22986,10 @@
       </c>
       <c r="H329" s="5"/>
       <c r="I329" s="16" t="s">
+        <v>1007</v>
+      </c>
+      <c r="J329" s="17" t="s">
         <v>1008</v>
-      </c>
-      <c r="J329" s="17" t="s">
-        <v>1009</v>
       </c>
       <c r="K329" s="17" t="n">
         <v>5</v>
@@ -22982,26 +23026,26 @@
         <v>#329</v>
       </c>
       <c r="C330" s="21" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>255</v>
+        <v>1006</v>
       </c>
       <c r="E330" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F330" s="12" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="G330" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H330" s="5"/>
       <c r="I330" s="16" t="s">
+        <v>1010</v>
+      </c>
+      <c r="J330" s="17" t="s">
         <v>1011</v>
-      </c>
-      <c r="J330" s="17" t="s">
-        <v>1012</v>
       </c>
       <c r="K330" s="17" t="n">
         <v>5</v>
@@ -23038,10 +23082,10 @@
         <v>#330</v>
       </c>
       <c r="C331" s="21" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>1014</v>
+        <v>255</v>
       </c>
       <c r="E331" s="21" t="s">
         <v>12</v>
@@ -23054,10 +23098,10 @@
       </c>
       <c r="H331" s="5"/>
       <c r="I331" s="16" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="J331" s="17" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="K331" s="17" t="n">
         <v>5</v>
@@ -23094,26 +23138,26 @@
         <v>#331</v>
       </c>
       <c r="C332" s="21" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E332" s="21" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F332" s="12" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="G332" s="11" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="H332" s="5"/>
       <c r="I332" s="16" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="J332" s="17" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K332" s="17" t="n">
         <v>5</v>
@@ -23150,32 +23194,32 @@
         <v>#332</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>22</v>
+        <v>1020</v>
       </c>
       <c r="E333" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F333" s="15" t="s">
-        <v>23</v>
+        <v>78</v>
+      </c>
+      <c r="F333" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G333" s="11" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="H333" s="5"/>
       <c r="I333" s="16" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J333" s="17" t="s">
         <v>1022</v>
       </c>
-      <c r="J333" s="17" t="s">
-        <v>1023</v>
-      </c>
       <c r="K333" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L333" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M333" s="8"/>
       <c r="N333" s="5"/>
@@ -23206,13 +23250,13 @@
         <v>#333</v>
       </c>
       <c r="C334" s="21" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D334" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E334" s="21" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F334" s="15" t="s">
         <v>23</v>
@@ -23222,13 +23266,13 @@
       </c>
       <c r="H334" s="5"/>
       <c r="I334" s="16" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J334" s="17" t="s">
         <v>1025</v>
       </c>
-      <c r="J334" s="17" t="s">
-        <v>1023</v>
-      </c>
       <c r="K334" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L334" s="14" t="n">
         <v>1</v>
@@ -23265,26 +23309,26 @@
         <v>1026</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>777</v>
+        <v>22</v>
       </c>
       <c r="E335" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F335" s="12" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="F335" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G335" s="11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H335" s="5"/>
       <c r="I335" s="16" t="s">
         <v>1027</v>
       </c>
       <c r="J335" s="17" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="K335" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L335" s="14" t="n">
         <v>1</v>
@@ -23318,13 +23362,13 @@
         <v>#335</v>
       </c>
       <c r="C336" s="21" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E336" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F336" s="12" t="s">
         <v>13</v>
@@ -23334,13 +23378,13 @@
       </c>
       <c r="H336" s="5"/>
       <c r="I336" s="16" t="s">
+        <v>1029</v>
+      </c>
+      <c r="J336" s="17" t="s">
         <v>1030</v>
       </c>
-      <c r="J336" s="17" t="s">
-        <v>1028</v>
-      </c>
       <c r="K336" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L336" s="14" t="n">
         <v>1</v>
@@ -23377,26 +23421,26 @@
         <v>1031</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>43</v>
+        <v>779</v>
       </c>
       <c r="E337" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F337" s="12" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G337" s="11" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="H337" s="5"/>
       <c r="I337" s="16" t="s">
         <v>1032</v>
       </c>
       <c r="J337" s="17" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="K337" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L337" s="14" t="n">
         <v>1</v>
@@ -23430,29 +23474,29 @@
         <v>#337</v>
       </c>
       <c r="C338" s="21" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F338" s="12" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="G338" s="11" t="s">
         <v>98</v>
       </c>
       <c r="H338" s="5"/>
       <c r="I338" s="16" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J338" s="17" t="s">
         <v>1035</v>
       </c>
-      <c r="J338" s="17" t="s">
-        <v>1033</v>
-      </c>
       <c r="K338" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L338" s="14" t="n">
         <v>1</v>
@@ -23489,26 +23533,26 @@
         <v>1036</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>1037</v>
+        <v>293</v>
       </c>
       <c r="E339" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F339" s="12" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="G339" s="11" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H339" s="5"/>
       <c r="I339" s="16" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J339" s="17" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="K339" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L339" s="14" t="n">
         <v>1</v>
@@ -23542,13 +23586,13 @@
         <v>#339</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E340" s="21" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F340" s="12" t="s">
         <v>83</v>
@@ -23558,13 +23602,13 @@
       </c>
       <c r="H340" s="5"/>
       <c r="I340" s="16" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J340" s="17" t="s">
         <v>1041</v>
       </c>
-      <c r="J340" s="17" t="s">
-        <v>1042</v>
-      </c>
       <c r="K340" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L340" s="14" t="n">
         <v>1</v>
@@ -23598,29 +23642,29 @@
         <v>#340</v>
       </c>
       <c r="C341" s="21" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>138</v>
+        <v>1039</v>
       </c>
       <c r="E341" s="21" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F341" s="12" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G341" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H341" s="5"/>
       <c r="I341" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J341" s="17" t="s">
         <v>1044</v>
       </c>
-      <c r="J341" s="17" t="s">
-        <v>1045</v>
-      </c>
       <c r="K341" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L341" s="14" t="n">
         <v>1</v>
@@ -23654,10 +23698,10 @@
         <v>#341</v>
       </c>
       <c r="C342" s="21" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>1047</v>
+        <v>138</v>
       </c>
       <c r="E342" s="21" t="s">
         <v>12</v>
@@ -23670,13 +23714,13 @@
       </c>
       <c r="H342" s="5"/>
       <c r="I342" s="16" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="J342" s="17" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="K342" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L342" s="14" t="n">
         <v>1</v>
@@ -23710,29 +23754,29 @@
         <v>#342</v>
       </c>
       <c r="C343" s="21" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D343" s="21" t="s">
         <v>1049</v>
       </c>
-      <c r="D343" s="21" t="s">
-        <v>1050</v>
-      </c>
       <c r="E343" s="21" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F343" s="12" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="G343" s="11" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="H343" s="5"/>
       <c r="I343" s="16" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="J343" s="17" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="K343" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L343" s="14" t="n">
         <v>1</v>
@@ -23766,10 +23810,10 @@
         <v>#343</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E344" s="21" t="s">
         <v>78</v>
@@ -23782,13 +23826,13 @@
       </c>
       <c r="H344" s="5"/>
       <c r="I344" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J344" s="17" t="s">
         <v>1054</v>
       </c>
-      <c r="J344" s="17" t="s">
-        <v>1052</v>
-      </c>
       <c r="K344" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L344" s="14" t="n">
         <v>1</v>
@@ -23825,7 +23869,7 @@
         <v>1055</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E345" s="21" t="s">
         <v>78</v>
@@ -23838,13 +23882,13 @@
       </c>
       <c r="H345" s="5"/>
       <c r="I345" s="16" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="J345" s="17" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="K345" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L345" s="14" t="n">
         <v>1</v>
@@ -23878,29 +23922,29 @@
         <v>#345</v>
       </c>
       <c r="C346" s="21" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D346" s="21" t="s">
         <v>1058</v>
       </c>
-      <c r="D346" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="E346" s="29" t="s">
-        <v>1059</v>
+      <c r="E346" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="F346" s="12" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="G346" s="11" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="H346" s="5"/>
       <c r="I346" s="16" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="J346" s="17" t="s">
-        <v>1061</v>
+        <v>1054</v>
       </c>
       <c r="K346" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L346" s="14" t="n">
         <v>1</v>
@@ -23934,13 +23978,13 @@
         <v>#346</v>
       </c>
       <c r="C347" s="21" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>488</v>
-      </c>
-      <c r="E347" s="29" t="s">
-        <v>1059</v>
+        <v>490</v>
+      </c>
+      <c r="E347" s="30" t="s">
+        <v>1061</v>
       </c>
       <c r="F347" s="12" t="s">
         <v>13</v>
@@ -23950,13 +23994,13 @@
       </c>
       <c r="H347" s="5"/>
       <c r="I347" s="16" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J347" s="17" t="s">
         <v>1063</v>
       </c>
-      <c r="J347" s="17" t="s">
-        <v>1061</v>
-      </c>
       <c r="K347" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L347" s="14" t="n">
         <v>1</v>
@@ -23993,26 +24037,26 @@
         <v>1064</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E348" s="29" t="s">
-        <v>1059</v>
+        <v>490</v>
+      </c>
+      <c r="E348" s="30" t="s">
+        <v>1061</v>
       </c>
       <c r="F348" s="12" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="G348" s="11" t="s">
         <v>84</v>
       </c>
       <c r="H348" s="5"/>
       <c r="I348" s="16" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="J348" s="17" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="K348" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L348" s="14" t="n">
         <v>1</v>
@@ -24046,13 +24090,13 @@
         <v>#348</v>
       </c>
       <c r="C349" s="21" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D349" s="21" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E349" s="29" t="s">
-        <v>1059</v>
+        <v>1067</v>
+      </c>
+      <c r="E349" s="30" t="s">
+        <v>1061</v>
       </c>
       <c r="F349" s="12" t="s">
         <v>83</v>
@@ -24062,13 +24106,13 @@
       </c>
       <c r="H349" s="5"/>
       <c r="I349" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J349" s="17" t="s">
         <v>1069</v>
       </c>
-      <c r="J349" s="17" t="s">
-        <v>1067</v>
-      </c>
       <c r="K349" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L349" s="14" t="n">
         <v>1</v>
@@ -24105,26 +24149,26 @@
         <v>1070</v>
       </c>
       <c r="D350" s="21" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E350" s="29" t="s">
-        <v>1059</v>
+        <v>1067</v>
+      </c>
+      <c r="E350" s="30" t="s">
+        <v>1061</v>
       </c>
       <c r="F350" s="12" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="G350" s="11" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H350" s="5"/>
       <c r="I350" s="16" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J350" s="17" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="K350" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L350" s="14" t="n">
         <v>1</v>
@@ -24158,13 +24202,13 @@
         <v>#350</v>
       </c>
       <c r="C351" s="21" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="D351" s="21" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E351" s="29" t="s">
-        <v>1059</v>
+        <v>1073</v>
+      </c>
+      <c r="E351" s="30" t="s">
+        <v>1061</v>
       </c>
       <c r="F351" s="12" t="s">
         <v>154</v>
@@ -24174,13 +24218,13 @@
       </c>
       <c r="H351" s="5"/>
       <c r="I351" s="16" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J351" s="17" t="s">
         <v>1075</v>
       </c>
-      <c r="J351" s="17" t="s">
-        <v>1073</v>
-      </c>
       <c r="K351" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L351" s="14" t="n">
         <v>1</v>
@@ -24208,31 +24252,35 @@
       <c r="AG351" s="5"/>
     </row>
     <row r="352" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="9"/>
+      <c r="A352" s="20"/>
       <c r="B352" s="10" t="str">
         <f aca="false">"#"&amp;TEXT(ROW(B352)-1,"000")</f>
         <v>#351</v>
       </c>
-      <c r="C352" s="11" t="s">
+      <c r="C352" s="21" t="s">
         <v>1076</v>
       </c>
-      <c r="D352" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="E352" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F352" s="12"/>
-      <c r="G352" s="11"/>
+      <c r="D352" s="21" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E352" s="30" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F352" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G352" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="H352" s="5"/>
       <c r="I352" s="16" t="s">
         <v>1077</v>
       </c>
       <c r="J352" s="17" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="K352" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L352" s="14" t="n">
         <v>1</v>
@@ -24266,7 +24314,7 @@
         <v>#352</v>
       </c>
       <c r="C353" s="11" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D353" s="11" t="s">
         <v>188</v>
@@ -24274,17 +24322,21 @@
       <c r="E353" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F353" s="12"/>
-      <c r="G353" s="11"/>
+      <c r="F353" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G353" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="H353" s="5"/>
       <c r="I353" s="16" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J353" s="17" t="s">
         <v>1080</v>
       </c>
-      <c r="J353" s="17" t="s">
-        <v>1078</v>
-      </c>
       <c r="K353" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L353" s="14" t="n">
         <v>1</v>
@@ -24326,17 +24378,21 @@
       <c r="E354" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F354" s="12"/>
-      <c r="G354" s="11"/>
+      <c r="F354" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G354" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="H354" s="5"/>
       <c r="I354" s="16" t="s">
         <v>1082</v>
       </c>
       <c r="J354" s="17" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="K354" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L354" s="14" t="n">
         <v>1</v>
@@ -24373,22 +24429,26 @@
         <v>1083</v>
       </c>
       <c r="D355" s="11" t="s">
-        <v>1084</v>
+        <v>188</v>
       </c>
       <c r="E355" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F355" s="12"/>
-      <c r="G355" s="11"/>
+      <c r="F355" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G355" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="H355" s="5"/>
       <c r="I355" s="16" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="J355" s="17" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
       <c r="K355" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L355" s="14" t="n">
         <v>1</v>
@@ -24422,25 +24482,29 @@
         <v>#355</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F356" s="12"/>
-      <c r="G356" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F356" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G356" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="H356" s="5"/>
       <c r="I356" s="16" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J356" s="17" t="s">
         <v>1088</v>
       </c>
-      <c r="J356" s="17" t="s">
-        <v>1086</v>
-      </c>
       <c r="K356" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L356" s="14" t="n">
         <v>1</v>
@@ -24477,22 +24541,26 @@
         <v>1089</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E357" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F357" s="12"/>
-      <c r="G357" s="11"/>
+      <c r="F357" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G357" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="H357" s="5"/>
       <c r="I357" s="16" t="s">
         <v>1090</v>
       </c>
       <c r="J357" s="17" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="K357" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L357" s="14" t="n">
         <v>1</v>
@@ -24529,22 +24597,26 @@
         <v>1091</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>188</v>
+        <v>1086</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F358" s="12"/>
-      <c r="G358" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="F358" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="G358" s="11" t="s">
+        <v>415</v>
+      </c>
       <c r="H358" s="5"/>
       <c r="I358" s="16" t="s">
         <v>1092</v>
       </c>
       <c r="J358" s="17" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="K358" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L358" s="14" t="n">
         <v>1</v>
@@ -24578,7 +24650,7 @@
         <v>#358</v>
       </c>
       <c r="C359" s="11" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D359" s="11" t="s">
         <v>188</v>
@@ -24586,17 +24658,21 @@
       <c r="E359" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F359" s="12"/>
-      <c r="G359" s="11"/>
+      <c r="F359" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G359" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="H359" s="5"/>
       <c r="I359" s="16" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J359" s="17" t="s">
         <v>1095</v>
       </c>
-      <c r="J359" s="17" t="s">
-        <v>1093</v>
-      </c>
       <c r="K359" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L359" s="14" t="n">
         <v>1</v>
@@ -24633,22 +24709,26 @@
         <v>1096</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E360" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F360" s="12"/>
-      <c r="G360" s="11"/>
+      <c r="F360" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G360" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="H360" s="5"/>
       <c r="I360" s="16" t="s">
         <v>1097</v>
       </c>
       <c r="J360" s="17" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="K360" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L360" s="14" t="n">
         <v>1</v>
@@ -24685,22 +24765,26 @@
         <v>1098</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>1099</v>
+        <v>192</v>
       </c>
       <c r="E361" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F361" s="12"/>
-      <c r="G361" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F361" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G361" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="H361" s="5"/>
       <c r="I361" s="16" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="J361" s="17" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
       <c r="K361" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L361" s="14" t="n">
         <v>1</v>
@@ -24734,25 +24818,29 @@
         <v>#361</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="E362" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F362" s="12"/>
-      <c r="G362" s="11"/>
+      <c r="F362" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G362" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="H362" s="5"/>
       <c r="I362" s="16" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J362" s="17" t="s">
         <v>1103</v>
       </c>
-      <c r="J362" s="17" t="s">
-        <v>1101</v>
-      </c>
       <c r="K362" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L362" s="14" t="n">
         <v>1</v>
@@ -24789,22 +24877,26 @@
         <v>1104</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F363" s="12"/>
-      <c r="G363" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="F363" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G363" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="H363" s="5"/>
       <c r="I363" s="16" t="s">
         <v>1105</v>
       </c>
       <c r="J363" s="17" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="K363" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L363" s="14" t="n">
         <v>1</v>
@@ -24841,25 +24933,29 @@
         <v>1106</v>
       </c>
       <c r="D364" s="11" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="E364" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F364" s="12"/>
-      <c r="G364" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F364" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G364" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="H364" s="5"/>
       <c r="I364" s="16" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="J364" s="17" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="K364" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L364" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M364" s="8"/>
       <c r="N364" s="5"/>
@@ -24890,25 +24986,29 @@
         <v>#364</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>39</v>
+        <v>1109</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F365" s="12"/>
-      <c r="G365" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="F365" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G365" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="H365" s="5"/>
       <c r="I365" s="16" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J365" s="17" t="s">
         <v>1111</v>
       </c>
-      <c r="J365" s="17" t="s">
-        <v>1112</v>
-      </c>
       <c r="K365" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L365" s="14" t="n">
         <v>3</v>
@@ -24942,22 +25042,26 @@
         <v>#365</v>
       </c>
       <c r="C366" s="11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>1114</v>
+        <v>39</v>
       </c>
       <c r="E366" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F366" s="12"/>
-      <c r="G366" s="11"/>
+      <c r="F366" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G366" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="H366" s="5"/>
       <c r="I366" s="16" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="J366" s="17" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="K366" s="17" t="n">
         <v>5</v>
@@ -24994,25 +25098,29 @@
         <v>#366</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>267</v>
+        <v>1116</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F367" s="12"/>
-      <c r="G367" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F367" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G367" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="H367" s="5"/>
       <c r="I367" s="16" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J367" s="17" t="s">
         <v>1118</v>
       </c>
-      <c r="J367" s="17" t="s">
-        <v>1119</v>
-      </c>
       <c r="K367" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L367" s="14" t="n">
         <v>3</v>
@@ -25046,25 +25154,29 @@
         <v>#367</v>
       </c>
       <c r="C368" s="11" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>1121</v>
+        <v>267</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F368" s="12"/>
-      <c r="G368" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="F368" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G368" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="H368" s="5"/>
       <c r="I368" s="16" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="J368" s="17" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="K368" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L368" s="14" t="n">
         <v>3</v>
@@ -25098,22 +25210,26 @@
         <v>#368</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>1047</v>
+        <v>1123</v>
       </c>
       <c r="E369" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F369" s="12"/>
-      <c r="G369" s="11"/>
+      <c r="F369" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G369" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="H369" s="5"/>
       <c r="I369" s="16" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J369" s="17" t="s">
         <v>1125</v>
-      </c>
-      <c r="J369" s="17" t="s">
-        <v>1126</v>
       </c>
       <c r="K369" s="17" t="n">
         <v>5</v>
@@ -25150,28 +25266,32 @@
         <v>#369</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>1128</v>
+        <v>1049</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F370" s="12"/>
-      <c r="G370" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="F370" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G370" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="H370" s="5"/>
       <c r="I370" s="16" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="J370" s="17" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K370" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L370" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M370" s="8"/>
       <c r="N370" s="5"/>
@@ -25202,25 +25322,29 @@
         <v>#370</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F371" s="12"/>
-      <c r="G371" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="F371" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G371" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="H371" s="5"/>
       <c r="I371" s="16" t="s">
+        <v>1131</v>
+      </c>
+      <c r="J371" s="17" t="s">
         <v>1132</v>
       </c>
-      <c r="J371" s="17" t="s">
-        <v>1130</v>
-      </c>
       <c r="K371" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L371" s="14" t="n">
         <v>1</v>
@@ -25257,22 +25381,26 @@
         <v>1133</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>188</v>
+        <v>1130</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F372" s="12"/>
-      <c r="G372" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F372" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G372" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="H372" s="5"/>
       <c r="I372" s="16" t="s">
         <v>1134</v>
       </c>
       <c r="J372" s="17" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="K372" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L372" s="14" t="n">
         <v>1</v>
@@ -25306,25 +25434,29 @@
         <v>#372</v>
       </c>
       <c r="C373" s="11" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D373" s="11" t="s">
         <v>188</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F373" s="12"/>
-      <c r="G373" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="F373" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G373" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="H373" s="5"/>
       <c r="I373" s="16" t="s">
+        <v>1136</v>
+      </c>
+      <c r="J373" s="17" t="s">
         <v>1137</v>
       </c>
-      <c r="J373" s="17" t="s">
-        <v>1135</v>
-      </c>
       <c r="K373" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L373" s="14" t="n">
         <v>1</v>
@@ -25361,22 +25493,26 @@
         <v>1138</v>
       </c>
       <c r="D374" s="11" t="s">
-        <v>1139</v>
+        <v>188</v>
       </c>
       <c r="E374" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F374" s="12"/>
-      <c r="G374" s="11"/>
+      <c r="F374" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G374" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="H374" s="5"/>
       <c r="I374" s="16" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="J374" s="17" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="K374" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L374" s="14" t="n">
         <v>1</v>
@@ -25410,25 +25546,29 @@
         <v>#374</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="E375" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F375" s="12"/>
-      <c r="G375" s="11"/>
+      <c r="F375" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G375" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="H375" s="5"/>
       <c r="I375" s="16" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J375" s="17" t="s">
         <v>1143</v>
       </c>
-      <c r="J375" s="17" t="s">
-        <v>1141</v>
-      </c>
       <c r="K375" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L375" s="14" t="n">
         <v>1</v>
@@ -25465,22 +25605,26 @@
         <v>1144</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>188</v>
+        <v>1141</v>
       </c>
       <c r="E376" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F376" s="12"/>
-      <c r="G376" s="11"/>
+      <c r="F376" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G376" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="H376" s="5"/>
       <c r="I376" s="16" t="s">
         <v>1145</v>
       </c>
       <c r="J376" s="17" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="K376" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L376" s="14" t="n">
         <v>1</v>
@@ -25514,7 +25658,7 @@
         <v>#376</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D377" s="11" t="s">
         <v>188</v>
@@ -25522,17 +25666,21 @@
       <c r="E377" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F377" s="12"/>
-      <c r="G377" s="11"/>
+      <c r="F377" s="31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G377" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="H377" s="5"/>
       <c r="I377" s="16" t="s">
         <v>1148</v>
       </c>
       <c r="J377" s="17" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="K377" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L377" s="14" t="n">
         <v>1</v>
@@ -25566,25 +25714,29 @@
         <v>#377</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="E378" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F378" s="12"/>
-      <c r="G378" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F378" s="31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G378" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="H378" s="5"/>
       <c r="I378" s="16" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="J378" s="17" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="K378" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L378" s="14" t="n">
         <v>1</v>
@@ -25624,19 +25776,23 @@
         <v>69</v>
       </c>
       <c r="E379" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F379" s="12"/>
-      <c r="G379" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="F379" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G379" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="H379" s="5"/>
       <c r="I379" s="16" t="s">
         <v>1153</v>
       </c>
       <c r="J379" s="17" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="K379" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L379" s="14" t="n">
         <v>1</v>
@@ -25670,25 +25826,29 @@
         <v>#379</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>474</v>
+        <v>69</v>
       </c>
       <c r="E380" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F380" s="12"/>
-      <c r="G380" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F380" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G380" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="H380" s="5"/>
       <c r="I380" s="16" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="J380" s="17" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="K380" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L380" s="14" t="n">
         <v>1</v>
@@ -25725,22 +25885,26 @@
         <v>1157</v>
       </c>
       <c r="D381" s="11" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E381" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F381" s="12"/>
-      <c r="G381" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="F381" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G381" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="H381" s="5"/>
       <c r="I381" s="16" t="s">
         <v>1158</v>
       </c>
       <c r="J381" s="17" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="K381" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L381" s="14" t="n">
         <v>1</v>
@@ -25774,25 +25938,29 @@
         <v>#381</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>146</v>
+        <v>476</v>
       </c>
       <c r="E382" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F382" s="12"/>
-      <c r="G382" s="11"/>
+        <v>12</v>
+      </c>
+      <c r="F382" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G382" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="H382" s="5"/>
       <c r="I382" s="16" t="s">
-        <v>1160</v>
-      </c>
-      <c r="J382" s="30" t="s">
         <v>1161</v>
       </c>
+      <c r="J382" s="17" t="s">
+        <v>1159</v>
+      </c>
       <c r="K382" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L382" s="14" t="n">
         <v>1</v>
@@ -25832,19 +26000,23 @@
         <v>146</v>
       </c>
       <c r="E383" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F383" s="12"/>
-      <c r="G383" s="11"/>
+        <v>33</v>
+      </c>
+      <c r="F383" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G383" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="H383" s="5"/>
       <c r="I383" s="16" t="s">
         <v>1163</v>
       </c>
-      <c r="J383" s="30" t="s">
-        <v>1161</v>
+      <c r="J383" s="32" t="s">
+        <v>1164</v>
       </c>
       <c r="K383" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L383" s="14" t="n">
         <v>1</v>
@@ -25878,25 +26050,29 @@
         <v>#383</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>387</v>
+        <v>146</v>
       </c>
       <c r="E384" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F384" s="12"/>
-      <c r="G384" s="11"/>
+      <c r="F384" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G384" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="H384" s="5"/>
       <c r="I384" s="16" t="s">
-        <v>1165</v>
-      </c>
-      <c r="J384" s="17" t="s">
         <v>1166</v>
       </c>
+      <c r="J384" s="32" t="s">
+        <v>1164</v>
+      </c>
       <c r="K384" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L384" s="14" t="n">
         <v>1</v>
@@ -25938,17 +26114,21 @@
       <c r="E385" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F385" s="12"/>
-      <c r="G385" s="11"/>
+      <c r="F385" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G385" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="H385" s="5"/>
       <c r="I385" s="16" t="s">
         <v>1168</v>
       </c>
       <c r="J385" s="17" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="K385" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L385" s="14" t="n">
         <v>1</v>
@@ -25982,25 +26162,29 @@
         <v>#385</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="D386" s="11" t="s">
-        <v>1050</v>
+        <v>387</v>
       </c>
       <c r="E386" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F386" s="12"/>
-      <c r="G386" s="11"/>
+      <c r="F386" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G386" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="H386" s="5"/>
       <c r="I386" s="16" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="J386" s="17" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="K386" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L386" s="14" t="n">
         <v>1</v>
@@ -26037,13 +26221,17 @@
         <v>1172</v>
       </c>
       <c r="D387" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E387" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F387" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G387" s="11" t="s">
         <v>1173</v>
       </c>
-      <c r="E387" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F387" s="12"/>
-      <c r="G387" s="11"/>
       <c r="H387" s="5"/>
       <c r="I387" s="16" t="s">
         <v>1174</v>
@@ -26052,7 +26240,7 @@
         <v>1175</v>
       </c>
       <c r="K387" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L387" s="14" t="n">
         <v>1</v>
@@ -26089,25 +26277,29 @@
         <v>1176</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>108</v>
+        <v>1177</v>
       </c>
       <c r="E388" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F388" s="12"/>
-      <c r="G388" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="F388" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G388" s="11" t="s">
+        <v>1173</v>
+      </c>
       <c r="H388" s="5"/>
       <c r="I388" s="16" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="J388" s="17" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="K388" s="17" t="n">
         <v>5</v>
       </c>
       <c r="L388" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M388" s="8"/>
       <c r="N388" s="5"/>
@@ -26138,13 +26330,13 @@
         <v>#388</v>
       </c>
       <c r="C389" s="11" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D389" s="11" t="s">
-        <v>1180</v>
+        <v>108</v>
       </c>
       <c r="E389" s="11" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F389" s="12"/>
       <c r="G389" s="11"/>
@@ -26189,33 +26381,33 @@
         <f aca="false">"#"&amp;TEXT(ROW(B390)-1,"000")</f>
         <v>#389</v>
       </c>
-      <c r="C390" s="31" t="s">
+      <c r="C390" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="D390" s="31" t="s">
+      <c r="D390" s="11" t="s">
         <v>1184</v>
       </c>
-      <c r="E390" s="31" t="s">
-        <v>12</v>
+      <c r="E390" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="F390" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="G390" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="H390" s="32"/>
-      <c r="I390" s="31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G390" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H390" s="5"/>
+      <c r="I390" s="16" t="s">
         <v>1185</v>
       </c>
-      <c r="J390" s="31" t="s">
+      <c r="J390" s="17" t="s">
         <v>1186</v>
       </c>
       <c r="K390" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L390" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M390" s="8"/>
       <c r="N390" s="5"/>
@@ -26245,27 +26437,27 @@
         <f aca="false">"#"&amp;TEXT(ROW(B391)-1,"000")</f>
         <v>#390</v>
       </c>
-      <c r="C391" s="31" t="s">
+      <c r="C391" s="25" t="s">
         <v>1187</v>
       </c>
-      <c r="D391" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="E391" s="31" t="s">
+      <c r="D391" s="25" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E391" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F391" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G391" s="31" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H391" s="32"/>
-      <c r="I391" s="31" t="s">
+      <c r="F391" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G391" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H391" s="5"/>
+      <c r="I391" s="25" t="s">
         <v>1189</v>
       </c>
-      <c r="J391" s="31" t="s">
-        <v>425</v>
+      <c r="J391" s="25" t="s">
+        <v>1190</v>
       </c>
       <c r="K391" s="17" t="n">
         <v>1</v>
@@ -26301,30 +26493,30 @@
         <f aca="false">"#"&amp;TEXT(ROW(B392)-1,"000")</f>
         <v>#391</v>
       </c>
-      <c r="C392" s="31" t="s">
-        <v>422</v>
-      </c>
-      <c r="D392" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="E392" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F392" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G392" s="31" t="s">
-        <v>1188</v>
-      </c>
-      <c r="H392" s="32"/>
-      <c r="I392" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="J392" s="31" t="s">
-        <v>425</v>
+      <c r="C392" s="25" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D392" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E392" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F392" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G392" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H392" s="5"/>
+      <c r="I392" s="25" t="s">
+        <v>1192</v>
+      </c>
+      <c r="J392" s="25" t="s">
+        <v>877</v>
       </c>
       <c r="K392" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L392" s="14" t="n">
         <v>1</v>
@@ -26357,30 +26549,30 @@
         <f aca="false">"#"&amp;TEXT(ROW(B393)-1,"000")</f>
         <v>#392</v>
       </c>
-      <c r="C393" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="D393" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="E393" s="31" t="s">
+      <c r="C393" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="D393" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E393" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F393" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="G393" s="31" t="s">
-        <v>214</v>
-      </c>
-      <c r="H393" s="32"/>
-      <c r="I393" s="31" t="s">
-        <v>1190</v>
-      </c>
-      <c r="J393" s="31" t="s">
-        <v>425</v>
+      <c r="F393" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="G393" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H393" s="5"/>
+      <c r="I393" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="J393" s="25" t="s">
+        <v>877</v>
       </c>
       <c r="K393" s="17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L393" s="14" t="n">
         <v>1</v>
@@ -26408,38 +26600,38 @@
       <c r="AG393" s="5"/>
     </row>
     <row r="394" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A394" s="9"/>
+      <c r="A394" s="20"/>
       <c r="B394" s="10" t="str">
         <f aca="false">"#"&amp;TEXT(ROW(B394)-1,"000")</f>
         <v>#393</v>
       </c>
-      <c r="C394" s="31" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D394" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="E394" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F394" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G394" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H394" s="32"/>
-      <c r="I394" s="31" t="s">
-        <v>1192</v>
-      </c>
-      <c r="J394" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="K394" s="17" t="n">
-        <v>1</v>
+      <c r="C394" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D394" s="21" t="s">
+        <v>931</v>
+      </c>
+      <c r="E394" s="33" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F394" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G394" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H394" s="5"/>
+      <c r="I394" s="16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J394" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K394" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="L394" s="14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M394" s="8"/>
       <c r="N394" s="5"/>
@@ -26464,38 +26656,38 @@
       <c r="AG394" s="5"/>
     </row>
     <row r="395" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="9"/>
+      <c r="A395" s="20"/>
       <c r="B395" s="10" t="str">
         <f aca="false">"#"&amp;TEXT(ROW(B395)-1,"000")</f>
         <v>#394</v>
       </c>
-      <c r="C395" s="31" t="s">
-        <v>873</v>
-      </c>
-      <c r="D395" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="E395" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F395" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G395" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="H395" s="32"/>
-      <c r="I395" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="J395" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="K395" s="17" t="n">
-        <v>3</v>
+      <c r="C395" s="21" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D395" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E395" s="33" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F395" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G395" s="11" t="s">
+        <v>1195</v>
+      </c>
+      <c r="H395" s="5"/>
+      <c r="I395" s="16" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J395" s="34" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K395" s="34" t="n">
+        <v>5</v>
       </c>
       <c r="L395" s="14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M395" s="8"/>
       <c r="N395" s="5"/>
@@ -26519,118 +26711,8 @@
       <c r="AF395" s="5"/>
       <c r="AG395" s="5"/>
     </row>
-    <row r="396" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="20"/>
-      <c r="B396" s="10" t="str">
-        <f aca="false">"#"&amp;TEXT(ROW(B396)-1,"000")</f>
-        <v>#395</v>
-      </c>
-      <c r="C396" s="21" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D396" s="21" t="s">
-        <v>929</v>
-      </c>
-      <c r="E396" s="33" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F396" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G396" s="11" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H396" s="5"/>
-      <c r="I396" s="16" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J396" s="34" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K396" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="L396" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="M396" s="8"/>
-      <c r="N396" s="5"/>
-      <c r="O396" s="5"/>
-      <c r="P396" s="5"/>
-      <c r="Q396" s="5"/>
-      <c r="R396" s="5"/>
-      <c r="S396" s="5"/>
-      <c r="T396" s="5"/>
-      <c r="U396" s="5"/>
-      <c r="V396" s="5"/>
-      <c r="W396" s="5"/>
-      <c r="X396" s="5"/>
-      <c r="Y396" s="5"/>
-      <c r="Z396" s="5"/>
-      <c r="AA396" s="5"/>
-      <c r="AB396" s="5"/>
-      <c r="AC396" s="5"/>
-      <c r="AD396" s="5"/>
-      <c r="AE396" s="5"/>
-      <c r="AF396" s="5"/>
-      <c r="AG396" s="5"/>
-    </row>
-    <row r="397" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A397" s="20"/>
-      <c r="B397" s="10" t="str">
-        <f aca="false">"#"&amp;TEXT(ROW(B397)-1,"000")</f>
-        <v>#396</v>
-      </c>
-      <c r="C397" s="21" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D397" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E397" s="33" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F397" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G397" s="11" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H397" s="5"/>
-      <c r="I397" s="16" t="s">
-        <v>1199</v>
-      </c>
-      <c r="J397" s="34" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K397" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="L397" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="M397" s="8"/>
-      <c r="N397" s="5"/>
-      <c r="O397" s="5"/>
-      <c r="P397" s="5"/>
-      <c r="Q397" s="5"/>
-      <c r="R397" s="5"/>
-      <c r="S397" s="5"/>
-      <c r="T397" s="5"/>
-      <c r="U397" s="5"/>
-      <c r="V397" s="5"/>
-      <c r="W397" s="5"/>
-      <c r="X397" s="5"/>
-      <c r="Y397" s="5"/>
-      <c r="Z397" s="5"/>
-      <c r="AA397" s="5"/>
-      <c r="AB397" s="5"/>
-      <c r="AC397" s="5"/>
-      <c r="AD397" s="5"/>
-      <c r="AE397" s="5"/>
-      <c r="AF397" s="5"/>
-      <c r="AG397" s="5"/>
-    </row>
+    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -27237,10 +27319,11 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1004" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1005" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E1:E275 D276:D277 E396:E397 E278:E389 E392:E393">
+  <conditionalFormatting sqref="E129:E276 D277:D278 E394:E395 E279:E390 E1:E127">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Raro"</formula>
     </cfRule>
@@ -27254,7 +27337,7 @@
       <formula>NOT(ISERROR(SEARCH("",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F20 F23:F116 F120 F122:F161 F163:F207 F210:F219 F222:F271 F274:F284 F286:F287 F290:F314 F317:F338 F341:F347 F396:F397 F350:F389 F392:F393">
+  <conditionalFormatting sqref="F2:F20 F120 F129:F162 F164:F208 F223:F272 F287:F288 F291:F315 F318:F339 F342:F348 F394:F395 F122:F127 F23:F116 F275:F285 F211:F220 F387:F389 F382:F384 F351:F376 F379:F380">
     <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH("",F2)))</formula>
     </cfRule>
@@ -27298,7 +27381,7 @@
       <formula>NOT(ISERROR(SEARCH("",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F20 F23:F53 F56:F84 F87:F116 F120 F122:F125 F128:F161 F163:F207 F210:F215 F217:F219 F222:F271 F274:F281 F284 F286:F287 F290:F306 F308:F310 F320 F334 F397">
+  <conditionalFormatting sqref="F2:F20 F120 F122:F127 F129:F162 F164:F208 F211:F220 F223:F272 F275:F285 F287:F288 F291:F307 F309:F311 F321 F335 F395 F23:F116 F353:F361 F368:F370 F373:F376 F383:F384 F387:F388">
     <cfRule type="containsText" priority="20" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>NOT(ISERROR(SEARCH("",F2)))</formula>
     </cfRule>
@@ -27308,12 +27391,12 @@
       <formula>NOT(ISERROR(SEARCH("",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F39 F88:F116 F120 F122:F125 F128:F161 F163:F207 F210:F215 F217:F219 F222:F271 F274:F281 F284 F286:F287 F290:F292 F301:F303 F308:F310 F320">
+  <conditionalFormatting sqref="F38:F39 F88:F116 F120 F122:F127 F129:F162 F164:F208 F211:F220 F223:F272 F275:F285 F287:F288 F291:F293 F302:F304 F309:F311 F321 F356:F358 F368:F370 F373:F374 F387:F388">
     <cfRule type="containsText" priority="22" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>NOT(ISERROR(SEARCH("",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F22 F117:F119 F121 F162 F208:F209 F220:F221 F272:F273 F285 F288:F289 F315:F316 F339:F340 F348:F349">
+  <conditionalFormatting sqref="F21:F22 F117:F119 F121 F163 F209:F210 F221:F222 F273:F274 F286 F289:F290 F316:F317 F340:F341 F349:F350 F385:F386">
     <cfRule type="containsText" priority="23" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH("",F21)))</formula>
     </cfRule>
@@ -27363,9 +27446,53 @@
       <formula>NOT(ISERROR(SEARCH("",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J396:J1005 J1:J389 J392:J393">
+  <conditionalFormatting sqref="J394:J1003 J129:J390 J1:J127">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>LEN(TRIM(J1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F381">
+    <cfRule type="containsText" priority="40" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="41" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="42" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="43" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="44" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="45" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="46" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="47" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="48" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="49" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="50" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="51" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="52" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="53" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/pokedex Nova.xlsx
+++ b/pokedex Nova.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="1200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="1200">
   <si>
     <t xml:space="preserve">Nº</t>
   </si>
@@ -2680,15 +2680,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hydreigon é um Pokémon brutal que ataca qualquer coisa que se mova, comandando três cabeças famintas. Ele patrulha seu território com agressividade e pode devastar áreas inteiras ao perseguir uma presa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quagsire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Um Pokémon pouco inteligente, ele tende a bater a cabeça inadvertidamente enquanto nada e parece não se importar. Ele caça por comida deixando a boca bem aberta na água e esperando que sua presa desavisada entre por engano. Como Quagsire não se move, ele não fica com muita fome e pode se dar ao luxo de esperar por sua comida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDR de Altissima viabilidade: Mud Shot, Haze, Mist, Rain Dance, Yawn, Recover, Encore, Earthquake, Scald. Habilidade: Unnaware. Explicação: Acesso aos melhores golpes de controle, além de ser imune a buffs de status, tem haze para rezetar, enfrentar um quagsire é muito difícil por conta disso, é preciso derrotá-lo no dano bruto.</t>
   </si>
   <si>
     <t xml:space="preserve">Eiscue</t>
@@ -3790,6 +3781,15 @@
   </si>
   <si>
     <t xml:space="preserve">Wooper é um Pokémon estúpido e alheio ao que está ao seu redor. Wooper vive em água fria a maior parte do tempo. Ao dormir, enterra-se parcialmente na lama do fundo. Ocasionalmente, sai da água quando o ar esfria à noite para procurar comida ao longo da costa. Ao caminhar em terra, ele cobre seu corpo com uma película viscosa e tóxica que impede a desidratação de sua pele e protege contra o frio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDR de Altissima viabilidade: Mud Shot, Haze, Mist, Rain Dance, Yawn, Recover, Encore, Earthquake, Scald. Habilidade: Unnaware. Explicação: Acesso aos melhores golpes de controle, além de ser imune a buffs de status, tem haze para rezetar, enfrentar um quagsire é muito difícil por conta disso, é preciso derrotá-lo no dano bruto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quagsire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um Pokémon pouco inteligente, ele tende a bater a cabeça inadvertidamente enquanto nada e parece não se importar. Ele caça por comida deixando a boca bem aberta na água e esperando que sua presa desavisada entre por engano. Como Quagsire não se move, ele não fica com muita fome e pode se dar ao luxo de esperar por sua comida</t>
   </si>
   <si>
     <t xml:space="preserve">Diancie</t>
@@ -4036,7 +4036,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4159,10 +4159,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -4576,8 +4572,8 @@
   </sheetPr>
   <dimension ref="A1:AG1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A297" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G388" activeCellId="0" sqref="G388"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A284" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A285" activeCellId="0" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20509,13 +20505,13 @@
         <v>875</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>465</v>
+        <v>387</v>
       </c>
       <c r="E285" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F285" s="15" t="s">
-        <v>23</v>
+      <c r="F285" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G285" s="11" t="s">
         <v>131</v>
@@ -20528,10 +20524,10 @@
         <v>877</v>
       </c>
       <c r="K285" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L285" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M285" s="8"/>
       <c r="N285" s="5"/>
@@ -20565,29 +20561,29 @@
         <v>878</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>387</v>
+        <v>879</v>
       </c>
       <c r="E286" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="G286" s="11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H286" s="5"/>
       <c r="I286" s="16" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="J286" s="17" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="K286" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L286" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M286" s="8"/>
       <c r="N286" s="5"/>
@@ -20618,10 +20614,10 @@
         <v>#286</v>
       </c>
       <c r="C287" s="21" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="E287" s="21" t="s">
         <v>12</v>
@@ -20637,10 +20633,10 @@
         <v>883</v>
       </c>
       <c r="J287" s="17" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="K287" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L287" s="14" t="n">
         <v>1</v>
@@ -20674,29 +20670,29 @@
         <v>#287</v>
       </c>
       <c r="C288" s="21" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>882</v>
+        <v>387</v>
       </c>
       <c r="E288" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="G288" s="11" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="H288" s="5"/>
       <c r="I288" s="16" t="s">
+        <v>885</v>
+      </c>
+      <c r="J288" s="17" t="s">
         <v>886</v>
       </c>
-      <c r="J288" s="17" t="s">
-        <v>884</v>
-      </c>
       <c r="K288" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L288" s="14" t="n">
         <v>1</v>
@@ -20733,10 +20729,10 @@
         <v>887</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>387</v>
+        <v>888</v>
       </c>
       <c r="E289" s="21" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F289" s="12" t="s">
         <v>83</v>
@@ -20746,13 +20742,13 @@
       </c>
       <c r="H289" s="5"/>
       <c r="I289" s="16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J289" s="17" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="K289" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L289" s="14" t="n">
         <v>1</v>
@@ -20792,23 +20788,23 @@
         <v>891</v>
       </c>
       <c r="E290" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F290" s="12" t="s">
-        <v>83</v>
+        <v>33</v>
+      </c>
+      <c r="F290" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G290" s="11" t="s">
-        <v>211</v>
+        <v>84</v>
       </c>
       <c r="H290" s="5"/>
       <c r="I290" s="16" t="s">
         <v>892</v>
       </c>
       <c r="J290" s="17" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="K290" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L290" s="14" t="n">
         <v>1</v>
@@ -20842,10 +20838,10 @@
         <v>#290</v>
       </c>
       <c r="C291" s="21" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E291" s="21" t="s">
         <v>33</v>
@@ -20861,10 +20857,10 @@
         <v>895</v>
       </c>
       <c r="J291" s="17" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="K291" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L291" s="14" t="n">
         <v>1</v>
@@ -20898,13 +20894,13 @@
         <v>#291</v>
       </c>
       <c r="C292" s="21" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E292" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F292" s="15" t="s">
         <v>23</v>
@@ -20914,13 +20910,13 @@
       </c>
       <c r="H292" s="5"/>
       <c r="I292" s="16" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="J292" s="17" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="K292" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L292" s="14" t="n">
         <v>1</v>
@@ -20954,29 +20950,29 @@
         <v>#292</v>
       </c>
       <c r="C293" s="21" t="s">
+        <v>898</v>
+      </c>
+      <c r="D293" s="21" t="s">
         <v>899</v>
       </c>
-      <c r="D293" s="21" t="s">
-        <v>894</v>
-      </c>
       <c r="E293" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F293" s="15" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="F293" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G293" s="11" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="H293" s="5"/>
       <c r="I293" s="16" t="s">
         <v>900</v>
       </c>
       <c r="J293" s="17" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="K293" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L293" s="14" t="n">
         <v>1</v>
@@ -21010,13 +21006,13 @@
         <v>#293</v>
       </c>
       <c r="C294" s="21" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F294" s="12" t="s">
         <v>154</v>
@@ -21029,10 +21025,10 @@
         <v>903</v>
       </c>
       <c r="J294" s="17" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="K294" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L294" s="14" t="n">
         <v>1</v>
@@ -21066,32 +21062,32 @@
         <v>#294</v>
       </c>
       <c r="C295" s="21" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>902</v>
+        <v>490</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F295" s="12" t="s">
-        <v>154</v>
+        <v>33</v>
+      </c>
+      <c r="F295" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G295" s="11" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="H295" s="5"/>
       <c r="I295" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="J295" s="17" t="s">
         <v>906</v>
       </c>
-      <c r="J295" s="17" t="s">
-        <v>904</v>
-      </c>
       <c r="K295" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" s="14" t="n">
         <v>3</v>
-      </c>
-      <c r="L295" s="14" t="n">
-        <v>1</v>
       </c>
       <c r="M295" s="8"/>
       <c r="N295" s="5"/>
@@ -21128,7 +21124,7 @@
         <v>490</v>
       </c>
       <c r="E296" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F296" s="18" t="s">
         <v>44</v>
@@ -21144,7 +21140,7 @@
         <v>909</v>
       </c>
       <c r="K296" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L296" s="14" t="n">
         <v>3</v>
@@ -21181,7 +21177,7 @@
         <v>910</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>490</v>
+        <v>911</v>
       </c>
       <c r="E297" s="21" t="s">
         <v>12</v>
@@ -21190,20 +21186,20 @@
         <v>44</v>
       </c>
       <c r="G297" s="11" t="s">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="H297" s="5"/>
       <c r="I297" s="16" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="J297" s="17" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="K297" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L297" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M297" s="8"/>
       <c r="N297" s="5"/>
@@ -21234,16 +21230,16 @@
         <v>#297</v>
       </c>
       <c r="C298" s="21" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>914</v>
+        <v>320</v>
       </c>
       <c r="E298" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F298" s="18" t="s">
-        <v>44</v>
+      <c r="F298" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G298" s="11" t="s">
         <v>124</v>
@@ -21309,10 +21305,10 @@
         <v>918</v>
       </c>
       <c r="J299" s="17" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="K299" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L299" s="14" t="n">
         <v>1</v>
@@ -21346,7 +21342,7 @@
         <v>#299</v>
       </c>
       <c r="C300" s="21" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D300" s="21" t="s">
         <v>320</v>
@@ -21362,13 +21358,13 @@
       </c>
       <c r="H300" s="5"/>
       <c r="I300" s="16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J300" s="17" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="K300" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L300" s="14" t="n">
         <v>1</v>
@@ -21402,29 +21398,29 @@
         <v>#300</v>
       </c>
       <c r="C301" s="21" t="s">
+        <v>921</v>
+      </c>
+      <c r="D301" s="21" t="s">
         <v>922</v>
       </c>
-      <c r="D301" s="21" t="s">
-        <v>320</v>
-      </c>
       <c r="E301" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F301" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="F301" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H301" s="5"/>
       <c r="I301" s="16" t="s">
         <v>923</v>
       </c>
       <c r="J301" s="17" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="K301" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L301" s="14" t="n">
         <v>1</v>
@@ -21458,13 +21454,13 @@
         <v>#301</v>
       </c>
       <c r="C302" s="21" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="E302" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F302" s="23" t="s">
         <v>139</v>
@@ -21477,10 +21473,10 @@
         <v>926</v>
       </c>
       <c r="J302" s="17" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="K302" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L302" s="14" t="n">
         <v>1</v>
@@ -21514,10 +21510,10 @@
         <v>#302</v>
       </c>
       <c r="C303" s="21" t="s">
+        <v>927</v>
+      </c>
+      <c r="D303" s="21" t="s">
         <v>928</v>
-      </c>
-      <c r="D303" s="21" t="s">
-        <v>925</v>
       </c>
       <c r="E303" s="21" t="s">
         <v>12</v>
@@ -21533,13 +21529,13 @@
         <v>929</v>
       </c>
       <c r="J303" s="17" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="K303" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L303" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M303" s="8"/>
       <c r="N303" s="5"/>
@@ -21570,26 +21566,26 @@
         <v>#303</v>
       </c>
       <c r="C304" s="21" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E304" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F304" s="23" t="s">
-        <v>139</v>
+      <c r="F304" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
       <c r="H304" s="5"/>
       <c r="I304" s="16" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="J304" s="17" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="K304" s="17" t="n">
         <v>5</v>
@@ -21626,32 +21622,32 @@
         <v>#304</v>
       </c>
       <c r="C305" s="21" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E305" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F305" s="12" t="s">
-        <v>154</v>
+        <v>360</v>
       </c>
       <c r="G305" s="11" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="H305" s="5"/>
       <c r="I305" s="16" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="J305" s="17" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="K305" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L305" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M305" s="8"/>
       <c r="N305" s="5"/>
@@ -21682,13 +21678,13 @@
         <v>#305</v>
       </c>
       <c r="C306" s="21" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E306" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F306" s="12" t="s">
         <v>360</v>
@@ -21701,10 +21697,10 @@
         <v>940</v>
       </c>
       <c r="J306" s="17" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="K306" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L306" s="14" t="n">
         <v>1</v>
@@ -21738,29 +21734,29 @@
         <v>#306</v>
       </c>
       <c r="C307" s="21" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>939</v>
+        <v>305</v>
       </c>
       <c r="E307" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>360</v>
+        <v>54</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="H307" s="5"/>
       <c r="I307" s="16" t="s">
+        <v>942</v>
+      </c>
+      <c r="J307" s="17" t="s">
         <v>943</v>
       </c>
-      <c r="J307" s="17" t="s">
-        <v>941</v>
-      </c>
       <c r="K307" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L307" s="14" t="n">
         <v>1</v>
@@ -21800,7 +21796,7 @@
         <v>305</v>
       </c>
       <c r="E308" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F308" s="12" t="s">
         <v>54</v>
@@ -21813,10 +21809,10 @@
         <v>945</v>
       </c>
       <c r="J308" s="17" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="K308" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L308" s="14" t="n">
         <v>1</v>
@@ -21850,29 +21846,29 @@
         <v>#308</v>
       </c>
       <c r="C309" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="E309" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F309" s="12" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H309" s="5"/>
       <c r="I309" s="16" t="s">
+        <v>947</v>
+      </c>
+      <c r="J309" s="17" t="s">
         <v>948</v>
       </c>
-      <c r="J309" s="17" t="s">
-        <v>946</v>
-      </c>
       <c r="K309" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L309" s="14" t="n">
         <v>1</v>
@@ -21925,10 +21921,10 @@
         <v>950</v>
       </c>
       <c r="J310" s="17" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="K310" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L310" s="14" t="n">
         <v>1</v>
@@ -21962,32 +21958,32 @@
         <v>#310</v>
       </c>
       <c r="C311" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>53</v>
+        <v>192</v>
       </c>
       <c r="E311" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F311" s="12" t="s">
         <v>13</v>
       </c>
       <c r="G311" s="11" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="H311" s="5"/>
       <c r="I311" s="16" t="s">
+        <v>952</v>
+      </c>
+      <c r="J311" s="22" t="s">
         <v>953</v>
       </c>
-      <c r="J311" s="17" t="s">
-        <v>951</v>
-      </c>
       <c r="K311" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" s="14" t="n">
         <v>3</v>
-      </c>
-      <c r="L311" s="14" t="n">
-        <v>1</v>
       </c>
       <c r="M311" s="8"/>
       <c r="N311" s="5"/>
@@ -22024,7 +22020,7 @@
         <v>192</v>
       </c>
       <c r="E312" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F312" s="12" t="s">
         <v>13</v>
@@ -22037,10 +22033,10 @@
         <v>955</v>
       </c>
       <c r="J312" s="22" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="K312" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L312" s="14" t="n">
         <v>3</v>
@@ -22074,7 +22070,7 @@
         <v>#312</v>
       </c>
       <c r="C313" s="21" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D313" s="21" t="s">
         <v>192</v>
@@ -22090,13 +22086,13 @@
       </c>
       <c r="H313" s="5"/>
       <c r="I313" s="16" t="s">
+        <v>957</v>
+      </c>
+      <c r="J313" s="17" t="s">
         <v>958</v>
       </c>
-      <c r="J313" s="22" t="s">
-        <v>956</v>
-      </c>
       <c r="K313" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L313" s="14" t="n">
         <v>3</v>
@@ -22133,23 +22129,23 @@
         <v>959</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>192</v>
+        <v>960</v>
       </c>
       <c r="E314" s="21" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F314" s="12" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="G314" s="11" t="s">
         <v>124</v>
       </c>
       <c r="H314" s="5"/>
       <c r="I314" s="16" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J314" s="17" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K314" s="17" t="n">
         <v>5</v>
@@ -22186,32 +22182,32 @@
         <v>#314</v>
       </c>
       <c r="C315" s="21" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E315" s="21" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F315" s="12" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G315" s="11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H315" s="5"/>
       <c r="I315" s="16" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="J315" s="17" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="K315" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L315" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M315" s="8"/>
       <c r="N315" s="5"/>
@@ -22242,10 +22238,10 @@
         <v>#315</v>
       </c>
       <c r="C316" s="21" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="E316" s="21" t="s">
         <v>12</v>
@@ -22261,10 +22257,10 @@
         <v>968</v>
       </c>
       <c r="J316" s="17" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="K316" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L316" s="14" t="n">
         <v>1</v>
@@ -22298,32 +22294,32 @@
         <v>#316</v>
       </c>
       <c r="C317" s="21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>967</v>
+        <v>69</v>
       </c>
       <c r="E317" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F317" s="12" t="s">
-        <v>83</v>
+      <c r="F317" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G317" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H317" s="5"/>
       <c r="I317" s="16" t="s">
+        <v>970</v>
+      </c>
+      <c r="J317" s="17" t="s">
         <v>971</v>
       </c>
-      <c r="J317" s="17" t="s">
-        <v>969</v>
-      </c>
       <c r="K317" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L317" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M317" s="8"/>
       <c r="N317" s="5"/>
@@ -22357,16 +22353,16 @@
         <v>972</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c r="E318" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F318" s="15" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="F318" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G318" s="11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H318" s="5"/>
       <c r="I318" s="16" t="s">
@@ -22376,10 +22372,10 @@
         <v>974</v>
       </c>
       <c r="K318" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L318" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M318" s="8"/>
       <c r="N318" s="5"/>
@@ -22416,7 +22412,7 @@
         <v>138</v>
       </c>
       <c r="E319" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F319" s="12" t="s">
         <v>154</v>
@@ -22429,10 +22425,10 @@
         <v>976</v>
       </c>
       <c r="J319" s="17" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="K319" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L319" s="14" t="n">
         <v>1</v>
@@ -22466,32 +22462,32 @@
         <v>#319</v>
       </c>
       <c r="C320" s="21" t="s">
+        <v>977</v>
+      </c>
+      <c r="D320" s="21" t="s">
         <v>978</v>
-      </c>
-      <c r="D320" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="E320" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F320" s="12" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="G320" s="11" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="H320" s="5"/>
       <c r="I320" s="16" t="s">
         <v>979</v>
       </c>
       <c r="J320" s="17" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="K320" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L320" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M320" s="8"/>
       <c r="N320" s="5"/>
@@ -22522,10 +22518,10 @@
         <v>#320</v>
       </c>
       <c r="C321" s="21" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>981</v>
+        <v>53</v>
       </c>
       <c r="E321" s="21" t="s">
         <v>12</v>
@@ -22534,7 +22530,7 @@
         <v>13</v>
       </c>
       <c r="G321" s="11" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="H321" s="5"/>
       <c r="I321" s="16" t="s">
@@ -22581,7 +22577,7 @@
         <v>984</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="E322" s="21" t="s">
         <v>12</v>
@@ -22637,23 +22633,23 @@
         <v>987</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>90</v>
+        <v>988</v>
       </c>
       <c r="E323" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F323" s="12" t="s">
-        <v>13</v>
+        <v>154</v>
       </c>
       <c r="G323" s="11" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="H323" s="5"/>
       <c r="I323" s="16" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="J323" s="17" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="K323" s="17" t="n">
         <v>5</v>
@@ -22690,19 +22686,19 @@
         <v>#323</v>
       </c>
       <c r="C324" s="21" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>991</v>
+        <v>625</v>
       </c>
       <c r="E324" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F324" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G324" s="11" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="H324" s="5"/>
       <c r="I324" s="16" t="s">
@@ -22712,10 +22708,10 @@
         <v>993</v>
       </c>
       <c r="K324" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L324" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M324" s="8"/>
       <c r="N324" s="5"/>
@@ -22752,7 +22748,7 @@
         <v>625</v>
       </c>
       <c r="E325" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F325" s="12" t="s">
         <v>154</v>
@@ -22765,10 +22761,10 @@
         <v>995</v>
       </c>
       <c r="J325" s="17" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="K325" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L325" s="14" t="n">
         <v>1</v>
@@ -22802,29 +22798,29 @@
         <v>#325</v>
       </c>
       <c r="C326" s="21" t="s">
+        <v>996</v>
+      </c>
+      <c r="D326" s="21" t="s">
         <v>997</v>
       </c>
-      <c r="D326" s="21" t="s">
-        <v>625</v>
-      </c>
       <c r="E326" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F326" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G326" s="11" t="s">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="H326" s="5"/>
       <c r="I326" s="16" t="s">
         <v>998</v>
       </c>
       <c r="J326" s="17" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="K326" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L326" s="14" t="n">
         <v>1</v>
@@ -22858,13 +22854,13 @@
         <v>#326</v>
       </c>
       <c r="C327" s="21" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="E327" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F327" s="12" t="s">
         <v>154</v>
@@ -22877,10 +22873,10 @@
         <v>1001</v>
       </c>
       <c r="J327" s="17" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="K327" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L327" s="14" t="n">
         <v>1</v>
@@ -22914,10 +22910,10 @@
         <v>#327</v>
       </c>
       <c r="C328" s="21" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D328" s="21" t="s">
         <v>1003</v>
-      </c>
-      <c r="D328" s="21" t="s">
-        <v>1000</v>
       </c>
       <c r="E328" s="21" t="s">
         <v>12</v>
@@ -22926,20 +22922,20 @@
         <v>154</v>
       </c>
       <c r="G328" s="11" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="H328" s="5"/>
       <c r="I328" s="16" t="s">
         <v>1004</v>
       </c>
       <c r="J328" s="17" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="K328" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L328" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M328" s="8"/>
       <c r="N328" s="5"/>
@@ -22970,10 +22966,10 @@
         <v>#328</v>
       </c>
       <c r="C329" s="21" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E329" s="21" t="s">
         <v>12</v>
@@ -23029,16 +23025,16 @@
         <v>1009</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>1006</v>
+        <v>255</v>
       </c>
       <c r="E330" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F330" s="12" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="G330" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H330" s="5"/>
       <c r="I330" s="16" t="s">
@@ -23085,7 +23081,7 @@
         <v>1012</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>255</v>
+        <v>1013</v>
       </c>
       <c r="E331" s="21" t="s">
         <v>12</v>
@@ -23098,10 +23094,10 @@
       </c>
       <c r="H331" s="5"/>
       <c r="I331" s="16" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="J331" s="17" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="K331" s="17" t="n">
         <v>5</v>
@@ -23138,26 +23134,26 @@
         <v>#331</v>
       </c>
       <c r="C332" s="21" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E332" s="21" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F332" s="12" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G332" s="11" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="H332" s="5"/>
       <c r="I332" s="16" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="J332" s="17" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="K332" s="17" t="n">
         <v>5</v>
@@ -23194,19 +23190,19 @@
         <v>#332</v>
       </c>
       <c r="C333" s="21" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>1020</v>
+        <v>22</v>
       </c>
       <c r="E333" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F333" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="F333" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="G333" s="11" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H333" s="5"/>
       <c r="I333" s="16" t="s">
@@ -23216,10 +23212,10 @@
         <v>1022</v>
       </c>
       <c r="K333" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L333" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M333" s="8"/>
       <c r="N333" s="5"/>
@@ -23256,7 +23252,7 @@
         <v>22</v>
       </c>
       <c r="E334" s="21" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="F334" s="15" t="s">
         <v>23</v>
@@ -23269,10 +23265,10 @@
         <v>1024</v>
       </c>
       <c r="J334" s="17" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="K334" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L334" s="14" t="n">
         <v>1</v>
@@ -23306,29 +23302,29 @@
         <v>#334</v>
       </c>
       <c r="C335" s="21" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>22</v>
+        <v>779</v>
       </c>
       <c r="E335" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F335" s="15" t="s">
-        <v>23</v>
+        <v>33</v>
+      </c>
+      <c r="F335" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G335" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H335" s="5"/>
       <c r="I335" s="16" t="s">
+        <v>1026</v>
+      </c>
+      <c r="J335" s="17" t="s">
         <v>1027</v>
       </c>
-      <c r="J335" s="17" t="s">
-        <v>1025</v>
-      </c>
       <c r="K335" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L335" s="14" t="n">
         <v>1</v>
@@ -23368,7 +23364,7 @@
         <v>779</v>
       </c>
       <c r="E336" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F336" s="12" t="s">
         <v>13</v>
@@ -23381,10 +23377,10 @@
         <v>1029</v>
       </c>
       <c r="J336" s="17" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="K336" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L336" s="14" t="n">
         <v>1</v>
@@ -23418,29 +23414,29 @@
         <v>#336</v>
       </c>
       <c r="C337" s="21" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>779</v>
+        <v>43</v>
       </c>
       <c r="E337" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F337" s="12" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="G337" s="11" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="H337" s="5"/>
       <c r="I337" s="16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J337" s="17" t="s">
         <v>1032</v>
       </c>
-      <c r="J337" s="17" t="s">
-        <v>1030</v>
-      </c>
       <c r="K337" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L337" s="14" t="n">
         <v>1</v>
@@ -23477,13 +23473,13 @@
         <v>1033</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>43</v>
+        <v>293</v>
       </c>
       <c r="E338" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F338" s="12" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="G338" s="11" t="s">
         <v>98</v>
@@ -23493,10 +23489,10 @@
         <v>1034</v>
       </c>
       <c r="J338" s="17" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="K338" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L338" s="14" t="n">
         <v>1</v>
@@ -23530,29 +23526,29 @@
         <v>#338</v>
       </c>
       <c r="C339" s="21" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D339" s="21" t="s">
         <v>1036</v>
       </c>
-      <c r="D339" s="21" t="s">
-        <v>293</v>
-      </c>
       <c r="E339" s="21" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F339" s="12" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="G339" s="11" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="H339" s="5"/>
       <c r="I339" s="16" t="s">
         <v>1037</v>
       </c>
       <c r="J339" s="17" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="K339" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L339" s="14" t="n">
         <v>1</v>
@@ -23586,13 +23582,13 @@
         <v>#339</v>
       </c>
       <c r="C340" s="21" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="E340" s="21" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="F340" s="12" t="s">
         <v>83</v>
@@ -23608,7 +23604,7 @@
         <v>1041</v>
       </c>
       <c r="K340" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L340" s="14" t="n">
         <v>1</v>
@@ -23645,16 +23641,16 @@
         <v>1042</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>1039</v>
+        <v>138</v>
       </c>
       <c r="E341" s="21" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="F341" s="12" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="G341" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H341" s="5"/>
       <c r="I341" s="16" t="s">
@@ -23664,7 +23660,7 @@
         <v>1044</v>
       </c>
       <c r="K341" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L341" s="14" t="n">
         <v>1</v>
@@ -23701,7 +23697,7 @@
         <v>1045</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>138</v>
+        <v>1046</v>
       </c>
       <c r="E342" s="21" t="s">
         <v>12</v>
@@ -23714,13 +23710,13 @@
       </c>
       <c r="H342" s="5"/>
       <c r="I342" s="16" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="J342" s="17" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="K342" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L342" s="14" t="n">
         <v>1</v>
@@ -23760,23 +23756,23 @@
         <v>1049</v>
       </c>
       <c r="E343" s="21" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F343" s="12" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="G343" s="11" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="H343" s="5"/>
       <c r="I343" s="16" t="s">
         <v>1050</v>
       </c>
       <c r="J343" s="17" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="K343" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L343" s="14" t="n">
         <v>1</v>
@@ -23810,10 +23806,10 @@
         <v>#343</v>
       </c>
       <c r="C344" s="21" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E344" s="21" t="s">
         <v>78</v>
@@ -23829,10 +23825,10 @@
         <v>1053</v>
       </c>
       <c r="J344" s="17" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="K344" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L344" s="14" t="n">
         <v>1</v>
@@ -23866,10 +23862,10 @@
         <v>#344</v>
       </c>
       <c r="C345" s="21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D345" s="21" t="s">
         <v>1055</v>
-      </c>
-      <c r="D345" s="21" t="s">
-        <v>1052</v>
       </c>
       <c r="E345" s="21" t="s">
         <v>78</v>
@@ -23885,10 +23881,10 @@
         <v>1056</v>
       </c>
       <c r="J345" s="17" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="K345" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L345" s="14" t="n">
         <v>1</v>
@@ -23925,26 +23921,26 @@
         <v>1057</v>
       </c>
       <c r="D346" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E346" s="30" t="s">
         <v>1058</v>
       </c>
-      <c r="E346" s="21" t="s">
-        <v>78</v>
-      </c>
       <c r="F346" s="12" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="G346" s="11" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="H346" s="5"/>
       <c r="I346" s="16" t="s">
         <v>1059</v>
       </c>
       <c r="J346" s="17" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="K346" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L346" s="14" t="n">
         <v>1</v>
@@ -23978,13 +23974,13 @@
         <v>#346</v>
       </c>
       <c r="C347" s="21" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D347" s="21" t="s">
         <v>490</v>
       </c>
       <c r="E347" s="30" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F347" s="12" t="s">
         <v>13</v>
@@ -23997,10 +23993,10 @@
         <v>1062</v>
       </c>
       <c r="J347" s="17" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="K347" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L347" s="14" t="n">
         <v>1</v>
@@ -24034,16 +24030,16 @@
         <v>#347</v>
       </c>
       <c r="C348" s="21" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D348" s="21" t="s">
         <v>1064</v>
       </c>
-      <c r="D348" s="21" t="s">
-        <v>490</v>
-      </c>
       <c r="E348" s="30" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F348" s="12" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="G348" s="11" t="s">
         <v>84</v>
@@ -24053,10 +24049,10 @@
         <v>1065</v>
       </c>
       <c r="J348" s="17" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="K348" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L348" s="14" t="n">
         <v>1</v>
@@ -24090,13 +24086,13 @@
         <v>#348</v>
       </c>
       <c r="C349" s="21" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D349" s="21" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="E349" s="30" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F349" s="12" t="s">
         <v>83</v>
@@ -24109,10 +24105,10 @@
         <v>1068</v>
       </c>
       <c r="J349" s="17" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="K349" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L349" s="14" t="n">
         <v>1</v>
@@ -24146,29 +24142,29 @@
         <v>#349</v>
       </c>
       <c r="C350" s="21" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D350" s="21" t="s">
         <v>1070</v>
       </c>
-      <c r="D350" s="21" t="s">
-        <v>1067</v>
-      </c>
       <c r="E350" s="30" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F350" s="12" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="G350" s="11" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H350" s="5"/>
       <c r="I350" s="16" t="s">
         <v>1071</v>
       </c>
       <c r="J350" s="17" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="K350" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L350" s="14" t="n">
         <v>1</v>
@@ -24202,13 +24198,13 @@
         <v>#350</v>
       </c>
       <c r="C351" s="21" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D351" s="21" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="E351" s="30" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="F351" s="12" t="s">
         <v>154</v>
@@ -24221,10 +24217,10 @@
         <v>1074</v>
       </c>
       <c r="J351" s="17" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="K351" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L351" s="14" t="n">
         <v>1</v>
@@ -24252,35 +24248,35 @@
       <c r="AG351" s="5"/>
     </row>
     <row r="352" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="20"/>
+      <c r="A352" s="9"/>
       <c r="B352" s="10" t="str">
         <f aca="false">"#"&amp;TEXT(ROW(B352)-1,"000")</f>
         <v>#351</v>
       </c>
-      <c r="C352" s="21" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D352" s="21" t="s">
-        <v>1073</v>
-      </c>
-      <c r="E352" s="30" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F352" s="12" t="s">
-        <v>154</v>
+      <c r="C352" s="11" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E352" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F352" s="18" t="s">
+        <v>44</v>
       </c>
       <c r="G352" s="11" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="H352" s="5"/>
       <c r="I352" s="16" t="s">
+        <v>1076</v>
+      </c>
+      <c r="J352" s="17" t="s">
         <v>1077</v>
       </c>
-      <c r="J352" s="17" t="s">
-        <v>1075</v>
-      </c>
       <c r="K352" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L352" s="14" t="n">
         <v>1</v>
@@ -24333,10 +24329,10 @@
         <v>1079</v>
       </c>
       <c r="J353" s="17" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="K353" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L353" s="14" t="n">
         <v>1</v>
@@ -24370,7 +24366,7 @@
         <v>#353</v>
       </c>
       <c r="C354" s="11" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D354" s="11" t="s">
         <v>188</v>
@@ -24386,13 +24382,13 @@
       </c>
       <c r="H354" s="5"/>
       <c r="I354" s="16" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="J354" s="17" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="K354" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L354" s="14" t="n">
         <v>1</v>
@@ -24426,29 +24422,29 @@
         <v>#354</v>
       </c>
       <c r="C355" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D355" s="11" t="s">
         <v>1083</v>
-      </c>
-      <c r="D355" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="E355" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F355" s="18" t="s">
-        <v>44</v>
+      <c r="F355" s="12" t="s">
+        <v>360</v>
       </c>
       <c r="G355" s="11" t="s">
-        <v>211</v>
+        <v>415</v>
       </c>
       <c r="H355" s="5"/>
       <c r="I355" s="16" t="s">
         <v>1084</v>
       </c>
       <c r="J355" s="17" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="K355" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L355" s="14" t="n">
         <v>1</v>
@@ -24482,13 +24478,13 @@
         <v>#355</v>
       </c>
       <c r="C356" s="11" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E356" s="11" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F356" s="12" t="s">
         <v>360</v>
@@ -24501,10 +24497,10 @@
         <v>1087</v>
       </c>
       <c r="J356" s="17" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="K356" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L356" s="14" t="n">
         <v>1</v>
@@ -24538,10 +24534,10 @@
         <v>#356</v>
       </c>
       <c r="C357" s="11" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D357" s="11" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="E357" s="11" t="s">
         <v>78</v>
@@ -24554,13 +24550,13 @@
       </c>
       <c r="H357" s="5"/>
       <c r="I357" s="16" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J357" s="17" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="K357" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L357" s="14" t="n">
         <v>1</v>
@@ -24594,29 +24590,29 @@
         <v>#357</v>
       </c>
       <c r="C358" s="11" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>1086</v>
+        <v>188</v>
       </c>
       <c r="E358" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F358" s="12" t="s">
-        <v>360</v>
+        <v>12</v>
+      </c>
+      <c r="F358" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="G358" s="11" t="s">
-        <v>415</v>
+        <v>124</v>
       </c>
       <c r="H358" s="5"/>
       <c r="I358" s="16" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J358" s="17" t="s">
         <v>1092</v>
       </c>
-      <c r="J358" s="17" t="s">
-        <v>1088</v>
-      </c>
       <c r="K358" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L358" s="14" t="n">
         <v>1</v>
@@ -24669,10 +24665,10 @@
         <v>1094</v>
       </c>
       <c r="J359" s="17" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="K359" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L359" s="14" t="n">
         <v>1</v>
@@ -24706,10 +24702,10 @@
         <v>#359</v>
       </c>
       <c r="C360" s="11" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D360" s="11" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E360" s="11" t="s">
         <v>12</v>
@@ -24722,13 +24718,13 @@
       </c>
       <c r="H360" s="5"/>
       <c r="I360" s="16" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="J360" s="17" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="K360" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L360" s="14" t="n">
         <v>1</v>
@@ -24762,29 +24758,29 @@
         <v>#360</v>
       </c>
       <c r="C361" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D361" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="D361" s="11" t="s">
-        <v>192</v>
-      </c>
       <c r="E361" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F361" s="19" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="F361" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G361" s="11" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="H361" s="5"/>
       <c r="I361" s="16" t="s">
         <v>1099</v>
       </c>
       <c r="J361" s="17" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="K361" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L361" s="14" t="n">
         <v>1</v>
@@ -24818,10 +24814,10 @@
         <v>#361</v>
       </c>
       <c r="C362" s="11" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D362" s="11" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E362" s="11" t="s">
         <v>33</v>
@@ -24837,10 +24833,10 @@
         <v>1102</v>
       </c>
       <c r="J362" s="17" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="K362" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L362" s="14" t="n">
         <v>1</v>
@@ -24874,13 +24870,13 @@
         <v>#362</v>
       </c>
       <c r="C363" s="11" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D363" s="11" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="E363" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F363" s="12" t="s">
         <v>154</v>
@@ -24890,13 +24886,13 @@
       </c>
       <c r="H363" s="5"/>
       <c r="I363" s="16" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="J363" s="17" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="K363" s="17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L363" s="14" t="n">
         <v>1</v>
@@ -24930,32 +24926,32 @@
         <v>#363</v>
       </c>
       <c r="C364" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D364" s="11" t="s">
         <v>1106</v>
       </c>
-      <c r="D364" s="11" t="s">
-        <v>1101</v>
-      </c>
       <c r="E364" s="11" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F364" s="12" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="G364" s="11" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="H364" s="5"/>
       <c r="I364" s="16" t="s">
         <v>1107</v>
       </c>
       <c r="J364" s="17" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="K364" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L364" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M364" s="8"/>
       <c r="N364" s="5"/>
@@ -24986,13 +24982,13 @@
         <v>#364</v>
       </c>
       <c r="C365" s="11" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D365" s="11" t="s">
-        <v>1109</v>
+        <v>39</v>
       </c>
       <c r="E365" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F365" s="12" t="s">
         <v>13</v>
@@ -25008,7 +25004,7 @@
         <v>1111</v>
       </c>
       <c r="K365" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L365" s="14" t="n">
         <v>3</v>
@@ -25045,7 +25041,7 @@
         <v>1112</v>
       </c>
       <c r="D366" s="11" t="s">
-        <v>39</v>
+        <v>1113</v>
       </c>
       <c r="E366" s="11" t="s">
         <v>12</v>
@@ -25058,10 +25054,10 @@
       </c>
       <c r="H366" s="5"/>
       <c r="I366" s="16" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="J366" s="17" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="K366" s="17" t="n">
         <v>5</v>
@@ -25098,19 +25094,19 @@
         <v>#366</v>
       </c>
       <c r="C367" s="11" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>1116</v>
+        <v>267</v>
       </c>
       <c r="E367" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F367" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="F367" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="G367" s="11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="H367" s="5"/>
       <c r="I367" s="16" t="s">
@@ -25120,7 +25116,7 @@
         <v>1118</v>
       </c>
       <c r="K367" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L367" s="14" t="n">
         <v>3</v>
@@ -25157,10 +25153,10 @@
         <v>1119</v>
       </c>
       <c r="D368" s="11" t="s">
-        <v>267</v>
+        <v>1120</v>
       </c>
       <c r="E368" s="11" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="F368" s="23" t="s">
         <v>139</v>
@@ -25170,13 +25166,13 @@
       </c>
       <c r="H368" s="5"/>
       <c r="I368" s="16" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="J368" s="17" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="K368" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L368" s="14" t="n">
         <v>3</v>
@@ -25210,10 +25206,10 @@
         <v>#368</v>
       </c>
       <c r="C369" s="11" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>1123</v>
+        <v>1046</v>
       </c>
       <c r="E369" s="11" t="s">
         <v>78</v>
@@ -25269,29 +25265,29 @@
         <v>1126</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>1049</v>
+        <v>1127</v>
       </c>
       <c r="E370" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F370" s="23" t="s">
-        <v>139</v>
+        <v>33</v>
+      </c>
+      <c r="F370" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="G370" s="11" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="H370" s="5"/>
       <c r="I370" s="16" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="J370" s="17" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="K370" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L370" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M370" s="8"/>
       <c r="N370" s="5"/>
@@ -25322,13 +25318,13 @@
         <v>#370</v>
       </c>
       <c r="C371" s="11" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D371" s="11" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E371" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F371" s="12" t="s">
         <v>13</v>
@@ -25341,10 +25337,10 @@
         <v>1131</v>
       </c>
       <c r="J371" s="17" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="K371" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L371" s="14" t="n">
         <v>1</v>
@@ -25378,29 +25374,29 @@
         <v>#371</v>
       </c>
       <c r="C372" s="11" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>1130</v>
+        <v>188</v>
       </c>
       <c r="E372" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F372" s="12" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="F372" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="G372" s="11" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
       <c r="H372" s="5"/>
       <c r="I372" s="16" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J372" s="17" t="s">
         <v>1134</v>
       </c>
-      <c r="J372" s="17" t="s">
-        <v>1132</v>
-      </c>
       <c r="K372" s="17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L372" s="14" t="n">
         <v>1</v>
@@ -25440,7 +25436,7 @@
         <v>188</v>
       </c>
       <c r="E373" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F373" s="23" t="s">
         <v>139</v>
@@ -25453,10 +25449,10 @@
         <v>1136</v>
       </c>
       <c r="J373" s="17" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="K373" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L373" s="14" t="n">
         <v>1</v>
@@ -25490,16 +25486,16 @@
         <v>#373</v>
       </c>
       <c r="C374" s="11" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D374" s="11" t="s">
         <v>1138</v>
-      </c>
-      <c r="D374" s="11" t="s">
-        <v>188</v>
       </c>
       <c r="E374" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F374" s="23" t="s">
-        <v>139</v>
+      <c r="F374" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="G374" s="11" t="s">
         <v>140</v>
@@ -25509,10 +25505,10 @@
         <v>1139</v>
       </c>
       <c r="J374" s="17" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="K374" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L374" s="14" t="n">
         <v>1</v>
@@ -25546,10 +25542,10 @@
         <v>#374</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="E375" s="11" t="s">
         <v>12</v>
@@ -25565,10 +25561,10 @@
         <v>1142</v>
       </c>
       <c r="J375" s="17" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="K375" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L375" s="14" t="n">
         <v>1</v>
@@ -25602,29 +25598,29 @@
         <v>#375</v>
       </c>
       <c r="C376" s="11" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1141</v>
+        <v>188</v>
       </c>
       <c r="E376" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F376" s="12" t="s">
-        <v>154</v>
+      <c r="F376" s="25" t="s">
+        <v>1144</v>
       </c>
       <c r="G376" s="11" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="H376" s="5"/>
       <c r="I376" s="16" t="s">
         <v>1145</v>
       </c>
       <c r="J376" s="17" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="K376" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L376" s="14" t="n">
         <v>1</v>
@@ -25658,7 +25654,7 @@
         <v>#376</v>
       </c>
       <c r="C377" s="11" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D377" s="11" t="s">
         <v>188</v>
@@ -25666,8 +25662,8 @@
       <c r="E377" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F377" s="31" t="s">
-        <v>1147</v>
+      <c r="F377" s="25" t="s">
+        <v>1144</v>
       </c>
       <c r="G377" s="11" t="s">
         <v>98</v>
@@ -25677,10 +25673,10 @@
         <v>1148</v>
       </c>
       <c r="J377" s="17" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="K377" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L377" s="14" t="n">
         <v>1</v>
@@ -25714,29 +25710,29 @@
         <v>#377</v>
       </c>
       <c r="C378" s="11" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D378" s="11" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="E378" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F378" s="31" t="s">
-        <v>1147</v>
+        <v>33</v>
+      </c>
+      <c r="F378" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="G378" s="11" t="s">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="H378" s="5"/>
       <c r="I378" s="16" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J378" s="17" t="s">
         <v>1151</v>
       </c>
-      <c r="J378" s="17" t="s">
-        <v>1149</v>
-      </c>
       <c r="K378" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L378" s="14" t="n">
         <v>1</v>
@@ -25776,7 +25772,7 @@
         <v>69</v>
       </c>
       <c r="E379" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F379" s="12" t="s">
         <v>278</v>
@@ -25789,10 +25785,10 @@
         <v>1153</v>
       </c>
       <c r="J379" s="17" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="K379" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L379" s="14" t="n">
         <v>1</v>
@@ -25826,29 +25822,29 @@
         <v>#379</v>
       </c>
       <c r="C380" s="11" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D380" s="11" t="s">
-        <v>69</v>
+        <v>476</v>
       </c>
       <c r="E380" s="11" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F380" s="12" t="s">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c r="G380" s="11" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="H380" s="5"/>
       <c r="I380" s="16" t="s">
+        <v>1155</v>
+      </c>
+      <c r="J380" s="17" t="s">
         <v>1156</v>
       </c>
-      <c r="J380" s="17" t="s">
-        <v>1154</v>
-      </c>
       <c r="K380" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L380" s="14" t="n">
         <v>1</v>
@@ -25888,7 +25884,7 @@
         <v>476</v>
       </c>
       <c r="E381" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F381" s="12" t="s">
         <v>154</v>
@@ -25901,10 +25897,10 @@
         <v>1158</v>
       </c>
       <c r="J381" s="17" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="K381" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L381" s="14" t="n">
         <v>1</v>
@@ -25938,29 +25934,29 @@
         <v>#381</v>
       </c>
       <c r="C382" s="11" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>476</v>
+        <v>146</v>
       </c>
       <c r="E382" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F382" s="12" t="s">
-        <v>154</v>
+        <v>33</v>
+      </c>
+      <c r="F382" s="19" t="s">
+        <v>70</v>
       </c>
       <c r="G382" s="11" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="H382" s="5"/>
       <c r="I382" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J382" s="31" t="s">
         <v>1161</v>
       </c>
-      <c r="J382" s="17" t="s">
-        <v>1159</v>
-      </c>
       <c r="K382" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L382" s="14" t="n">
         <v>1</v>
@@ -26000,7 +25996,7 @@
         <v>146</v>
       </c>
       <c r="E383" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F383" s="19" t="s">
         <v>70</v>
@@ -26012,11 +26008,11 @@
       <c r="I383" s="16" t="s">
         <v>1163</v>
       </c>
-      <c r="J383" s="32" t="s">
-        <v>1164</v>
+      <c r="J383" s="31" t="s">
+        <v>1161</v>
       </c>
       <c r="K383" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L383" s="14" t="n">
         <v>1</v>
@@ -26050,29 +26046,29 @@
         <v>#383</v>
       </c>
       <c r="C384" s="11" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>146</v>
+        <v>387</v>
       </c>
       <c r="E384" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F384" s="19" t="s">
-        <v>70</v>
+      <c r="F384" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="G384" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H384" s="5"/>
       <c r="I384" s="16" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J384" s="17" t="s">
         <v>1166</v>
       </c>
-      <c r="J384" s="32" t="s">
-        <v>1164</v>
-      </c>
       <c r="K384" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L384" s="14" t="n">
         <v>1</v>
@@ -26125,10 +26121,10 @@
         <v>1168</v>
       </c>
       <c r="J385" s="17" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="K385" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L385" s="14" t="n">
         <v>1</v>
@@ -26162,29 +26158,29 @@
         <v>#385</v>
       </c>
       <c r="C386" s="11" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D386" s="11" t="s">
-        <v>387</v>
+        <v>1049</v>
       </c>
       <c r="E386" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F386" s="12" t="s">
-        <v>83</v>
+        <v>154</v>
       </c>
       <c r="G386" s="11" t="s">
-        <v>131</v>
+        <v>1170</v>
       </c>
       <c r="H386" s="5"/>
       <c r="I386" s="16" t="s">
         <v>1171</v>
       </c>
       <c r="J386" s="17" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="K386" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L386" s="14" t="n">
         <v>1</v>
@@ -26218,29 +26214,29 @@
         <v>#386</v>
       </c>
       <c r="C387" s="11" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D387" s="11" t="s">
-        <v>1052</v>
+        <v>1174</v>
       </c>
       <c r="E387" s="11" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="F387" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G387" s="11" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="H387" s="5"/>
       <c r="I387" s="16" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="J387" s="17" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="K387" s="17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L387" s="14" t="n">
         <v>1</v>
@@ -26274,20 +26270,16 @@
         <v>#387</v>
       </c>
       <c r="C388" s="11" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>1177</v>
+        <v>108</v>
       </c>
       <c r="E388" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F388" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G388" s="11" t="s">
-        <v>1173</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F388" s="12"/>
+      <c r="G388" s="11"/>
       <c r="H388" s="5"/>
       <c r="I388" s="16" t="s">
         <v>1178</v>
@@ -26299,7 +26291,7 @@
         <v>5</v>
       </c>
       <c r="L388" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M388" s="8"/>
       <c r="N388" s="5"/>
@@ -26333,19 +26325,23 @@
         <v>1180</v>
       </c>
       <c r="D389" s="11" t="s">
-        <v>108</v>
+        <v>1181</v>
       </c>
       <c r="E389" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F389" s="12"/>
-      <c r="G389" s="11"/>
+        <v>78</v>
+      </c>
+      <c r="F389" s="25" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G389" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="H389" s="5"/>
       <c r="I389" s="16" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="J389" s="17" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="K389" s="17" t="n">
         <v>5</v>
@@ -26381,33 +26377,33 @@
         <f aca="false">"#"&amp;TEXT(ROW(B390)-1,"000")</f>
         <v>#389</v>
       </c>
-      <c r="C390" s="11" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D390" s="11" t="s">
+      <c r="C390" s="25" t="s">
         <v>1184</v>
       </c>
-      <c r="E390" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F390" s="31" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G390" s="11" t="s">
-        <v>124</v>
+      <c r="D390" s="25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E390" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F390" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G390" s="25" t="s">
+        <v>79</v>
       </c>
       <c r="H390" s="5"/>
-      <c r="I390" s="16" t="s">
-        <v>1185</v>
-      </c>
-      <c r="J390" s="17" t="s">
+      <c r="I390" s="25" t="s">
         <v>1186</v>
       </c>
+      <c r="J390" s="25" t="s">
+        <v>1187</v>
+      </c>
       <c r="K390" s="17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L390" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M390" s="8"/>
       <c r="N390" s="5"/>
@@ -26438,19 +26434,19 @@
         <v>#390</v>
       </c>
       <c r="C391" s="25" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D391" s="25" t="s">
-        <v>1188</v>
+        <v>465</v>
       </c>
       <c r="E391" s="25" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F391" s="25" t="s">
-        <v>278</v>
+        <v>23</v>
       </c>
       <c r="G391" s="25" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="H391" s="5"/>
       <c r="I391" s="25" t="s">
@@ -26500,7 +26496,7 @@
         <v>465</v>
       </c>
       <c r="E392" s="25" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F392" s="25" t="s">
         <v>23</v>
@@ -26513,10 +26509,10 @@
         <v>1192</v>
       </c>
       <c r="J392" s="25" t="s">
-        <v>877</v>
+        <v>1190</v>
       </c>
       <c r="K392" s="17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L392" s="14" t="n">
         <v>1</v>
@@ -26544,38 +26540,38 @@
       <c r="AG392" s="5"/>
     </row>
     <row r="393" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="9"/>
+      <c r="A393" s="20"/>
       <c r="B393" s="10" t="str">
         <f aca="false">"#"&amp;TEXT(ROW(B393)-1,"000")</f>
         <v>#392</v>
       </c>
-      <c r="C393" s="25" t="s">
-        <v>875</v>
-      </c>
-      <c r="D393" s="25" t="s">
-        <v>465</v>
-      </c>
-      <c r="E393" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F393" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G393" s="25" t="s">
-        <v>131</v>
+      <c r="C393" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D393" s="21" t="s">
+        <v>928</v>
+      </c>
+      <c r="E393" s="32" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F393" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G393" s="11" t="s">
+        <v>1195</v>
       </c>
       <c r="H393" s="5"/>
-      <c r="I393" s="25" t="s">
-        <v>876</v>
-      </c>
-      <c r="J393" s="25" t="s">
-        <v>877</v>
-      </c>
-      <c r="K393" s="17" t="n">
-        <v>3</v>
+      <c r="I393" s="16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="J393" s="33" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K393" s="33" t="n">
+        <v>5</v>
       </c>
       <c r="L393" s="14" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M393" s="8"/>
       <c r="N393" s="5"/>
@@ -26606,28 +26602,28 @@
         <v>#393</v>
       </c>
       <c r="C394" s="21" t="s">
-        <v>1193</v>
+        <v>1198</v>
       </c>
       <c r="D394" s="21" t="s">
-        <v>931</v>
-      </c>
-      <c r="E394" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E394" s="32" t="s">
         <v>1194</v>
       </c>
       <c r="F394" s="12" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="G394" s="11" t="s">
         <v>1195</v>
       </c>
       <c r="H394" s="5"/>
       <c r="I394" s="16" t="s">
-        <v>1196</v>
-      </c>
-      <c r="J394" s="34" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J394" s="33" t="s">
         <v>1197</v>
       </c>
-      <c r="K394" s="34" t="n">
+      <c r="K394" s="33" t="n">
         <v>5</v>
       </c>
       <c r="L394" s="14" t="n">
@@ -26655,62 +26651,7 @@
       <c r="AF394" s="5"/>
       <c r="AG394" s="5"/>
     </row>
-    <row r="395" customFormat="false" ht="284.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="20"/>
-      <c r="B395" s="10" t="str">
-        <f aca="false">"#"&amp;TEXT(ROW(B395)-1,"000")</f>
-        <v>#394</v>
-      </c>
-      <c r="C395" s="21" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D395" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E395" s="33" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F395" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G395" s="11" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H395" s="5"/>
-      <c r="I395" s="16" t="s">
-        <v>1199</v>
-      </c>
-      <c r="J395" s="34" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K395" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="L395" s="14" t="n">
-        <v>7</v>
-      </c>
-      <c r="M395" s="8"/>
-      <c r="N395" s="5"/>
-      <c r="O395" s="5"/>
-      <c r="P395" s="5"/>
-      <c r="Q395" s="5"/>
-      <c r="R395" s="5"/>
-      <c r="S395" s="5"/>
-      <c r="T395" s="5"/>
-      <c r="U395" s="5"/>
-      <c r="V395" s="5"/>
-      <c r="W395" s="5"/>
-      <c r="X395" s="5"/>
-      <c r="Y395" s="5"/>
-      <c r="Z395" s="5"/>
-      <c r="AA395" s="5"/>
-      <c r="AB395" s="5"/>
-      <c r="AC395" s="5"/>
-      <c r="AD395" s="5"/>
-      <c r="AE395" s="5"/>
-      <c r="AF395" s="5"/>
-      <c r="AG395" s="5"/>
-    </row>
+    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -27318,12 +27259,12 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E129:E276 D277:D278 E394:E395 E279:E390 E1:E127">
+  <conditionalFormatting sqref="E129:E276 D277:D278 E393:E394 E279:E389 E1:E127">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Raro"</formula>
     </cfRule>
@@ -27337,7 +27278,7 @@
       <formula>NOT(ISERROR(SEARCH("",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F20 F120 F129:F162 F164:F208 F223:F272 F287:F288 F291:F315 F318:F339 F342:F348 F394:F395 F122:F127 F23:F116 F275:F285 F211:F220 F387:F389 F382:F384 F351:F376 F379:F380">
+  <conditionalFormatting sqref="F2:F20 F120 F129:F162 F164:F208 F223:F272 F286:F287 F290:F314 F317:F338 F341:F347 F393:F394 F122:F127 F23:F116 F275:F284 F211:F220 F386:F388 F381:F383 F350:F375 F378:F379">
     <cfRule type="containsText" priority="6" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH("",F2)))</formula>
     </cfRule>
@@ -27381,7 +27322,7 @@
       <formula>NOT(ISERROR(SEARCH("",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F20 F120 F122:F127 F129:F162 F164:F208 F211:F220 F223:F272 F275:F285 F287:F288 F291:F307 F309:F311 F321 F335 F395 F23:F116 F353:F361 F368:F370 F373:F376 F383:F384 F387:F388">
+  <conditionalFormatting sqref="F2:F20 F120 F122:F127 F129:F162 F164:F208 F211:F220 F223:F272 F275:F284 F286:F287 F290:F306 F308:F310 F320 F334 F394 F23:F116 F352:F360 F367:F369 F372:F375 F382:F383 F386:F387">
     <cfRule type="containsText" priority="20" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>NOT(ISERROR(SEARCH("",F2)))</formula>
     </cfRule>
@@ -27391,12 +27332,12 @@
       <formula>NOT(ISERROR(SEARCH("",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:F39 F88:F116 F120 F122:F127 F129:F162 F164:F208 F211:F220 F223:F272 F275:F285 F287:F288 F291:F293 F302:F304 F309:F311 F321 F356:F358 F368:F370 F373:F374 F387:F388">
+  <conditionalFormatting sqref="F38:F39 F88:F116 F120 F122:F127 F129:F162 F164:F208 F211:F220 F223:F272 F275:F284 F286:F287 F290:F292 F301:F303 F308:F310 F320 F355:F357 F367:F369 F372:F373 F386:F387">
     <cfRule type="containsText" priority="22" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>NOT(ISERROR(SEARCH("",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F22 F117:F119 F121 F163 F209:F210 F221:F222 F273:F274 F286 F289:F290 F316:F317 F340:F341 F349:F350 F385:F386">
+  <conditionalFormatting sqref="F21:F22 F117:F119 F121 F163 F209:F210 F221:F222 F273:F274 F285 F288:F289 F315:F316 F339:F340 F348:F349 F384:F385">
     <cfRule type="containsText" priority="23" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>NOT(ISERROR(SEARCH("",F21)))</formula>
     </cfRule>
@@ -27446,53 +27387,53 @@
       <formula>NOT(ISERROR(SEARCH("",F21)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J394:J1003 J129:J390 J1:J127">
+  <conditionalFormatting sqref="J393:J1002 J129:J389 J1:J127">
     <cfRule type="expression" priority="39" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>LEN(TRIM(J1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F381">
+  <conditionalFormatting sqref="F380">
     <cfRule type="containsText" priority="40" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="41" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="42" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="43" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="44" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="45" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="46" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="47" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="48" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="49" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="50" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="51" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="52" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
     <cfRule type="containsText" priority="53" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>NOT(ISERROR(SEARCH("",F381)))</formula>
+      <formula>NOT(ISERROR(SEARCH("",F380)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
